--- a/jpp60.xlsx
+++ b/jpp60.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="480" windowWidth="19155" windowHeight="7260"/>
+    <workbookView xWindow="840" yWindow="480" windowWidth="19155" windowHeight="7260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="hq" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4309" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4311" uniqueCount="739">
   <si>
     <t>lprice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2311,6 +2311,14 @@
     <t>jsprice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>bS20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bS10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2619,7 +2627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2964,6 +2972,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 强调文字颜色 1" xfId="4" builtinId="30"/>
@@ -3273,7 +3290,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E4160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2051" sqref="E2051"/>
     </sheetView>
@@ -3313,7 +3330,7 @@
         <v>85100</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:E65" si="0">C2-300</f>
+        <f t="shared" ref="D2:D65" si="0">C2-300</f>
         <v>84800</v>
       </c>
       <c r="E2" s="1">
@@ -75800,18 +75817,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AH30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="25" max="26" width="12" customWidth="1"/>
+    <col min="17" max="17" width="8.875" customWidth="1"/>
+    <col min="27" max="28" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -75825,106 +75843,113 @@
         <v>115</v>
       </c>
       <c r="E1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>95</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>96</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>97</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>98</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>99</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>100</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>101</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>102</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q1" t="s">
         <v>103</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>104</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>105</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>106</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>107</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>108</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>109</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>110</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>111</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>112</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>123</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>124</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>113</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>114</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>116</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>117</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>128</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:34">
       <c r="A2">
         <v>201401</v>
       </c>
       <c r="B2">
         <v>900</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="122">
         <f>B2-D2</f>
         <v>0</v>
       </c>
       <c r="D2">
         <v>900</v>
       </c>
-      <c r="E2">
-        <v>600</v>
+      <c r="E2" s="122">
+        <f>D2-F2</f>
+        <v>300</v>
       </c>
       <c r="F2">
         <v>600</v>
@@ -75945,18 +75970,19 @@
         <v>600</v>
       </c>
       <c r="L2">
+        <v>600</v>
+      </c>
+      <c r="M2">
         <v>500</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>400</v>
-      </c>
-      <c r="N2">
-        <v>300</v>
       </c>
       <c r="O2">
         <v>300</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="122">
+        <f>F2-Q2</f>
         <v>300</v>
       </c>
       <c r="Q2">
@@ -75975,61 +76001,68 @@
         <v>300</v>
       </c>
       <c r="V2">
+        <v>300</v>
+      </c>
+      <c r="W2">
+        <v>300</v>
+      </c>
+      <c r="X2">
         <v>100</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>0</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>0</v>
       </c>
-      <c r="Y2" s="39">
+      <c r="AA2" s="39">
         <v>900</v>
       </c>
-      <c r="Z2" s="44">
-        <f>Y2+300</f>
+      <c r="AB2" s="44">
+        <f>AA2+300</f>
         <v>1200</v>
       </c>
-      <c r="AA2">
-        <f>O2/Y2</f>
+      <c r="AC2">
+        <f>Q2/AA2</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AB2">
-        <f>E2/Y2</f>
+      <c r="AD2">
+        <f>F2/AA2</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AC2">
-        <f>D2/Y2</f>
+      <c r="AE2">
+        <f>D2/AA2</f>
         <v>1</v>
       </c>
-      <c r="AD2">
-        <f>1000/O2</f>
+      <c r="AF2">
+        <f>1000/Q2</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AE2">
-        <f>2000/E2</f>
+      <c r="AG2">
+        <f>2000/F2</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <f>6000/D2</f>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:34">
       <c r="A3">
         <v>201402</v>
       </c>
       <c r="B3">
         <v>600</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="122">
         <f t="shared" ref="C3:C30" si="0">B3-D3</f>
         <v>0</v>
       </c>
       <c r="D3">
         <v>600</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="122">
+        <f t="shared" ref="E3:E30" si="1">D3-F3</f>
         <v>300</v>
       </c>
       <c r="F3">
@@ -76062,20 +76095,21 @@
       <c r="O3">
         <v>300</v>
       </c>
-      <c r="P3">
-        <v>300</v>
+      <c r="P3" s="122">
+        <f t="shared" ref="P3:P30" si="2">F3-Q3</f>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>300</v>
       </c>
       <c r="R3">
+        <v>300</v>
+      </c>
+      <c r="S3">
+        <v>300</v>
+      </c>
+      <c r="T3">
         <v>100</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -76089,54 +76123,61 @@
       <c r="X3">
         <v>0</v>
       </c>
-      <c r="Y3" s="39">
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="39">
         <v>600</v>
       </c>
-      <c r="Z3" s="44">
-        <f t="shared" ref="Z3:Z26" si="1">Y3+300</f>
+      <c r="AB3" s="44">
+        <f t="shared" ref="AB3:AB30" si="3">AA3+300</f>
         <v>900</v>
       </c>
-      <c r="AA3">
-        <f t="shared" ref="AA3:AA26" si="2">O3/Y3</f>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC30" si="4">Q3/AA3</f>
         <v>0.5</v>
       </c>
-      <c r="AB3">
-        <f t="shared" ref="AB3:AB26" si="3">E3/Y3</f>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD30" si="5">F3/AA3</f>
         <v>0.5</v>
       </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC26" si="4">D3/Y3</f>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE30" si="6">D3/AA3</f>
         <v>1</v>
       </c>
-      <c r="AD3">
-        <f t="shared" ref="AD3:AD26" si="5">1000/O3</f>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF30" si="7">1000/Q3</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AE3">
-        <f t="shared" ref="AE3:AE26" si="6">2000/E3</f>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG30" si="8">2000/F3</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="AF3">
-        <f t="shared" ref="AF3:AF27" si="7">6000/D3</f>
+      <c r="AH3">
+        <f>6000/D3</f>
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:34">
       <c r="A4">
         <v>201403</v>
       </c>
       <c r="B4">
         <v>1200</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="122">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="D4">
         <v>900</v>
       </c>
-      <c r="E4">
-        <v>300</v>
+      <c r="E4" s="122">
+        <f t="shared" si="1"/>
+        <v>600</v>
       </c>
       <c r="F4">
         <v>300</v>
@@ -76160,25 +76201,26 @@
         <v>300</v>
       </c>
       <c r="M4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N4">
         <v>200</v>
       </c>
       <c r="O4">
-        <v>100</v>
-      </c>
-      <c r="P4">
-        <v>100</v>
+        <v>200</v>
+      </c>
+      <c r="P4" s="122">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="Q4">
         <v>100</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -76195,54 +76237,61 @@
       <c r="X4">
         <v>0</v>
       </c>
-      <c r="Y4" s="39">
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="39">
         <v>1200</v>
       </c>
-      <c r="Z4" s="44">
-        <f t="shared" si="1"/>
+      <c r="AB4" s="44">
+        <f t="shared" si="3"/>
         <v>1500</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="2"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
       </c>
       <c r="AC4">
         <f t="shared" si="4"/>
-        <v>0.75</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AD4">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>0.25</v>
       </c>
       <c r="AE4">
         <f t="shared" si="6"/>
-        <v>6.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="AF4">
         <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="8"/>
         <v>6.666666666666667</v>
       </c>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AH4">
+        <f>6000/D4</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5">
         <v>201404</v>
       </c>
       <c r="B5">
         <v>1400</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="122">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="D5">
         <v>900</v>
       </c>
-      <c r="E5">
-        <v>500</v>
+      <c r="E5" s="122">
+        <f t="shared" si="1"/>
+        <v>400</v>
       </c>
       <c r="F5">
         <v>500</v>
@@ -76254,13 +76303,13 @@
         <v>500</v>
       </c>
       <c r="I5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J5">
         <v>300</v>
       </c>
       <c r="K5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L5">
         <v>200</v>
@@ -76274,8 +76323,9 @@
       <c r="O5">
         <v>200</v>
       </c>
-      <c r="P5">
-        <v>200</v>
+      <c r="P5" s="122">
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="Q5">
         <v>200</v>
@@ -76290,10 +76340,10 @@
         <v>200</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -76301,63 +76351,70 @@
       <c r="X5">
         <v>0</v>
       </c>
-      <c r="Y5" s="39">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="39">
         <v>1400</v>
       </c>
-      <c r="Z5" s="44">
-        <f t="shared" si="1"/>
+      <c r="AB5" s="44">
+        <f t="shared" si="3"/>
         <v>1700</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="3"/>
-        <v>0.35714285714285715</v>
       </c>
       <c r="AC5">
         <f t="shared" si="4"/>
-        <v>0.6428571428571429</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AD5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="AE5">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="AF5">
         <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AH5">
+        <f>6000/D5</f>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>201405</v>
       </c>
       <c r="B6">
         <v>1800</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="122">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="D6">
         <v>1200</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="122">
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="F6">
+        <v>600</v>
+      </c>
+      <c r="G6">
         <v>500</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>400</v>
-      </c>
-      <c r="H6">
-        <v>300</v>
       </c>
       <c r="I6">
         <v>300</v>
@@ -76375,25 +76432,26 @@
         <v>300</v>
       </c>
       <c r="N6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O6">
         <v>200</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="122">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="Q6">
         <v>200</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
+        <v>200</v>
+      </c>
+      <c r="S6">
         <v>100</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>100</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -76407,53 +76465,60 @@
       <c r="X6">
         <v>0</v>
       </c>
-      <c r="Y6" s="39">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="39">
         <v>1800</v>
       </c>
-      <c r="Z6" s="44">
-        <f t="shared" si="1"/>
+      <c r="AB6" s="44">
+        <f t="shared" si="3"/>
         <v>2100</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
       </c>
       <c r="AC6">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AD6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE6">
         <f t="shared" si="6"/>
-        <v>3.3333333333333335</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AF6">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AG6">
+        <f t="shared" si="8"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AH6">
+        <f>6000/D6</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7">
         <v>201406</v>
       </c>
       <c r="B7">
         <v>1200</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="122">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="D7">
         <v>600</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="122">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="F7">
@@ -76484,19 +76549,20 @@
         <v>300</v>
       </c>
       <c r="O7">
+        <v>300</v>
+      </c>
+      <c r="P7" s="122">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="Q7">
         <v>200</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>200</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>100</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -76513,54 +76579,61 @@
       <c r="X7">
         <v>0</v>
       </c>
-      <c r="Y7" s="39">
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="39">
         <v>1200</v>
       </c>
-      <c r="Z7" s="44">
-        <f t="shared" si="1"/>
+      <c r="AB7" s="44">
+        <f t="shared" si="3"/>
         <v>1500</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
       </c>
       <c r="AC7">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AD7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="AE7">
         <f t="shared" si="6"/>
-        <v>6.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="AF7">
         <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="8"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AH7">
+        <f>6000/D7</f>
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:34">
       <c r="A8">
         <v>201407</v>
       </c>
       <c r="B8">
         <v>2000</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="122">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
       <c r="D8">
         <v>1300</v>
       </c>
-      <c r="E8">
-        <v>400</v>
+      <c r="E8" s="122">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
       <c r="F8">
         <v>400</v>
@@ -76572,7 +76645,7 @@
         <v>400</v>
       </c>
       <c r="I8">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J8">
         <v>300</v>
@@ -76587,12 +76660,13 @@
         <v>300</v>
       </c>
       <c r="N8">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O8">
         <v>200</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="122">
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="Q8">
@@ -76605,10 +76679,10 @@
         <v>200</v>
       </c>
       <c r="T8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V8">
         <v>100</v>
@@ -76619,54 +76693,61 @@
       <c r="X8">
         <v>100</v>
       </c>
-      <c r="Y8" s="39">
+      <c r="Y8">
+        <v>100</v>
+      </c>
+      <c r="Z8">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="39">
         <v>2000</v>
       </c>
-      <c r="Z8" s="44">
-        <f t="shared" si="1"/>
+      <c r="AB8" s="44">
+        <f t="shared" si="3"/>
         <v>2300</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
       </c>
       <c r="AC8">
         <f t="shared" si="4"/>
-        <v>0.65</v>
+        <v>0.1</v>
       </c>
       <c r="AD8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="AE8">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>0.65</v>
       </c>
       <c r="AF8">
         <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AH8">
+        <f>6000/D8</f>
         <v>4.615384615384615</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:34">
       <c r="A9">
         <v>201408</v>
       </c>
       <c r="B9">
         <v>1000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="122">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="D9">
         <v>700</v>
       </c>
-      <c r="E9">
-        <v>400</v>
+      <c r="E9" s="122">
+        <f t="shared" si="1"/>
+        <v>300</v>
       </c>
       <c r="F9">
         <v>400</v>
@@ -76675,19 +76756,19 @@
         <v>400</v>
       </c>
       <c r="H9">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I9">
         <v>300</v>
       </c>
       <c r="J9">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K9">
         <v>200</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M9">
         <v>100</v>
@@ -76698,8 +76779,9 @@
       <c r="O9">
         <v>100</v>
       </c>
-      <c r="P9">
-        <v>100</v>
+      <c r="P9" s="122">
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="Q9">
         <v>100</v>
@@ -76720,62 +76802,69 @@
         <v>100</v>
       </c>
       <c r="W9">
+        <v>100</v>
+      </c>
+      <c r="X9">
+        <v>100</v>
+      </c>
+      <c r="Y9">
         <v>0</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>0</v>
       </c>
-      <c r="Y9" s="39">
+      <c r="AA9" s="39">
         <v>1000</v>
       </c>
-      <c r="Z9" s="44">
-        <f t="shared" si="1"/>
+      <c r="AB9" s="44">
+        <f t="shared" si="3"/>
         <v>1300</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
       </c>
       <c r="AC9">
         <f t="shared" si="4"/>
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="AD9">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>0.4</v>
       </c>
       <c r="AE9">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="AF9">
         <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AH9">
+        <f>6000/D9</f>
         <v>8.5714285714285712</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:34">
       <c r="A10">
         <v>201409</v>
       </c>
       <c r="B10">
         <v>1200</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="122">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="D10">
         <v>900</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="122">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="F10">
         <v>500</v>
-      </c>
-      <c r="F10">
-        <v>400</v>
       </c>
       <c r="G10">
         <v>400</v>
@@ -76784,7 +76873,7 @@
         <v>400</v>
       </c>
       <c r="I10">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J10">
         <v>300</v>
@@ -76804,8 +76893,9 @@
       <c r="O10">
         <v>300</v>
       </c>
-      <c r="P10">
-        <v>300</v>
+      <c r="P10" s="122">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="Q10">
         <v>300</v>
@@ -76814,71 +76904,78 @@
         <v>300</v>
       </c>
       <c r="S10">
+        <v>300</v>
+      </c>
+      <c r="T10">
+        <v>300</v>
+      </c>
+      <c r="U10">
         <v>200</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>100</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>100</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
-      <c r="Y10" s="39">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="39">
         <v>1200</v>
       </c>
-      <c r="Z10" s="44">
-        <f t="shared" si="1"/>
+      <c r="AB10" s="44">
+        <f t="shared" si="3"/>
         <v>1500</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="3"/>
-        <v>0.41666666666666669</v>
       </c>
       <c r="AC10">
         <f t="shared" si="4"/>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AD10">
         <f t="shared" si="5"/>
-        <v>3.3333333333333335</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="AE10">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0.75</v>
       </c>
       <c r="AF10">
         <f t="shared" si="7"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AH10">
+        <f>6000/D10</f>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:34">
       <c r="A11">
         <v>201410</v>
       </c>
       <c r="B11">
         <v>1400</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="122">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="D11">
         <v>1100</v>
       </c>
-      <c r="E11">
-        <v>500</v>
+      <c r="E11" s="122">
+        <f t="shared" si="1"/>
+        <v>600</v>
       </c>
       <c r="F11">
         <v>500</v>
@@ -76893,7 +76990,7 @@
         <v>500</v>
       </c>
       <c r="J11">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K11">
         <v>400</v>
@@ -76902,16 +76999,17 @@
         <v>400</v>
       </c>
       <c r="M11">
+        <v>400</v>
+      </c>
+      <c r="N11">
         <v>300</v>
-      </c>
-      <c r="N11">
-        <v>200</v>
       </c>
       <c r="O11">
         <v>200</v>
       </c>
-      <c r="P11">
-        <v>200</v>
+      <c r="P11" s="122">
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="Q11">
         <v>200</v>
@@ -76926,10 +77024,10 @@
         <v>200</v>
       </c>
       <c r="U11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W11">
         <v>100</v>
@@ -76937,54 +77035,61 @@
       <c r="X11">
         <v>100</v>
       </c>
-      <c r="Y11" s="39">
+      <c r="Y11">
+        <v>100</v>
+      </c>
+      <c r="Z11">
+        <v>100</v>
+      </c>
+      <c r="AA11" s="39">
         <v>1400</v>
       </c>
-      <c r="Z11" s="44">
-        <f t="shared" si="1"/>
+      <c r="AB11" s="44">
+        <f t="shared" si="3"/>
         <v>1700</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="3"/>
-        <v>0.35714285714285715</v>
       </c>
       <c r="AC11">
         <f t="shared" si="4"/>
-        <v>0.7857142857142857</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AD11">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="AE11">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="AF11">
         <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AH11">
+        <f>6000/D11</f>
         <v>5.4545454545454541</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:34">
       <c r="A12">
         <v>201411</v>
       </c>
       <c r="B12">
         <v>900</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="122">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="D12">
         <v>600</v>
       </c>
-      <c r="E12">
-        <v>600</v>
+      <c r="E12" s="122">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>600</v>
@@ -77002,10 +77107,10 @@
         <v>600</v>
       </c>
       <c r="K12">
+        <v>600</v>
+      </c>
+      <c r="L12">
         <v>400</v>
-      </c>
-      <c r="L12">
-        <v>300</v>
       </c>
       <c r="M12">
         <v>300</v>
@@ -77016,26 +77121,27 @@
       <c r="O12">
         <v>300</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="122">
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="Q12">
+        <v>300</v>
+      </c>
+      <c r="R12">
+        <v>300</v>
+      </c>
+      <c r="S12">
         <v>200</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>200</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>100</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>100</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -77043,54 +77149,61 @@
       <c r="X12">
         <v>0</v>
       </c>
-      <c r="Y12" s="39">
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="39">
         <v>900</v>
       </c>
-      <c r="Z12" s="44">
-        <f t="shared" si="1"/>
+      <c r="AB12" s="44">
+        <f t="shared" si="3"/>
         <v>1200</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
       </c>
       <c r="AC12">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD12">
         <f t="shared" si="5"/>
-        <v>3.3333333333333335</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AE12">
         <f t="shared" si="6"/>
-        <v>3.3333333333333335</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AF12">
         <f t="shared" si="7"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="8"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AH12">
+        <f>6000/D12</f>
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:34">
       <c r="A13">
         <v>201412</v>
       </c>
       <c r="B13">
         <v>1000</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="122">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="D13">
         <v>700</v>
       </c>
-      <c r="E13">
-        <v>700</v>
+      <c r="E13" s="122">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>700</v>
@@ -77099,16 +77212,16 @@
         <v>700</v>
       </c>
       <c r="H13">
+        <v>700</v>
+      </c>
+      <c r="I13">
         <v>600</v>
-      </c>
-      <c r="I13">
-        <v>500</v>
       </c>
       <c r="J13">
         <v>500</v>
       </c>
       <c r="K13">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L13">
         <v>400</v>
@@ -77122,20 +77235,21 @@
       <c r="O13">
         <v>400</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="122">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="Q13">
         <v>400</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
+        <v>400</v>
+      </c>
+      <c r="S13">
         <v>300</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>200</v>
-      </c>
-      <c r="S13">
-        <v>100</v>
-      </c>
-      <c r="T13">
-        <v>100</v>
       </c>
       <c r="U13">
         <v>100</v>
@@ -77147,56 +77261,63 @@
         <v>100</v>
       </c>
       <c r="X13">
+        <v>100</v>
+      </c>
+      <c r="Y13">
+        <v>100</v>
+      </c>
+      <c r="Z13">
         <v>0</v>
       </c>
-      <c r="Y13" s="39">
+      <c r="AA13" s="39">
         <v>1000</v>
       </c>
-      <c r="Z13" s="44">
-        <f t="shared" si="1"/>
+      <c r="AB13" s="44">
+        <f t="shared" si="3"/>
         <v>1300</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="3"/>
-        <v>0.7</v>
       </c>
       <c r="AC13">
         <f t="shared" si="4"/>
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AD13">
         <f t="shared" si="5"/>
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="AE13">
         <f t="shared" si="6"/>
-        <v>2.8571428571428572</v>
+        <v>0.7</v>
       </c>
       <c r="AF13">
         <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="8"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="AH13">
+        <f>6000/D13</f>
         <v>8.5714285714285712</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:34">
       <c r="A14">
         <v>201502</v>
       </c>
       <c r="B14">
         <v>2800</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="122">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
       <c r="D14">
         <v>500</v>
       </c>
-      <c r="E14">
-        <v>300</v>
+      <c r="E14" s="122">
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="F14">
         <v>300</v>
@@ -77214,7 +77335,7 @@
         <v>300</v>
       </c>
       <c r="K14">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L14">
         <v>200</v>
@@ -77228,8 +77349,9 @@
       <c r="O14">
         <v>200</v>
       </c>
-      <c r="P14">
-        <v>200</v>
+      <c r="P14" s="122">
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="Q14">
         <v>200</v>
@@ -77238,10 +77360,10 @@
         <v>200</v>
       </c>
       <c r="S14">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T14">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U14">
         <v>100</v>
@@ -77250,59 +77372,66 @@
         <v>100</v>
       </c>
       <c r="W14">
+        <v>100</v>
+      </c>
+      <c r="X14">
+        <v>100</v>
+      </c>
+      <c r="Y14">
         <v>0</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>0</v>
       </c>
-      <c r="Y14" s="39">
+      <c r="AA14" s="39">
         <v>2800</v>
       </c>
-      <c r="Z14" s="44">
-        <f t="shared" si="1"/>
+      <c r="AB14" s="44">
+        <f t="shared" si="3"/>
         <v>3100</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="2"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="3"/>
-        <v>0.10714285714285714</v>
       </c>
       <c r="AC14">
         <f t="shared" si="4"/>
-        <v>0.17857142857142858</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="AD14">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="AE14">
         <f t="shared" si="6"/>
-        <v>6.666666666666667</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="AF14">
         <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="8"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AH14">
+        <f>6000/D14</f>
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:34">
       <c r="A15">
         <v>201504</v>
       </c>
       <c r="B15">
         <v>5400</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="122">
         <f t="shared" si="0"/>
         <v>4700</v>
       </c>
       <c r="D15">
         <v>700</v>
       </c>
-      <c r="E15">
-        <v>300</v>
+      <c r="E15" s="122">
+        <f t="shared" si="1"/>
+        <v>400</v>
       </c>
       <c r="F15">
         <v>300</v>
@@ -77329,28 +77458,29 @@
         <v>300</v>
       </c>
       <c r="N15">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O15">
         <v>200</v>
       </c>
-      <c r="P15">
-        <v>200</v>
+      <c r="P15" s="122">
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="Q15">
         <v>200</v>
       </c>
       <c r="R15">
+        <v>200</v>
+      </c>
+      <c r="S15">
+        <v>200</v>
+      </c>
+      <c r="T15">
         <v>100</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>100</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -77361,54 +77491,61 @@
       <c r="X15">
         <v>0</v>
       </c>
-      <c r="Y15" s="39">
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="39">
         <v>5400</v>
       </c>
-      <c r="Z15" s="44">
-        <f t="shared" si="1"/>
+      <c r="AB15" s="44">
+        <f t="shared" si="3"/>
         <v>5700</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="2"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="3"/>
-        <v>5.5555555555555552E-2</v>
       </c>
       <c r="AC15">
         <f t="shared" si="4"/>
-        <v>0.12962962962962962</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="AD15">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="AE15">
         <f t="shared" si="6"/>
-        <v>6.666666666666667</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="AF15">
         <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="8"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AH15">
+        <f>6000/D15</f>
         <v>8.5714285714285712</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:34">
       <c r="A16">
         <v>201505</v>
       </c>
       <c r="B16">
         <v>3800</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="122">
         <f t="shared" si="0"/>
         <v>3100</v>
       </c>
       <c r="D16">
         <v>700</v>
       </c>
-      <c r="E16">
-        <v>300</v>
+      <c r="E16" s="122">
+        <f t="shared" si="1"/>
+        <v>400</v>
       </c>
       <c r="F16">
         <v>300</v>
@@ -77417,7 +77554,7 @@
         <v>300</v>
       </c>
       <c r="H16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I16">
         <v>200</v>
@@ -77440,11 +77577,12 @@
       <c r="O16">
         <v>200</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="122">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="Q16">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R16">
         <v>100</v>
@@ -77465,62 +77603,69 @@
         <v>100</v>
       </c>
       <c r="X16">
+        <v>100</v>
+      </c>
+      <c r="Y16">
+        <v>100</v>
+      </c>
+      <c r="Z16">
         <v>0</v>
       </c>
-      <c r="Y16" s="39">
+      <c r="AA16" s="39">
         <v>3800</v>
       </c>
-      <c r="Z16" s="44">
-        <f t="shared" si="1"/>
+      <c r="AB16" s="44">
+        <f t="shared" si="3"/>
         <v>4100</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="2"/>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="3"/>
-        <v>7.8947368421052627E-2</v>
       </c>
       <c r="AC16">
         <f t="shared" si="4"/>
-        <v>0.18421052631578946</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="AD16">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="AE16">
         <f t="shared" si="6"/>
-        <v>6.666666666666667</v>
+        <v>0.18421052631578946</v>
       </c>
       <c r="AF16">
         <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="8"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AH16">
+        <f>6000/D16</f>
         <v>8.5714285714285712</v>
       </c>
     </row>
-    <row r="17" spans="1:32" s="46" customFormat="1">
+    <row r="17" spans="1:34" s="46" customFormat="1">
       <c r="A17" s="46">
         <v>201506</v>
       </c>
       <c r="B17" s="46">
         <v>4800</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="122">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="D17" s="46">
         <v>2300</v>
       </c>
-      <c r="E17" s="46">
-        <v>900</v>
+      <c r="E17" s="122">
+        <f t="shared" si="1"/>
+        <v>1400</v>
       </c>
       <c r="F17" s="46">
         <v>900</v>
       </c>
       <c r="G17" s="46">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H17" s="46">
         <v>800</v>
@@ -77529,16 +77674,16 @@
         <v>800</v>
       </c>
       <c r="J17" s="46">
+        <v>800</v>
+      </c>
+      <c r="K17" s="46">
         <v>700</v>
-      </c>
-      <c r="K17" s="46">
-        <v>600</v>
       </c>
       <c r="L17" s="46">
         <v>600</v>
       </c>
       <c r="M17" s="46">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N17" s="46">
         <v>500</v>
@@ -77546,93 +77691,101 @@
       <c r="O17" s="46">
         <v>500</v>
       </c>
-      <c r="P17" s="46">
+      <c r="P17" s="122">
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="Q17" s="46">
+        <v>500</v>
+      </c>
+      <c r="R17" s="46">
         <v>400</v>
       </c>
-      <c r="R17" s="46">
-        <v>300</v>
-      </c>
       <c r="S17" s="46">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T17" s="46">
         <v>300</v>
       </c>
       <c r="U17" s="46">
+        <v>300</v>
+      </c>
+      <c r="V17" s="46">
+        <v>300</v>
+      </c>
+      <c r="W17" s="46">
         <v>200</v>
-      </c>
-      <c r="V17" s="46">
-        <v>100</v>
-      </c>
-      <c r="W17" s="46">
-        <v>100</v>
       </c>
       <c r="X17" s="46">
         <v>100</v>
       </c>
-      <c r="Y17" s="47">
+      <c r="Y17" s="46">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="46">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="47">
         <v>4800</v>
       </c>
-      <c r="Z17" s="48">
-        <f t="shared" si="1"/>
+      <c r="AB17" s="48">
+        <f t="shared" si="3"/>
         <v>5100</v>
-      </c>
-      <c r="AA17" s="46">
-        <f t="shared" si="2"/>
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="AB17" s="46">
-        <f t="shared" si="3"/>
-        <v>0.1875</v>
       </c>
       <c r="AC17" s="46">
         <f t="shared" si="4"/>
-        <v>0.47916666666666669</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AD17" s="46">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0.1875</v>
       </c>
       <c r="AE17" s="46">
         <f t="shared" si="6"/>
-        <v>2.2222222222222223</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="AF17" s="46">
         <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AG17" s="46">
+        <f t="shared" si="8"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="AH17" s="46">
+        <f>6000/D17</f>
         <v>2.6086956521739131</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:34">
       <c r="A18">
         <v>201507</v>
       </c>
       <c r="B18">
         <v>3200</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="122">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="D18">
         <v>1700</v>
       </c>
-      <c r="E18">
-        <v>800</v>
+      <c r="E18" s="122">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
       <c r="F18">
         <v>800</v>
       </c>
       <c r="G18">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H18">
         <v>700</v>
       </c>
       <c r="I18">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J18">
         <v>600</v>
@@ -77641,7 +77794,7 @@
         <v>600</v>
       </c>
       <c r="L18">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M18">
         <v>500</v>
@@ -77650,25 +77803,26 @@
         <v>500</v>
       </c>
       <c r="O18">
+        <v>500</v>
+      </c>
+      <c r="P18" s="122">
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="P18">
-        <v>300</v>
-      </c>
       <c r="Q18">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R18">
         <v>300</v>
       </c>
       <c r="S18">
+        <v>300</v>
+      </c>
+      <c r="T18">
+        <v>300</v>
+      </c>
+      <c r="U18">
         <v>200</v>
-      </c>
-      <c r="T18">
-        <v>100</v>
-      </c>
-      <c r="U18">
-        <v>100</v>
       </c>
       <c r="V18">
         <v>100</v>
@@ -77677,56 +77831,63 @@
         <v>100</v>
       </c>
       <c r="X18">
+        <v>100</v>
+      </c>
+      <c r="Y18">
+        <v>100</v>
+      </c>
+      <c r="Z18">
         <v>0</v>
       </c>
-      <c r="Y18" s="39">
+      <c r="AA18" s="39">
         <v>3200</v>
       </c>
-      <c r="Z18" s="44">
-        <f t="shared" si="1"/>
+      <c r="AB18" s="44">
+        <f t="shared" si="3"/>
         <v>3500</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="2"/>
-        <v>0.125</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
       </c>
       <c r="AC18">
         <f t="shared" si="4"/>
-        <v>0.53125</v>
+        <v>0.125</v>
       </c>
       <c r="AD18">
         <f t="shared" si="5"/>
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="AE18">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>0.53125</v>
       </c>
       <c r="AF18">
         <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH18">
+        <f>6000/D18</f>
         <v>3.5294117647058822</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:34">
       <c r="A19">
         <v>201508</v>
       </c>
       <c r="B19">
         <v>2700</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="122">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="D19">
         <v>1500</v>
       </c>
-      <c r="E19">
-        <v>800</v>
+      <c r="E19" s="122">
+        <f t="shared" si="1"/>
+        <v>700</v>
       </c>
       <c r="F19">
         <v>800</v>
@@ -77735,7 +77896,7 @@
         <v>800</v>
       </c>
       <c r="H19">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I19">
         <v>700</v>
@@ -77744,7 +77905,7 @@
         <v>700</v>
       </c>
       <c r="K19">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L19">
         <v>600</v>
@@ -77756,83 +77917,91 @@
         <v>600</v>
       </c>
       <c r="O19">
+        <v>600</v>
+      </c>
+      <c r="P19" s="122">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="Q19">
         <v>500</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>500</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>400</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>400</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>300</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>200</v>
-      </c>
-      <c r="U19">
-        <v>100</v>
-      </c>
-      <c r="V19">
-        <v>100</v>
       </c>
       <c r="W19">
         <v>100</v>
       </c>
       <c r="X19">
+        <v>100</v>
+      </c>
+      <c r="Y19">
+        <v>100</v>
+      </c>
+      <c r="Z19">
         <v>0</v>
       </c>
-      <c r="Y19" s="39">
+      <c r="AA19" s="39">
         <v>2700</v>
       </c>
-      <c r="Z19" s="44">
-        <f t="shared" si="1"/>
+      <c r="AB19" s="44">
+        <f t="shared" si="3"/>
         <v>3000</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" si="2"/>
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" si="3"/>
-        <v>0.29629629629629628</v>
       </c>
       <c r="AC19">
         <f t="shared" si="4"/>
-        <v>0.55555555555555558</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="AD19">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0.29629629629629628</v>
       </c>
       <c r="AE19">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="AF19">
         <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH19">
+        <f>6000/D19</f>
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:34">
       <c r="A20">
         <v>201509</v>
       </c>
       <c r="B20">
         <v>2200</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="122">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="D20">
         <v>1300</v>
       </c>
-      <c r="E20">
-        <v>700</v>
+      <c r="E20" s="122">
+        <f t="shared" si="1"/>
+        <v>600</v>
       </c>
       <c r="F20">
         <v>700</v>
@@ -77844,7 +78013,7 @@
         <v>700</v>
       </c>
       <c r="I20">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J20">
         <v>600</v>
@@ -77856,89 +78025,97 @@
         <v>600</v>
       </c>
       <c r="M20">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N20">
         <v>500</v>
       </c>
       <c r="O20">
-        <v>400</v>
-      </c>
-      <c r="P20">
-        <v>400</v>
+        <v>500</v>
+      </c>
+      <c r="P20" s="122">
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="Q20">
         <v>400</v>
       </c>
       <c r="R20">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S20">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T20">
         <v>300</v>
       </c>
       <c r="U20">
+        <v>300</v>
+      </c>
+      <c r="V20">
+        <v>300</v>
+      </c>
+      <c r="W20">
         <v>200</v>
-      </c>
-      <c r="V20">
-        <v>100</v>
-      </c>
-      <c r="W20">
-        <v>100</v>
       </c>
       <c r="X20">
         <v>100</v>
       </c>
-      <c r="Y20" s="39">
+      <c r="Y20">
+        <v>100</v>
+      </c>
+      <c r="Z20">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="39">
         <v>2200</v>
       </c>
-      <c r="Z20" s="44">
-        <f t="shared" si="1"/>
+      <c r="AB20" s="44">
+        <f t="shared" si="3"/>
         <v>2500</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" si="3"/>
-        <v>0.31818181818181818</v>
       </c>
       <c r="AC20">
         <f t="shared" si="4"/>
-        <v>0.59090909090909094</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="AD20">
         <f t="shared" si="5"/>
-        <v>2.5</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="AE20">
         <f t="shared" si="6"/>
-        <v>2.8571428571428572</v>
+        <v>0.59090909090909094</v>
       </c>
       <c r="AF20">
         <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="8"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="AH20">
+        <f>6000/D20</f>
         <v>4.615384615384615</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:34">
       <c r="A21">
         <v>201510</v>
       </c>
       <c r="B21">
         <v>2700</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="122">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="D21">
         <v>1500</v>
       </c>
-      <c r="E21">
-        <v>800</v>
+      <c r="E21" s="122">
+        <f t="shared" si="1"/>
+        <v>700</v>
       </c>
       <c r="F21">
         <v>800</v>
@@ -77947,7 +78124,7 @@
         <v>800</v>
       </c>
       <c r="H21">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I21">
         <v>700</v>
@@ -77956,95 +78133,103 @@
         <v>700</v>
       </c>
       <c r="K21">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L21">
         <v>600</v>
       </c>
       <c r="M21">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N21">
         <v>500</v>
       </c>
       <c r="O21">
+        <v>500</v>
+      </c>
+      <c r="P21" s="122">
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>400</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
+        <v>400</v>
+      </c>
+      <c r="S21">
         <v>300</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>300</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>200</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>100</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>100</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
       </c>
       <c r="X21">
         <v>0</v>
       </c>
-      <c r="Y21" s="39">
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="39">
         <v>2700</v>
       </c>
-      <c r="Z21" s="44">
-        <f t="shared" si="1"/>
+      <c r="AB21" s="44">
+        <f t="shared" si="3"/>
         <v>3000</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" si="2"/>
-        <v>0.14814814814814814</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="3"/>
-        <v>0.29629629629629628</v>
       </c>
       <c r="AC21">
         <f t="shared" si="4"/>
-        <v>0.55555555555555558</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="AD21">
         <f t="shared" si="5"/>
-        <v>2.5</v>
+        <v>0.29629629629629628</v>
       </c>
       <c r="AE21">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="AF21">
         <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH21">
+        <f>6000/D21</f>
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:32" s="41" customFormat="1">
+    <row r="22" spans="1:34" s="41" customFormat="1">
       <c r="A22" s="41">
         <v>201511</v>
       </c>
       <c r="B22" s="41">
         <v>2000</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="122">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="D22" s="41">
         <v>1100</v>
       </c>
-      <c r="E22" s="41">
-        <v>600</v>
+      <c r="E22" s="122">
+        <f t="shared" si="1"/>
+        <v>500</v>
       </c>
       <c r="F22" s="41">
         <v>600</v>
@@ -78053,7 +78238,7 @@
         <v>600</v>
       </c>
       <c r="H22" s="41">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I22" s="41">
         <v>500</v>
@@ -78076,81 +78261,89 @@
       <c r="O22" s="41">
         <v>500</v>
       </c>
-      <c r="P22" s="41">
+      <c r="P22" s="122">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="Q22" s="41">
+        <v>500</v>
+      </c>
+      <c r="R22" s="41">
         <v>400</v>
       </c>
-      <c r="Q22" s="41">
+      <c r="S22" s="41">
         <v>400</v>
-      </c>
-      <c r="R22" s="41">
-        <v>300</v>
-      </c>
-      <c r="S22" s="41">
-        <v>300</v>
       </c>
       <c r="T22" s="41">
         <v>300</v>
       </c>
       <c r="U22" s="41">
+        <v>300</v>
+      </c>
+      <c r="V22" s="41">
+        <v>300</v>
+      </c>
+      <c r="W22" s="41">
         <v>200</v>
       </c>
-      <c r="V22" s="41">
+      <c r="X22" s="41">
         <v>100</v>
       </c>
-      <c r="W22" s="41">
+      <c r="Y22" s="41">
         <v>100</v>
       </c>
-      <c r="X22" s="41">
+      <c r="Z22" s="41">
         <v>0</v>
       </c>
-      <c r="Y22" s="42">
+      <c r="AA22" s="42">
         <v>2000</v>
       </c>
-      <c r="Z22" s="45">
-        <f t="shared" si="1"/>
+      <c r="AB22" s="45">
+        <f t="shared" si="3"/>
         <v>2300</v>
-      </c>
-      <c r="AA22" s="41">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="AB22" s="41">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
       </c>
       <c r="AC22" s="41">
         <f t="shared" si="4"/>
-        <v>0.55000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="AD22" s="41">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="AE22" s="41">
         <f t="shared" si="6"/>
-        <v>3.3333333333333335</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF22" s="41">
         <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AG22" s="41">
+        <f t="shared" si="8"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AH22" s="41">
+        <f>6000/D22</f>
         <v>5.4545454545454541</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:34">
       <c r="A23">
         <v>201512</v>
       </c>
       <c r="B23">
         <v>1900</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="122">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="D23">
         <v>1000</v>
       </c>
-      <c r="E23">
-        <v>700</v>
+      <c r="E23" s="122">
+        <f t="shared" si="1"/>
+        <v>300</v>
       </c>
       <c r="F23">
         <v>700</v>
@@ -78159,7 +78352,7 @@
         <v>700</v>
       </c>
       <c r="H23">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I23">
         <v>600</v>
@@ -78168,7 +78361,7 @@
         <v>600</v>
       </c>
       <c r="K23">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L23">
         <v>500</v>
@@ -78177,13 +78370,14 @@
         <v>500</v>
       </c>
       <c r="N23">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O23">
         <v>400</v>
       </c>
-      <c r="P23">
-        <v>400</v>
+      <c r="P23" s="122">
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="Q23">
         <v>400</v>
@@ -78192,71 +78386,78 @@
         <v>400</v>
       </c>
       <c r="S23">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T23">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U23">
         <v>300</v>
       </c>
       <c r="V23">
+        <v>300</v>
+      </c>
+      <c r="W23">
+        <v>300</v>
+      </c>
+      <c r="X23">
         <v>200</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
         <v>100</v>
       </c>
-      <c r="X23">
+      <c r="Z23">
         <v>100</v>
       </c>
-      <c r="Y23" s="39">
+      <c r="AA23" s="39">
         <v>1900</v>
       </c>
-      <c r="Z23" s="44">
-        <f t="shared" si="1"/>
+      <c r="AB23" s="44">
+        <f t="shared" si="3"/>
         <v>2200</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="2"/>
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="3"/>
-        <v>0.36842105263157893</v>
       </c>
       <c r="AC23">
         <f t="shared" si="4"/>
-        <v>0.52631578947368418</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="AD23">
         <f t="shared" si="5"/>
-        <v>2.5</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="AE23">
         <f t="shared" si="6"/>
-        <v>2.8571428571428572</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="AF23">
         <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="8"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="AH23">
+        <f>6000/D23</f>
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:34">
       <c r="A24">
         <v>201601</v>
       </c>
       <c r="B24">
         <v>1600</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="122">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="D24">
         <v>700</v>
       </c>
-      <c r="E24">
-        <v>400</v>
+      <c r="E24" s="122">
+        <f t="shared" si="1"/>
+        <v>300</v>
       </c>
       <c r="F24">
         <v>400</v>
@@ -78268,7 +78469,7 @@
         <v>400</v>
       </c>
       <c r="I24">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J24">
         <v>300</v>
@@ -78277,7 +78478,7 @@
         <v>300</v>
       </c>
       <c r="L24">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M24">
         <v>200</v>
@@ -78286,10 +78487,11 @@
         <v>200</v>
       </c>
       <c r="O24">
-        <v>100</v>
-      </c>
-      <c r="P24">
-        <v>100</v>
+        <v>200</v>
+      </c>
+      <c r="P24" s="122">
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="Q24">
         <v>100</v>
@@ -78298,10 +78500,10 @@
         <v>100</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -78315,303 +78517,730 @@
       <c r="X24">
         <v>0</v>
       </c>
-      <c r="Y24" s="39">
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="39">
         <v>1600</v>
       </c>
-      <c r="Z24" s="44">
-        <f t="shared" si="1"/>
+      <c r="AB24" s="44">
+        <f t="shared" si="3"/>
         <v>1900</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" si="2"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
       </c>
       <c r="AC24">
         <f t="shared" si="4"/>
-        <v>0.4375</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AD24">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>0.25</v>
       </c>
       <c r="AE24">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>0.4375</v>
       </c>
       <c r="AF24">
         <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AH24">
+        <f>6000/D24</f>
         <v>8.5714285714285712</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:34">
       <c r="A25">
         <v>201602</v>
       </c>
       <c r="B25">
         <v>2600</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="122">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="D25">
         <v>1700</v>
       </c>
-      <c r="E25">
-        <v>1000</v>
+      <c r="E25" s="122">
+        <f t="shared" si="1"/>
+        <v>700</v>
       </c>
       <c r="F25">
         <v>1000</v>
       </c>
       <c r="G25">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H25">
         <v>900</v>
       </c>
       <c r="I25">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J25">
         <v>800</v>
       </c>
       <c r="K25">
+        <v>800</v>
+      </c>
+      <c r="L25">
         <v>700</v>
-      </c>
-      <c r="L25">
-        <v>600</v>
       </c>
       <c r="M25">
         <v>600</v>
       </c>
       <c r="N25">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O25">
         <v>500</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="122">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="Q25">
+        <v>500</v>
+      </c>
+      <c r="R25">
         <v>400</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>300</v>
-      </c>
-      <c r="R25">
-        <v>200</v>
-      </c>
-      <c r="S25">
-        <v>200</v>
       </c>
       <c r="T25">
         <v>200</v>
       </c>
       <c r="U25">
+        <v>200</v>
+      </c>
+      <c r="V25">
+        <v>200</v>
+      </c>
+      <c r="W25">
         <v>100</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>100</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
         <v>0</v>
       </c>
-      <c r="X25">
+      <c r="Z25">
         <v>0</v>
       </c>
-      <c r="Y25" s="39">
+      <c r="AA25" s="39">
         <v>2600</v>
       </c>
-      <c r="Z25" s="44">
-        <f t="shared" si="1"/>
+      <c r="AB25" s="44">
+        <f t="shared" si="3"/>
         <v>2900</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" si="2"/>
-        <v>0.19230769230769232</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="3"/>
-        <v>0.38461538461538464</v>
       </c>
       <c r="AC25">
         <f t="shared" si="4"/>
-        <v>0.65384615384615385</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="AD25">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="AE25">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0.65384615384615385</v>
       </c>
       <c r="AF25">
         <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AH25">
+        <f>6000/D25</f>
         <v>3.5294117647058822</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
-      <c r="A26">
+    <row r="26" spans="1:34" s="55" customFormat="1">
+      <c r="A26" s="55">
         <v>201603</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="55">
         <v>2500</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="122">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="55">
         <v>1600</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="122">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="F26" s="55">
         <v>1000</v>
       </c>
-      <c r="F26">
+      <c r="G26" s="55">
         <v>1000</v>
       </c>
-      <c r="G26">
+      <c r="H26" s="55">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="55">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="55">
         <v>900</v>
       </c>
-      <c r="H26">
+      <c r="K26" s="55">
         <v>900</v>
       </c>
-      <c r="I26">
+      <c r="L26" s="55">
         <v>900</v>
       </c>
-      <c r="J26">
+      <c r="M26" s="55">
         <v>800</v>
       </c>
-      <c r="K26">
+      <c r="N26" s="55">
         <v>800</v>
       </c>
-      <c r="L26">
+      <c r="O26" s="55">
         <v>700</v>
       </c>
-      <c r="M26">
+      <c r="P26" s="122">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="Q26" s="55">
+        <v>700</v>
+      </c>
+      <c r="R26" s="55">
         <v>600</v>
       </c>
-      <c r="N26">
+      <c r="S26" s="55">
         <v>500</v>
       </c>
-      <c r="O26">
-        <v>500</v>
-      </c>
-      <c r="P26">
-        <v>500</v>
-      </c>
-      <c r="Q26">
+      <c r="T26" s="55">
+        <v>400</v>
+      </c>
+      <c r="U26" s="55">
         <v>300</v>
       </c>
-      <c r="R26">
-        <v>300</v>
-      </c>
-      <c r="S26">
+      <c r="V26" s="55">
         <v>200</v>
       </c>
-      <c r="T26">
+      <c r="W26" s="55">
+        <v>200</v>
+      </c>
+      <c r="X26" s="55">
+        <v>200</v>
+      </c>
+      <c r="Y26" s="55">
         <v>100</v>
       </c>
-      <c r="U26">
-        <v>100</v>
-      </c>
-      <c r="V26">
-        <v>100</v>
-      </c>
-      <c r="W26">
+      <c r="Z26" s="55">
         <v>0</v>
       </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="39">
+      <c r="AA26" s="120">
         <v>2500</v>
       </c>
-      <c r="Z26" s="44">
-        <f t="shared" si="1"/>
+      <c r="AB26" s="121">
+        <f t="shared" si="3"/>
         <v>2800</v>
       </c>
-      <c r="AA26">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="3"/>
+      <c r="AC26" s="55">
+        <f t="shared" si="4"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AD26" s="55">
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="AC26">
-        <f t="shared" si="4"/>
+      <c r="AE26" s="55">
+        <f t="shared" si="6"/>
         <v>0.64</v>
       </c>
-      <c r="AD26">
-        <f t="shared" si="5"/>
+      <c r="AF26" s="55">
+        <f t="shared" si="7"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="AG26" s="55">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AE26">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AF26">
-        <f t="shared" si="7"/>
+      <c r="AH26" s="55">
+        <f>6000/D26</f>
         <v>3.75</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:34">
       <c r="A27">
         <v>201604</v>
       </c>
       <c r="B27">
         <v>2300</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="122">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="D27">
         <v>1400</v>
       </c>
-      <c r="AF27">
+      <c r="E27" s="122">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F27">
+        <v>1100</v>
+      </c>
+      <c r="G27">
+        <v>1000</v>
+      </c>
+      <c r="H27">
+        <v>1000</v>
+      </c>
+      <c r="I27">
+        <v>900</v>
+      </c>
+      <c r="J27">
+        <v>900</v>
+      </c>
+      <c r="K27">
+        <v>900</v>
+      </c>
+      <c r="L27">
+        <v>800</v>
+      </c>
+      <c r="M27">
+        <v>800</v>
+      </c>
+      <c r="N27">
+        <v>700</v>
+      </c>
+      <c r="O27">
+        <v>700</v>
+      </c>
+      <c r="P27" s="122">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="Q27">
+        <v>700</v>
+      </c>
+      <c r="R27">
+        <v>700</v>
+      </c>
+      <c r="S27">
+        <v>600</v>
+      </c>
+      <c r="T27">
+        <v>600</v>
+      </c>
+      <c r="U27">
+        <v>600</v>
+      </c>
+      <c r="V27">
+        <v>500</v>
+      </c>
+      <c r="W27">
+        <v>500</v>
+      </c>
+      <c r="X27">
+        <v>400</v>
+      </c>
+      <c r="Y27">
+        <v>300</v>
+      </c>
+      <c r="Z27">
+        <v>100</v>
+      </c>
+      <c r="AA27">
+        <f>B27</f>
+        <v>2300</v>
+      </c>
+      <c r="AB27" s="121">
+        <f t="shared" si="3"/>
+        <v>2600</v>
+      </c>
+      <c r="AC27" s="55">
+        <f t="shared" si="4"/>
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="AD27" s="55">
+        <f t="shared" si="5"/>
+        <v>0.47826086956521741</v>
+      </c>
+      <c r="AE27" s="55">
+        <f t="shared" si="6"/>
+        <v>0.60869565217391308</v>
+      </c>
+      <c r="AF27" s="55">
         <f t="shared" si="7"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="AG27" s="55">
+        <f t="shared" si="8"/>
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="AH27" s="55">
+        <f>6000/D27</f>
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:34">
       <c r="A28">
         <v>201605</v>
       </c>
       <c r="B28">
         <v>2200</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="122">
         <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="D28">
+        <v>1400</v>
+      </c>
+      <c r="E28" s="122">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="F28">
+        <v>1000</v>
+      </c>
+      <c r="G28">
+        <v>1000</v>
+      </c>
+      <c r="H28">
+        <v>1000</v>
+      </c>
+      <c r="I28">
+        <v>1000</v>
+      </c>
+      <c r="J28">
+        <v>1000</v>
+      </c>
+      <c r="K28">
+        <v>900</v>
+      </c>
+      <c r="L28">
+        <v>900</v>
+      </c>
+      <c r="M28">
+        <v>800</v>
+      </c>
+      <c r="N28">
+        <v>700</v>
+      </c>
+      <c r="O28">
+        <v>700</v>
+      </c>
+      <c r="P28" s="122">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="Q28">
+        <v>700</v>
+      </c>
+      <c r="R28">
+        <v>600</v>
+      </c>
+      <c r="S28">
+        <v>600</v>
+      </c>
+      <c r="T28">
+        <v>600</v>
+      </c>
+      <c r="U28">
+        <v>500</v>
+      </c>
+      <c r="V28">
+        <v>500</v>
+      </c>
+      <c r="W28">
+        <v>300</v>
+      </c>
+      <c r="X28">
+        <v>300</v>
+      </c>
+      <c r="Y28">
+        <v>200</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" ref="AA28:AA30" si="9">B28</f>
         <v>2200</v>
       </c>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AB28" s="121">
+        <f t="shared" si="3"/>
+        <v>2500</v>
+      </c>
+      <c r="AC28" s="55">
+        <f t="shared" si="4"/>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="AD28" s="55">
+        <f t="shared" si="5"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="AE28" s="55">
+        <f t="shared" si="6"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="AF28" s="55">
+        <f t="shared" si="7"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="AG28" s="55">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AH28" s="55">
+        <f>6000/D28</f>
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
       <c r="A29">
         <v>201606</v>
       </c>
       <c r="B29">
         <v>1600</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="122">
         <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="D29">
+        <v>900</v>
+      </c>
+      <c r="E29" s="122">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="F29">
+        <v>400</v>
+      </c>
+      <c r="G29">
+        <v>400</v>
+      </c>
+      <c r="H29">
+        <v>400</v>
+      </c>
+      <c r="I29">
+        <v>400</v>
+      </c>
+      <c r="J29">
+        <v>400</v>
+      </c>
+      <c r="K29">
+        <v>300</v>
+      </c>
+      <c r="L29">
+        <v>300</v>
+      </c>
+      <c r="M29">
+        <v>300</v>
+      </c>
+      <c r="N29">
+        <v>300</v>
+      </c>
+      <c r="O29">
+        <v>300</v>
+      </c>
+      <c r="P29" s="122">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="Q29">
+        <v>300</v>
+      </c>
+      <c r="R29">
+        <v>300</v>
+      </c>
+      <c r="S29">
+        <v>300</v>
+      </c>
+      <c r="T29">
+        <v>300</v>
+      </c>
+      <c r="U29">
+        <v>200</v>
+      </c>
+      <c r="V29">
+        <v>200</v>
+      </c>
+      <c r="W29">
+        <v>200</v>
+      </c>
+      <c r="X29">
+        <v>100</v>
+      </c>
+      <c r="Y29">
+        <v>100</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="9"/>
         <v>1600</v>
       </c>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AB29" s="121">
+        <f t="shared" si="3"/>
+        <v>1900</v>
+      </c>
+      <c r="AC29" s="55">
+        <f t="shared" si="4"/>
+        <v>0.1875</v>
+      </c>
+      <c r="AD29" s="55">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="AE29" s="55">
+        <f t="shared" si="6"/>
+        <v>0.5625</v>
+      </c>
+      <c r="AF29" s="55">
+        <f t="shared" si="7"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AG29" s="55">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AH29" s="55">
+        <f>6000/D29</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
       <c r="A30">
         <v>201607</v>
       </c>
       <c r="B30">
         <v>2400</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="122">
         <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="D30">
+        <v>1800</v>
+      </c>
+      <c r="E30" s="122">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="F30">
+        <v>1100</v>
+      </c>
+      <c r="G30">
+        <v>1100</v>
+      </c>
+      <c r="H30">
+        <v>1100</v>
+      </c>
+      <c r="I30">
+        <v>1000</v>
+      </c>
+      <c r="J30">
+        <v>900</v>
+      </c>
+      <c r="K30">
+        <v>900</v>
+      </c>
+      <c r="L30">
+        <v>900</v>
+      </c>
+      <c r="M30">
+        <v>800</v>
+      </c>
+      <c r="N30">
+        <v>700</v>
+      </c>
+      <c r="O30">
+        <v>700</v>
+      </c>
+      <c r="P30" s="122">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="Q30">
+        <v>600</v>
+      </c>
+      <c r="R30">
+        <v>600</v>
+      </c>
+      <c r="S30">
+        <v>600</v>
+      </c>
+      <c r="T30">
+        <v>500</v>
+      </c>
+      <c r="U30">
+        <v>300</v>
+      </c>
+      <c r="V30">
+        <v>300</v>
+      </c>
+      <c r="W30">
+        <v>300</v>
+      </c>
+      <c r="X30">
+        <v>200</v>
+      </c>
+      <c r="Y30">
+        <v>100</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="9"/>
         <v>2400</v>
+      </c>
+      <c r="AB30" s="121">
+        <f t="shared" si="3"/>
+        <v>2700</v>
+      </c>
+      <c r="AC30" s="55">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="AD30" s="55">
+        <f t="shared" si="5"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AE30" s="55">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="AF30" s="55">
+        <f t="shared" si="7"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AG30" s="55">
+        <f t="shared" si="8"/>
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="AH30" s="55">
+        <f>6000/D30</f>
+        <v>3.3333333333333335</v>
       </c>
     </row>
   </sheetData>

--- a/jpp60.xlsx
+++ b/jpp60.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="480" windowWidth="19155" windowHeight="7260" activeTab="2"/>
+    <workbookView xWindow="840" yWindow="480" windowWidth="19155" windowHeight="7260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="hq" sheetId="1" r:id="rId1"/>
-    <sheet name="jg" sheetId="2" r:id="rId2"/>
-    <sheet name="in" sheetId="3" r:id="rId3"/>
+    <sheet name="realBidResult" sheetId="2" r:id="rId2"/>
+    <sheet name="priceChgAna" sheetId="3" r:id="rId3"/>
     <sheet name="result" sheetId="4" r:id="rId4"/>
+    <sheet name="addPrice" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">hq!$A$1:$E$4160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">priceChgAna!$A$1:$AJ$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4311" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4319" uniqueCount="747">
   <si>
     <t>lprice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2319,6 +2321,38 @@
     <t>bS10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>avg(3-7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg(3,4,5,7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bs20all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bs10all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>best</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addPriceAtTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2327,7 +2361,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2487,8 +2521,33 @@
       <name val="ˎ̥"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ˎ̥"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2552,8 +2611,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2606,6 +2683,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2627,7 +2733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2981,6 +3087,42 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 强调文字颜色 1" xfId="4" builtinId="30"/>
@@ -74185,7 +74327,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F30"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -75817,19 +75959,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AJ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="17" max="17" width="8.875" customWidth="1"/>
-    <col min="27" max="28" width="12" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="19" max="19" width="8.875" customWidth="1"/>
+    <col min="29" max="30" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -75846,94 +75990,100 @@
         <v>737</v>
       </c>
       <c r="F1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>94</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>95</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>96</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>97</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>98</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>99</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>100</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>101</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>102</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>738</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>742</v>
+      </c>
+      <c r="S1" t="s">
         <v>103</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>104</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>105</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>106</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>107</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>108</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>109</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>110</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>111</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>112</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>124</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>113</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>114</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>116</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>117</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>128</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:36">
       <c r="A2">
         <v>201401</v>
       </c>
@@ -75948,11 +76098,12 @@
         <v>900</v>
       </c>
       <c r="E2" s="122">
-        <f>D2-F2</f>
+        <f>D2-G2</f>
         <v>300</v>
       </c>
-      <c r="F2">
-        <v>600</v>
+      <c r="F2" s="122">
+        <f>C2+E2</f>
+        <v>300</v>
       </c>
       <c r="G2">
         <v>600</v>
@@ -75973,23 +76124,24 @@
         <v>600</v>
       </c>
       <c r="M2">
+        <v>600</v>
+      </c>
+      <c r="N2">
         <v>500</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>400</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>300</v>
       </c>
-      <c r="P2" s="122">
-        <f>F2-Q2</f>
+      <c r="Q2" s="122">
+        <f>G2-S2</f>
         <v>300</v>
       </c>
-      <c r="Q2">
-        <v>300</v>
-      </c>
-      <c r="R2">
-        <v>300</v>
+      <c r="R2" s="122">
+        <f>F2+Q2</f>
+        <v>600</v>
       </c>
       <c r="S2">
         <v>300</v>
@@ -76007,47 +76159,53 @@
         <v>300</v>
       </c>
       <c r="X2">
+        <v>300</v>
+      </c>
+      <c r="Y2">
+        <v>300</v>
+      </c>
+      <c r="Z2">
         <v>100</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>0</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>0</v>
       </c>
-      <c r="AA2" s="39">
+      <c r="AC2" s="39">
         <v>900</v>
       </c>
-      <c r="AB2" s="44">
-        <f>AA2+300</f>
+      <c r="AD2" s="44">
+        <f>AC2+300</f>
         <v>1200</v>
       </c>
-      <c r="AC2">
-        <f>Q2/AA2</f>
+      <c r="AE2">
+        <f>S2/AC2</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AD2">
-        <f>F2/AA2</f>
+      <c r="AF2">
+        <f>G2/AC2</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AE2">
-        <f>D2/AA2</f>
+      <c r="AG2">
+        <f>D2/AC2</f>
         <v>1</v>
       </c>
-      <c r="AF2">
-        <f>1000/Q2</f>
+      <c r="AH2">
+        <f>1000/S2</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AG2">
-        <f>2000/F2</f>
+      <c r="AI2">
+        <f>2000/G2</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AH2">
-        <f>6000/D2</f>
+      <c r="AJ2">
+        <f t="shared" ref="AJ2:AJ30" si="0">6000/D2</f>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:36">
       <c r="A3">
         <v>201402</v>
       </c>
@@ -76055,17 +76213,18 @@
         <v>600</v>
       </c>
       <c r="C3" s="122">
-        <f t="shared" ref="C3:C30" si="0">B3-D3</f>
+        <f t="shared" ref="C3:C30" si="1">B3-D3</f>
         <v>0</v>
       </c>
       <c r="D3">
         <v>600</v>
       </c>
       <c r="E3" s="122">
-        <f t="shared" ref="E3:E30" si="1">D3-F3</f>
+        <f t="shared" ref="E3:E30" si="2">D3-G3</f>
         <v>300</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="122">
+        <f t="shared" ref="F3:F30" si="3">C3+E3</f>
         <v>300</v>
       </c>
       <c r="G3">
@@ -76095,27 +76254,28 @@
       <c r="O3">
         <v>300</v>
       </c>
-      <c r="P3" s="122">
-        <f t="shared" ref="P3:P30" si="2">F3-Q3</f>
+      <c r="P3">
+        <v>300</v>
+      </c>
+      <c r="Q3" s="122">
+        <f t="shared" ref="Q3:Q30" si="4">G3-S3</f>
         <v>0</v>
       </c>
-      <c r="Q3">
-        <v>300</v>
-      </c>
-      <c r="R3">
+      <c r="R3" s="122">
+        <f t="shared" ref="R3:R30" si="5">F3+Q3</f>
         <v>300</v>
       </c>
       <c r="S3">
         <v>300</v>
       </c>
       <c r="T3">
+        <v>300</v>
+      </c>
+      <c r="U3">
+        <v>300</v>
+      </c>
+      <c r="V3">
         <v>100</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -76129,39 +76289,45 @@
       <c r="Z3">
         <v>0</v>
       </c>
-      <c r="AA3" s="39">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="39">
         <v>600</v>
       </c>
-      <c r="AB3" s="44">
-        <f t="shared" ref="AB3:AB30" si="3">AA3+300</f>
+      <c r="AD3" s="44">
+        <f t="shared" ref="AD3:AD30" si="6">AC3+300</f>
         <v>900</v>
       </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC30" si="4">Q3/AA3</f>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE30" si="7">S3/AC3</f>
         <v>0.5</v>
       </c>
-      <c r="AD3">
-        <f t="shared" ref="AD3:AD30" si="5">F3/AA3</f>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF30" si="8">G3/AC3</f>
         <v>0.5</v>
       </c>
-      <c r="AE3">
-        <f t="shared" ref="AE3:AE30" si="6">D3/AA3</f>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG30" si="9">D3/AC3</f>
         <v>1</v>
       </c>
-      <c r="AF3">
-        <f t="shared" ref="AF3:AF30" si="7">1000/Q3</f>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH30" si="10">1000/S3</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AG3">
-        <f t="shared" ref="AG3:AG30" si="8">2000/F3</f>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI30" si="11">2000/G3</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="AH3">
-        <f>6000/D3</f>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:36">
       <c r="A4">
         <v>201403</v>
       </c>
@@ -76169,2986 +76335,3195 @@
         <v>1200</v>
       </c>
       <c r="C4" s="122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="D4">
         <v>900</v>
       </c>
       <c r="E4" s="122">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="F4" s="122">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="G4">
+        <v>300</v>
+      </c>
+      <c r="H4">
+        <v>300</v>
+      </c>
+      <c r="I4">
+        <v>300</v>
+      </c>
+      <c r="J4">
+        <v>300</v>
+      </c>
+      <c r="K4">
+        <v>300</v>
+      </c>
+      <c r="L4">
+        <v>300</v>
+      </c>
+      <c r="M4">
+        <v>300</v>
+      </c>
+      <c r="N4">
+        <v>300</v>
+      </c>
+      <c r="O4">
+        <v>200</v>
+      </c>
+      <c r="P4">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="122">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="R4" s="122">
+        <f t="shared" si="5"/>
+        <v>1100</v>
+      </c>
+      <c r="S4">
+        <v>100</v>
+      </c>
+      <c r="T4">
+        <v>100</v>
+      </c>
+      <c r="U4">
+        <v>100</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="39">
+        <v>1200</v>
+      </c>
+      <c r="AD4" s="44">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="11"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5">
+        <v>201404</v>
+      </c>
+      <c r="B5">
+        <v>1400</v>
+      </c>
+      <c r="C5" s="122">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="D5">
+        <v>900</v>
+      </c>
+      <c r="E5" s="122">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="F5" s="122">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
+        <v>500</v>
+      </c>
+      <c r="I5">
+        <v>500</v>
+      </c>
+      <c r="J5">
+        <v>500</v>
+      </c>
+      <c r="K5">
+        <v>300</v>
+      </c>
+      <c r="L5">
+        <v>300</v>
+      </c>
+      <c r="M5">
+        <v>200</v>
+      </c>
+      <c r="N5">
+        <v>200</v>
+      </c>
+      <c r="O5">
+        <v>200</v>
+      </c>
+      <c r="P5">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="122">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="R5" s="122">
+        <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
+      <c r="S5">
+        <v>200</v>
+      </c>
+      <c r="T5">
+        <v>200</v>
+      </c>
+      <c r="U5">
+        <v>200</v>
+      </c>
+      <c r="V5">
+        <v>200</v>
+      </c>
+      <c r="W5">
+        <v>200</v>
+      </c>
+      <c r="X5">
+        <v>200</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="39">
+        <v>1400</v>
+      </c>
+      <c r="AD5" s="44">
+        <f t="shared" si="6"/>
+        <v>1700</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="8"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="9"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6">
+        <v>201405</v>
+      </c>
+      <c r="B6">
+        <v>1800</v>
+      </c>
+      <c r="C6" s="122">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F4">
+      <c r="D6">
+        <v>1200</v>
+      </c>
+      <c r="E6" s="122">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="F6" s="122">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
+        <v>500</v>
+      </c>
+      <c r="I6">
+        <v>400</v>
+      </c>
+      <c r="J6">
         <v>300</v>
       </c>
-      <c r="G4">
+      <c r="K6">
         <v>300</v>
       </c>
-      <c r="H4">
+      <c r="L6">
         <v>300</v>
       </c>
-      <c r="I4">
+      <c r="M6">
         <v>300</v>
       </c>
-      <c r="J4">
+      <c r="N6">
         <v>300</v>
       </c>
-      <c r="K4">
+      <c r="O6">
         <v>300</v>
       </c>
-      <c r="L4">
+      <c r="P6">
+        <v>200</v>
+      </c>
+      <c r="Q6" s="122">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="R6" s="122">
+        <f t="shared" si="5"/>
+        <v>1600</v>
+      </c>
+      <c r="S6">
+        <v>200</v>
+      </c>
+      <c r="T6">
+        <v>200</v>
+      </c>
+      <c r="U6">
+        <v>100</v>
+      </c>
+      <c r="V6">
+        <v>100</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="39">
+        <v>1800</v>
+      </c>
+      <c r="AD6" s="44">
+        <f t="shared" si="6"/>
+        <v>2100</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="7"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="9"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7">
+        <v>201406</v>
+      </c>
+      <c r="B7">
+        <v>1200</v>
+      </c>
+      <c r="C7" s="122">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="D7">
+        <v>600</v>
+      </c>
+      <c r="E7" s="122">
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="M4">
+      <c r="F7" s="122">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="G7">
         <v>300</v>
       </c>
-      <c r="N4">
+      <c r="H7">
+        <v>300</v>
+      </c>
+      <c r="I7">
+        <v>300</v>
+      </c>
+      <c r="J7">
+        <v>300</v>
+      </c>
+      <c r="K7">
+        <v>300</v>
+      </c>
+      <c r="L7">
+        <v>300</v>
+      </c>
+      <c r="M7">
+        <v>300</v>
+      </c>
+      <c r="N7">
+        <v>300</v>
+      </c>
+      <c r="O7">
+        <v>300</v>
+      </c>
+      <c r="P7">
+        <v>300</v>
+      </c>
+      <c r="Q7" s="122">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="R7" s="122">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="S7">
         <v>200</v>
       </c>
-      <c r="O4">
+      <c r="T7">
         <v>200</v>
       </c>
-      <c r="P4" s="122">
+      <c r="U7">
+        <v>100</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="39">
+        <v>1200</v>
+      </c>
+      <c r="AD7" s="44">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="11"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8">
+        <v>201407</v>
+      </c>
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="122">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="D8">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="122">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="F8" s="122">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="G8">
+        <v>400</v>
+      </c>
+      <c r="H8">
+        <v>400</v>
+      </c>
+      <c r="I8">
+        <v>400</v>
+      </c>
+      <c r="J8">
+        <v>400</v>
+      </c>
+      <c r="K8">
+        <v>300</v>
+      </c>
+      <c r="L8">
+        <v>300</v>
+      </c>
+      <c r="M8">
+        <v>300</v>
+      </c>
+      <c r="N8">
+        <v>300</v>
+      </c>
+      <c r="O8">
+        <v>300</v>
+      </c>
+      <c r="P8">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="122">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="R8" s="122">
+        <f t="shared" si="5"/>
+        <v>1800</v>
+      </c>
+      <c r="S8">
+        <v>200</v>
+      </c>
+      <c r="T8">
+        <v>200</v>
+      </c>
+      <c r="U8">
+        <v>200</v>
+      </c>
+      <c r="V8">
+        <v>200</v>
+      </c>
+      <c r="W8">
+        <v>200</v>
+      </c>
+      <c r="X8">
+        <v>100</v>
+      </c>
+      <c r="Y8">
+        <v>100</v>
+      </c>
+      <c r="Z8">
+        <v>100</v>
+      </c>
+      <c r="AA8">
+        <v>100</v>
+      </c>
+      <c r="AB8">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="39">
+        <v>2000</v>
+      </c>
+      <c r="AD8" s="44">
+        <f t="shared" si="6"/>
+        <v>2300</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="8"/>
+        <v>0.2</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="9"/>
+        <v>0.65</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="0"/>
+        <v>4.615384615384615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9">
+        <v>201408</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="122">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="D9">
+        <v>700</v>
+      </c>
+      <c r="E9" s="122">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="F9" s="122">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="G9">
+        <v>400</v>
+      </c>
+      <c r="H9">
+        <v>400</v>
+      </c>
+      <c r="I9">
+        <v>400</v>
+      </c>
+      <c r="J9">
+        <v>300</v>
+      </c>
+      <c r="K9">
+        <v>300</v>
+      </c>
+      <c r="L9">
+        <v>200</v>
+      </c>
+      <c r="M9">
+        <v>200</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+      <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="122">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="R9" s="122">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+      <c r="S9">
+        <v>100</v>
+      </c>
+      <c r="T9">
+        <v>100</v>
+      </c>
+      <c r="U9">
+        <v>100</v>
+      </c>
+      <c r="V9">
+        <v>100</v>
+      </c>
+      <c r="W9">
+        <v>100</v>
+      </c>
+      <c r="X9">
+        <v>100</v>
+      </c>
+      <c r="Y9">
+        <v>100</v>
+      </c>
+      <c r="Z9">
+        <v>100</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="39">
+        <v>1000</v>
+      </c>
+      <c r="AD9" s="44">
+        <f t="shared" si="6"/>
+        <v>1300</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="0"/>
+        <v>8.5714285714285712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10">
+        <v>201409</v>
+      </c>
+      <c r="B10">
+        <v>1200</v>
+      </c>
+      <c r="C10" s="122">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="D10">
+        <v>900</v>
+      </c>
+      <c r="E10" s="122">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="F10" s="122">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="G10">
+        <v>500</v>
+      </c>
+      <c r="H10">
+        <v>400</v>
+      </c>
+      <c r="I10">
+        <v>400</v>
+      </c>
+      <c r="J10">
+        <v>400</v>
+      </c>
+      <c r="K10">
+        <v>300</v>
+      </c>
+      <c r="L10">
+        <v>300</v>
+      </c>
+      <c r="M10">
+        <v>300</v>
+      </c>
+      <c r="N10">
+        <v>300</v>
+      </c>
+      <c r="O10">
+        <v>300</v>
+      </c>
+      <c r="P10">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="122">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="R10" s="122">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+      <c r="S10">
+        <v>300</v>
+      </c>
+      <c r="T10">
+        <v>300</v>
+      </c>
+      <c r="U10">
+        <v>300</v>
+      </c>
+      <c r="V10">
+        <v>300</v>
+      </c>
+      <c r="W10">
+        <v>200</v>
+      </c>
+      <c r="X10">
+        <v>100</v>
+      </c>
+      <c r="Y10">
+        <v>100</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="39">
+        <v>1200</v>
+      </c>
+      <c r="AD10" s="44">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="8"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="10"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="A11">
+        <v>201410</v>
+      </c>
+      <c r="B11">
+        <v>1400</v>
+      </c>
+      <c r="C11" s="122">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="D11">
+        <v>1100</v>
+      </c>
+      <c r="E11" s="122">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="F11" s="122">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="H11">
+        <v>500</v>
+      </c>
+      <c r="I11">
+        <v>500</v>
+      </c>
+      <c r="J11">
+        <v>500</v>
+      </c>
+      <c r="K11">
+        <v>500</v>
+      </c>
+      <c r="L11">
+        <v>400</v>
+      </c>
+      <c r="M11">
+        <v>400</v>
+      </c>
+      <c r="N11">
+        <v>400</v>
+      </c>
+      <c r="O11">
+        <v>300</v>
+      </c>
+      <c r="P11">
+        <v>200</v>
+      </c>
+      <c r="Q11" s="122">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="R11" s="122">
+        <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
+      <c r="S11">
+        <v>200</v>
+      </c>
+      <c r="T11">
+        <v>200</v>
+      </c>
+      <c r="U11">
+        <v>200</v>
+      </c>
+      <c r="V11">
+        <v>200</v>
+      </c>
+      <c r="W11">
+        <v>200</v>
+      </c>
+      <c r="X11">
+        <v>200</v>
+      </c>
+      <c r="Y11">
+        <v>100</v>
+      </c>
+      <c r="Z11">
+        <v>100</v>
+      </c>
+      <c r="AA11">
+        <v>100</v>
+      </c>
+      <c r="AB11">
+        <v>100</v>
+      </c>
+      <c r="AC11" s="39">
+        <v>1400</v>
+      </c>
+      <c r="AD11" s="44">
+        <f t="shared" si="6"/>
+        <v>1700</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="8"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="9"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="0"/>
+        <v>5.4545454545454541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
+      <c r="A12">
+        <v>201411</v>
+      </c>
+      <c r="B12">
+        <v>900</v>
+      </c>
+      <c r="C12" s="122">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="D12">
+        <v>600</v>
+      </c>
+      <c r="E12" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="122">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="G12">
+        <v>600</v>
+      </c>
+      <c r="H12">
+        <v>600</v>
+      </c>
+      <c r="I12">
+        <v>600</v>
+      </c>
+      <c r="J12">
+        <v>600</v>
+      </c>
+      <c r="K12">
+        <v>600</v>
+      </c>
+      <c r="L12">
+        <v>600</v>
+      </c>
+      <c r="M12">
+        <v>400</v>
+      </c>
+      <c r="N12">
+        <v>300</v>
+      </c>
+      <c r="O12">
+        <v>300</v>
+      </c>
+      <c r="P12">
+        <v>300</v>
+      </c>
+      <c r="Q12" s="122">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="R12" s="122">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+      <c r="S12">
+        <v>300</v>
+      </c>
+      <c r="T12">
+        <v>300</v>
+      </c>
+      <c r="U12">
+        <v>200</v>
+      </c>
+      <c r="V12">
+        <v>200</v>
+      </c>
+      <c r="W12">
+        <v>100</v>
+      </c>
+      <c r="X12">
+        <v>100</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="39">
+        <v>900</v>
+      </c>
+      <c r="AD12" s="44">
+        <f t="shared" si="6"/>
+        <v>1200</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="9"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="10"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="A13">
+        <v>201412</v>
+      </c>
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="122">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="D13">
+        <v>700</v>
+      </c>
+      <c r="E13" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="122">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="G13">
+        <v>700</v>
+      </c>
+      <c r="H13">
+        <v>700</v>
+      </c>
+      <c r="I13">
+        <v>700</v>
+      </c>
+      <c r="J13">
+        <v>600</v>
+      </c>
+      <c r="K13">
+        <v>500</v>
+      </c>
+      <c r="L13">
+        <v>500</v>
+      </c>
+      <c r="M13">
+        <v>400</v>
+      </c>
+      <c r="N13">
+        <v>400</v>
+      </c>
+      <c r="O13">
+        <v>400</v>
+      </c>
+      <c r="P13">
+        <v>400</v>
+      </c>
+      <c r="Q13" s="122">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="R13" s="122">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+      <c r="S13">
+        <v>400</v>
+      </c>
+      <c r="T13">
+        <v>400</v>
+      </c>
+      <c r="U13">
+        <v>300</v>
+      </c>
+      <c r="V13">
+        <v>200</v>
+      </c>
+      <c r="W13">
+        <v>100</v>
+      </c>
+      <c r="X13">
+        <v>100</v>
+      </c>
+      <c r="Y13">
+        <v>100</v>
+      </c>
+      <c r="Z13">
+        <v>100</v>
+      </c>
+      <c r="AA13">
+        <v>100</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="39">
+        <v>1000</v>
+      </c>
+      <c r="AD13" s="44">
+        <f t="shared" si="6"/>
+        <v>1300</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="11"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="0"/>
+        <v>8.5714285714285712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="A14">
+        <v>201502</v>
+      </c>
+      <c r="B14">
+        <v>2800</v>
+      </c>
+      <c r="C14" s="122">
+        <f t="shared" si="1"/>
+        <v>2300</v>
+      </c>
+      <c r="D14">
+        <v>500</v>
+      </c>
+      <c r="E14" s="122">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="Q4">
+      <c r="F14" s="122">
+        <f t="shared" si="3"/>
+        <v>2500</v>
+      </c>
+      <c r="G14">
+        <v>300</v>
+      </c>
+      <c r="H14">
+        <v>300</v>
+      </c>
+      <c r="I14">
+        <v>300</v>
+      </c>
+      <c r="J14">
+        <v>300</v>
+      </c>
+      <c r="K14">
+        <v>300</v>
+      </c>
+      <c r="L14">
+        <v>300</v>
+      </c>
+      <c r="M14">
+        <v>200</v>
+      </c>
+      <c r="N14">
+        <v>200</v>
+      </c>
+      <c r="O14">
+        <v>200</v>
+      </c>
+      <c r="P14">
+        <v>200</v>
+      </c>
+      <c r="Q14" s="122">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="R4">
+      <c r="R14" s="122">
+        <f t="shared" si="5"/>
+        <v>2600</v>
+      </c>
+      <c r="S14">
+        <v>200</v>
+      </c>
+      <c r="T14">
+        <v>200</v>
+      </c>
+      <c r="U14">
+        <v>200</v>
+      </c>
+      <c r="V14">
+        <v>200</v>
+      </c>
+      <c r="W14">
         <v>100</v>
       </c>
-      <c r="S4">
+      <c r="X14">
         <v>100</v>
       </c>
-      <c r="T4">
+      <c r="Y14">
+        <v>100</v>
+      </c>
+      <c r="Z14">
+        <v>100</v>
+      </c>
+      <c r="AA14">
         <v>0</v>
       </c>
-      <c r="U4">
+      <c r="AB14">
         <v>0</v>
       </c>
-      <c r="V4">
+      <c r="AC14" s="39">
+        <v>2800</v>
+      </c>
+      <c r="AD14" s="44">
+        <f t="shared" si="6"/>
+        <v>3100</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="7"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="8"/>
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="9"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="11"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
+      <c r="A15">
+        <v>201504</v>
+      </c>
+      <c r="B15">
+        <v>5400</v>
+      </c>
+      <c r="C15" s="122">
+        <f t="shared" si="1"/>
+        <v>4700</v>
+      </c>
+      <c r="D15">
+        <v>700</v>
+      </c>
+      <c r="E15" s="122">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="F15" s="122">
+        <f t="shared" si="3"/>
+        <v>5100</v>
+      </c>
+      <c r="G15">
+        <v>300</v>
+      </c>
+      <c r="H15">
+        <v>300</v>
+      </c>
+      <c r="I15">
+        <v>300</v>
+      </c>
+      <c r="J15">
+        <v>300</v>
+      </c>
+      <c r="K15">
+        <v>300</v>
+      </c>
+      <c r="L15">
+        <v>300</v>
+      </c>
+      <c r="M15">
+        <v>300</v>
+      </c>
+      <c r="N15">
+        <v>300</v>
+      </c>
+      <c r="O15">
+        <v>300</v>
+      </c>
+      <c r="P15">
+        <v>200</v>
+      </c>
+      <c r="Q15" s="122">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="R15" s="122">
+        <f t="shared" si="5"/>
+        <v>5200</v>
+      </c>
+      <c r="S15">
+        <v>200</v>
+      </c>
+      <c r="T15">
+        <v>200</v>
+      </c>
+      <c r="U15">
+        <v>200</v>
+      </c>
+      <c r="V15">
+        <v>100</v>
+      </c>
+      <c r="W15">
+        <v>100</v>
+      </c>
+      <c r="X15">
         <v>0</v>
       </c>
-      <c r="W4">
+      <c r="Y15">
         <v>0</v>
       </c>
-      <c r="X4">
+      <c r="Z15">
         <v>0</v>
       </c>
-      <c r="Y4">
+      <c r="AA15">
         <v>0</v>
       </c>
-      <c r="Z4">
+      <c r="AB15">
         <v>0</v>
       </c>
-      <c r="AA4" s="39">
+      <c r="AC15" s="39">
+        <v>5400</v>
+      </c>
+      <c r="AD15" s="44">
+        <f t="shared" si="6"/>
+        <v>5700</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="7"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="8"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="9"/>
+        <v>0.12962962962962962</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="11"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="0"/>
+        <v>8.5714285714285712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
+      <c r="A16">
+        <v>201505</v>
+      </c>
+      <c r="B16">
+        <v>3800</v>
+      </c>
+      <c r="C16" s="122">
+        <f t="shared" si="1"/>
+        <v>3100</v>
+      </c>
+      <c r="D16">
+        <v>700</v>
+      </c>
+      <c r="E16" s="122">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="F16" s="122">
+        <f t="shared" si="3"/>
+        <v>3500</v>
+      </c>
+      <c r="G16">
+        <v>300</v>
+      </c>
+      <c r="H16">
+        <v>300</v>
+      </c>
+      <c r="I16">
+        <v>300</v>
+      </c>
+      <c r="J16">
+        <v>200</v>
+      </c>
+      <c r="K16">
+        <v>200</v>
+      </c>
+      <c r="L16">
+        <v>200</v>
+      </c>
+      <c r="M16">
+        <v>200</v>
+      </c>
+      <c r="N16">
+        <v>200</v>
+      </c>
+      <c r="O16">
+        <v>200</v>
+      </c>
+      <c r="P16">
+        <v>200</v>
+      </c>
+      <c r="Q16" s="122">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="R16" s="122">
+        <f t="shared" si="5"/>
+        <v>3600</v>
+      </c>
+      <c r="S16">
+        <v>200</v>
+      </c>
+      <c r="T16">
+        <v>100</v>
+      </c>
+      <c r="U16">
+        <v>100</v>
+      </c>
+      <c r="V16">
+        <v>100</v>
+      </c>
+      <c r="W16">
+        <v>100</v>
+      </c>
+      <c r="X16">
+        <v>100</v>
+      </c>
+      <c r="Y16">
+        <v>100</v>
+      </c>
+      <c r="Z16">
+        <v>100</v>
+      </c>
+      <c r="AA16">
+        <v>100</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="39">
+        <v>3800</v>
+      </c>
+      <c r="AD16" s="44">
+        <f t="shared" si="6"/>
+        <v>4100</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="7"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="8"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="9"/>
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="11"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="0"/>
+        <v>8.5714285714285712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" s="46" customFormat="1">
+      <c r="A17" s="46">
+        <v>201506</v>
+      </c>
+      <c r="B17" s="46">
+        <v>4800</v>
+      </c>
+      <c r="C17" s="122">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="D17" s="46">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="122">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="F17" s="122">
+        <f t="shared" si="3"/>
+        <v>3900</v>
+      </c>
+      <c r="G17" s="46">
+        <v>900</v>
+      </c>
+      <c r="H17" s="46">
+        <v>900</v>
+      </c>
+      <c r="I17" s="46">
+        <v>800</v>
+      </c>
+      <c r="J17" s="46">
+        <v>800</v>
+      </c>
+      <c r="K17" s="46">
+        <v>800</v>
+      </c>
+      <c r="L17" s="46">
+        <v>700</v>
+      </c>
+      <c r="M17" s="46">
+        <v>600</v>
+      </c>
+      <c r="N17" s="46">
+        <v>600</v>
+      </c>
+      <c r="O17" s="46">
+        <v>500</v>
+      </c>
+      <c r="P17" s="46">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="122">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="R17" s="122">
+        <f t="shared" si="5"/>
+        <v>4300</v>
+      </c>
+      <c r="S17" s="46">
+        <v>500</v>
+      </c>
+      <c r="T17" s="46">
+        <v>400</v>
+      </c>
+      <c r="U17" s="46">
+        <v>400</v>
+      </c>
+      <c r="V17" s="46">
+        <v>300</v>
+      </c>
+      <c r="W17" s="46">
+        <v>300</v>
+      </c>
+      <c r="X17" s="46">
+        <v>300</v>
+      </c>
+      <c r="Y17" s="46">
+        <v>200</v>
+      </c>
+      <c r="Z17" s="46">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="46">
+        <v>100</v>
+      </c>
+      <c r="AB17" s="46">
+        <v>100</v>
+      </c>
+      <c r="AC17" s="47">
+        <v>4800</v>
+      </c>
+      <c r="AD17" s="48">
+        <f t="shared" si="6"/>
+        <v>5100</v>
+      </c>
+      <c r="AE17" s="46">
+        <f t="shared" si="7"/>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="AF17" s="46">
+        <f t="shared" si="8"/>
+        <v>0.1875</v>
+      </c>
+      <c r="AG17" s="46">
+        <f t="shared" si="9"/>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="AH17" s="46">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AI17" s="46">
+        <f t="shared" si="11"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="AJ17" s="46">
+        <f t="shared" si="0"/>
+        <v>2.6086956521739131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36">
+      <c r="A18">
+        <v>201507</v>
+      </c>
+      <c r="B18">
+        <v>3200</v>
+      </c>
+      <c r="C18" s="122">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="D18">
+        <v>1700</v>
+      </c>
+      <c r="E18" s="122">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="F18" s="122">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="G18">
+        <v>800</v>
+      </c>
+      <c r="H18">
+        <v>800</v>
+      </c>
+      <c r="I18">
+        <v>700</v>
+      </c>
+      <c r="J18">
+        <v>700</v>
+      </c>
+      <c r="K18">
+        <v>600</v>
+      </c>
+      <c r="L18">
+        <v>600</v>
+      </c>
+      <c r="M18">
+        <v>600</v>
+      </c>
+      <c r="N18">
+        <v>500</v>
+      </c>
+      <c r="O18">
+        <v>500</v>
+      </c>
+      <c r="P18">
+        <v>500</v>
+      </c>
+      <c r="Q18" s="122">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="R18" s="122">
+        <f t="shared" si="5"/>
+        <v>2800</v>
+      </c>
+      <c r="S18">
+        <v>400</v>
+      </c>
+      <c r="T18">
+        <v>300</v>
+      </c>
+      <c r="U18">
+        <v>300</v>
+      </c>
+      <c r="V18">
+        <v>300</v>
+      </c>
+      <c r="W18">
+        <v>200</v>
+      </c>
+      <c r="X18">
+        <v>100</v>
+      </c>
+      <c r="Y18">
+        <v>100</v>
+      </c>
+      <c r="Z18">
+        <v>100</v>
+      </c>
+      <c r="AA18">
+        <v>100</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="39">
+        <v>3200</v>
+      </c>
+      <c r="AD18" s="44">
+        <f t="shared" si="6"/>
+        <v>3500</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="9"/>
+        <v>0.53125</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="0"/>
+        <v>3.5294117647058822</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36">
+      <c r="A19">
+        <v>201508</v>
+      </c>
+      <c r="B19">
+        <v>2700</v>
+      </c>
+      <c r="C19" s="122">
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="AB4" s="44">
+      <c r="D19">
+        <v>1500</v>
+      </c>
+      <c r="E19" s="122">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="F19" s="122">
+        <f t="shared" si="3"/>
+        <v>1900</v>
+      </c>
+      <c r="G19">
+        <v>800</v>
+      </c>
+      <c r="H19">
+        <v>800</v>
+      </c>
+      <c r="I19">
+        <v>800</v>
+      </c>
+      <c r="J19">
+        <v>700</v>
+      </c>
+      <c r="K19">
+        <v>700</v>
+      </c>
+      <c r="L19">
+        <v>700</v>
+      </c>
+      <c r="M19">
+        <v>600</v>
+      </c>
+      <c r="N19">
+        <v>600</v>
+      </c>
+      <c r="O19">
+        <v>600</v>
+      </c>
+      <c r="P19">
+        <v>600</v>
+      </c>
+      <c r="Q19" s="122">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="R19" s="122">
+        <f t="shared" si="5"/>
+        <v>2200</v>
+      </c>
+      <c r="S19">
+        <v>500</v>
+      </c>
+      <c r="T19">
+        <v>500</v>
+      </c>
+      <c r="U19">
+        <v>400</v>
+      </c>
+      <c r="V19">
+        <v>400</v>
+      </c>
+      <c r="W19">
+        <v>300</v>
+      </c>
+      <c r="X19">
+        <v>200</v>
+      </c>
+      <c r="Y19">
+        <v>100</v>
+      </c>
+      <c r="Z19">
+        <v>100</v>
+      </c>
+      <c r="AA19">
+        <v>100</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="39">
+        <v>2700</v>
+      </c>
+      <c r="AD19" s="44">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="7"/>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="8"/>
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="9"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36">
+      <c r="A20">
+        <v>201509</v>
+      </c>
+      <c r="B20">
+        <v>2200</v>
+      </c>
+      <c r="C20" s="122">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="D20">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="122">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="F20" s="122">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-      <c r="AC4">
+      <c r="G20">
+        <v>700</v>
+      </c>
+      <c r="H20">
+        <v>700</v>
+      </c>
+      <c r="I20">
+        <v>700</v>
+      </c>
+      <c r="J20">
+        <v>700</v>
+      </c>
+      <c r="K20">
+        <v>600</v>
+      </c>
+      <c r="L20">
+        <v>600</v>
+      </c>
+      <c r="M20">
+        <v>600</v>
+      </c>
+      <c r="N20">
+        <v>600</v>
+      </c>
+      <c r="O20">
+        <v>500</v>
+      </c>
+      <c r="P20">
+        <v>500</v>
+      </c>
+      <c r="Q20" s="122">
         <f t="shared" si="4"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AD4">
+        <v>300</v>
+      </c>
+      <c r="R20" s="122">
         <f t="shared" si="5"/>
+        <v>1800</v>
+      </c>
+      <c r="S20">
+        <v>400</v>
+      </c>
+      <c r="T20">
+        <v>400</v>
+      </c>
+      <c r="U20">
+        <v>400</v>
+      </c>
+      <c r="V20">
+        <v>300</v>
+      </c>
+      <c r="W20">
+        <v>300</v>
+      </c>
+      <c r="X20">
+        <v>300</v>
+      </c>
+      <c r="Y20">
+        <v>200</v>
+      </c>
+      <c r="Z20">
+        <v>100</v>
+      </c>
+      <c r="AA20">
+        <v>100</v>
+      </c>
+      <c r="AB20">
+        <v>100</v>
+      </c>
+      <c r="AC20" s="39">
+        <v>2200</v>
+      </c>
+      <c r="AD20" s="44">
+        <f t="shared" si="6"/>
+        <v>2500</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="8"/>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="9"/>
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="11"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="0"/>
+        <v>4.615384615384615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36">
+      <c r="A21">
+        <v>201510</v>
+      </c>
+      <c r="B21">
+        <v>2700</v>
+      </c>
+      <c r="C21" s="122">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="D21">
+        <v>1500</v>
+      </c>
+      <c r="E21" s="122">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="F21" s="122">
+        <f t="shared" si="3"/>
+        <v>1900</v>
+      </c>
+      <c r="G21">
+        <v>800</v>
+      </c>
+      <c r="H21">
+        <v>800</v>
+      </c>
+      <c r="I21">
+        <v>800</v>
+      </c>
+      <c r="J21">
+        <v>700</v>
+      </c>
+      <c r="K21">
+        <v>700</v>
+      </c>
+      <c r="L21">
+        <v>700</v>
+      </c>
+      <c r="M21">
+        <v>600</v>
+      </c>
+      <c r="N21">
+        <v>600</v>
+      </c>
+      <c r="O21">
+        <v>500</v>
+      </c>
+      <c r="P21">
+        <v>500</v>
+      </c>
+      <c r="Q21" s="122">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="R21" s="122">
+        <f t="shared" si="5"/>
+        <v>2300</v>
+      </c>
+      <c r="S21">
+        <v>400</v>
+      </c>
+      <c r="T21">
+        <v>400</v>
+      </c>
+      <c r="U21">
+        <v>300</v>
+      </c>
+      <c r="V21">
+        <v>300</v>
+      </c>
+      <c r="W21">
+        <v>200</v>
+      </c>
+      <c r="X21">
+        <v>100</v>
+      </c>
+      <c r="Y21">
+        <v>100</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="39">
+        <v>2700</v>
+      </c>
+      <c r="AD21" s="44">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="7"/>
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="8"/>
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="9"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" s="41" customFormat="1">
+      <c r="A22" s="41">
+        <v>201511</v>
+      </c>
+      <c r="B22" s="41">
+        <v>2000</v>
+      </c>
+      <c r="C22" s="122">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="D22" s="41">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="122">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="F22" s="122">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="G22" s="41">
+        <v>600</v>
+      </c>
+      <c r="H22" s="41">
+        <v>600</v>
+      </c>
+      <c r="I22" s="41">
+        <v>600</v>
+      </c>
+      <c r="J22" s="41">
+        <v>500</v>
+      </c>
+      <c r="K22" s="41">
+        <v>500</v>
+      </c>
+      <c r="L22" s="41">
+        <v>500</v>
+      </c>
+      <c r="M22" s="41">
+        <v>500</v>
+      </c>
+      <c r="N22" s="41">
+        <v>500</v>
+      </c>
+      <c r="O22" s="41">
+        <v>500</v>
+      </c>
+      <c r="P22" s="41">
+        <v>500</v>
+      </c>
+      <c r="Q22" s="122">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="R22" s="122">
+        <f t="shared" si="5"/>
+        <v>1500</v>
+      </c>
+      <c r="S22" s="41">
+        <v>500</v>
+      </c>
+      <c r="T22" s="41">
+        <v>400</v>
+      </c>
+      <c r="U22" s="41">
+        <v>400</v>
+      </c>
+      <c r="V22" s="41">
+        <v>300</v>
+      </c>
+      <c r="W22" s="41">
+        <v>300</v>
+      </c>
+      <c r="X22" s="41">
+        <v>300</v>
+      </c>
+      <c r="Y22" s="41">
+        <v>200</v>
+      </c>
+      <c r="Z22" s="41">
+        <v>100</v>
+      </c>
+      <c r="AA22" s="41">
+        <v>100</v>
+      </c>
+      <c r="AB22" s="41">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="42">
+        <v>2000</v>
+      </c>
+      <c r="AD22" s="45">
+        <f t="shared" si="6"/>
+        <v>2300</v>
+      </c>
+      <c r="AE22" s="41">
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="AE4">
-        <f t="shared" si="6"/>
-        <v>0.75</v>
-      </c>
-      <c r="AF4">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="AG4">
+      <c r="AF22" s="41">
         <f t="shared" si="8"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="AH4">
-        <f>6000/D4</f>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5">
-        <v>201404</v>
-      </c>
-      <c r="B5">
-        <v>1400</v>
-      </c>
-      <c r="C5" s="122">
+        <v>0.3</v>
+      </c>
+      <c r="AG22" s="41">
+        <f t="shared" si="9"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AH22" s="41">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AI22" s="41">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AJ22" s="41">
         <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="D5">
+        <v>5.4545454545454541</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36">
+      <c r="A23">
+        <v>201512</v>
+      </c>
+      <c r="B23">
+        <v>1900</v>
+      </c>
+      <c r="C23" s="122">
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="E5" s="122">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="F5">
-        <v>500</v>
-      </c>
-      <c r="G5">
-        <v>500</v>
-      </c>
-      <c r="H5">
-        <v>500</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5">
-        <v>300</v>
-      </c>
-      <c r="K5">
-        <v>300</v>
-      </c>
-      <c r="L5">
-        <v>200</v>
-      </c>
-      <c r="M5">
-        <v>200</v>
-      </c>
-      <c r="N5">
-        <v>200</v>
-      </c>
-      <c r="O5">
-        <v>200</v>
-      </c>
-      <c r="P5" s="122">
+      <c r="D23">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="122">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="Q5">
+      <c r="F23" s="122">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="G23">
+        <v>700</v>
+      </c>
+      <c r="H23">
+        <v>700</v>
+      </c>
+      <c r="I23">
+        <v>700</v>
+      </c>
+      <c r="J23">
+        <v>600</v>
+      </c>
+      <c r="K23">
+        <v>600</v>
+      </c>
+      <c r="L23">
+        <v>600</v>
+      </c>
+      <c r="M23">
+        <v>500</v>
+      </c>
+      <c r="N23">
+        <v>500</v>
+      </c>
+      <c r="O23">
+        <v>500</v>
+      </c>
+      <c r="P23">
+        <v>400</v>
+      </c>
+      <c r="Q23" s="122">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="R23" s="122">
+        <f t="shared" si="5"/>
+        <v>1500</v>
+      </c>
+      <c r="S23">
+        <v>400</v>
+      </c>
+      <c r="T23">
+        <v>400</v>
+      </c>
+      <c r="U23">
+        <v>400</v>
+      </c>
+      <c r="V23">
+        <v>400</v>
+      </c>
+      <c r="W23">
+        <v>300</v>
+      </c>
+      <c r="X23">
+        <v>300</v>
+      </c>
+      <c r="Y23">
+        <v>300</v>
+      </c>
+      <c r="Z23">
         <v>200</v>
       </c>
-      <c r="R5">
+      <c r="AA23">
+        <v>100</v>
+      </c>
+      <c r="AB23">
+        <v>100</v>
+      </c>
+      <c r="AC23" s="39">
+        <v>1900</v>
+      </c>
+      <c r="AD23" s="44">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="7"/>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="8"/>
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="9"/>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="11"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="A24">
+        <v>201601</v>
+      </c>
+      <c r="B24">
+        <v>1600</v>
+      </c>
+      <c r="C24" s="122">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="D24">
+        <v>700</v>
+      </c>
+      <c r="E24" s="122">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="F24" s="122">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="G24">
+        <v>400</v>
+      </c>
+      <c r="H24">
+        <v>400</v>
+      </c>
+      <c r="I24">
+        <v>400</v>
+      </c>
+      <c r="J24">
+        <v>400</v>
+      </c>
+      <c r="K24">
+        <v>300</v>
+      </c>
+      <c r="L24">
+        <v>300</v>
+      </c>
+      <c r="M24">
+        <v>300</v>
+      </c>
+      <c r="N24">
         <v>200</v>
       </c>
-      <c r="S5">
+      <c r="O24">
         <v>200</v>
       </c>
-      <c r="T5">
+      <c r="P24">
         <v>200</v>
       </c>
-      <c r="U5">
+      <c r="Q24" s="122">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="R24" s="122">
+        <f t="shared" si="5"/>
+        <v>1500</v>
+      </c>
+      <c r="S24">
+        <v>100</v>
+      </c>
+      <c r="T24">
+        <v>100</v>
+      </c>
+      <c r="U24">
+        <v>100</v>
+      </c>
+      <c r="V24">
+        <v>100</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="39">
+        <v>1600</v>
+      </c>
+      <c r="AD24" s="44">
+        <f t="shared" si="6"/>
+        <v>1900</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="7"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="9"/>
+        <v>0.4375</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="0"/>
+        <v>8.5714285714285712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
+      <c r="A25">
+        <v>201602</v>
+      </c>
+      <c r="B25">
+        <v>2600</v>
+      </c>
+      <c r="C25" s="122">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="D25">
+        <v>1700</v>
+      </c>
+      <c r="E25" s="122">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="F25" s="122">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="G25">
+        <v>1000</v>
+      </c>
+      <c r="H25">
+        <v>1000</v>
+      </c>
+      <c r="I25">
+        <v>900</v>
+      </c>
+      <c r="J25">
+        <v>900</v>
+      </c>
+      <c r="K25">
+        <v>800</v>
+      </c>
+      <c r="L25">
+        <v>800</v>
+      </c>
+      <c r="M25">
+        <v>700</v>
+      </c>
+      <c r="N25">
+        <v>600</v>
+      </c>
+      <c r="O25">
+        <v>600</v>
+      </c>
+      <c r="P25">
+        <v>500</v>
+      </c>
+      <c r="Q25" s="122">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="R25" s="122">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
+      <c r="S25">
+        <v>500</v>
+      </c>
+      <c r="T25">
+        <v>400</v>
+      </c>
+      <c r="U25">
+        <v>300</v>
+      </c>
+      <c r="V25">
         <v>200</v>
       </c>
-      <c r="V5">
+      <c r="W25">
         <v>200</v>
       </c>
-      <c r="W5">
+      <c r="X25">
+        <v>200</v>
+      </c>
+      <c r="Y25">
+        <v>100</v>
+      </c>
+      <c r="Z25">
+        <v>100</v>
+      </c>
+      <c r="AA25">
         <v>0</v>
       </c>
-      <c r="X5">
+      <c r="AB25">
         <v>0</v>
       </c>
-      <c r="Y5">
+      <c r="AC25" s="39">
+        <v>2600</v>
+      </c>
+      <c r="AD25" s="44">
+        <f t="shared" si="6"/>
+        <v>2900</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="7"/>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="8"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="9"/>
+        <v>0.65384615384615385</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="0"/>
+        <v>3.5294117647058822</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" s="55" customFormat="1">
+      <c r="A26" s="55">
+        <v>201603</v>
+      </c>
+      <c r="B26" s="55">
+        <v>2500</v>
+      </c>
+      <c r="C26" s="122">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="D26" s="55">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="122">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="F26" s="122">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="G26" s="55">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="55">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="55">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="55">
+        <v>1000</v>
+      </c>
+      <c r="K26" s="55">
+        <v>900</v>
+      </c>
+      <c r="L26" s="55">
+        <v>900</v>
+      </c>
+      <c r="M26" s="55">
+        <v>900</v>
+      </c>
+      <c r="N26" s="55">
+        <v>800</v>
+      </c>
+      <c r="O26" s="55">
+        <v>800</v>
+      </c>
+      <c r="P26" s="55">
+        <v>700</v>
+      </c>
+      <c r="Q26" s="122">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="R26" s="122">
+        <f t="shared" si="5"/>
+        <v>1800</v>
+      </c>
+      <c r="S26" s="55">
+        <v>700</v>
+      </c>
+      <c r="T26" s="55">
+        <v>600</v>
+      </c>
+      <c r="U26" s="55">
+        <v>500</v>
+      </c>
+      <c r="V26" s="55">
+        <v>400</v>
+      </c>
+      <c r="W26" s="55">
+        <v>300</v>
+      </c>
+      <c r="X26" s="55">
+        <v>200</v>
+      </c>
+      <c r="Y26" s="55">
+        <v>200</v>
+      </c>
+      <c r="Z26" s="55">
+        <v>200</v>
+      </c>
+      <c r="AA26" s="55">
+        <v>100</v>
+      </c>
+      <c r="AB26" s="55">
         <v>0</v>
       </c>
-      <c r="Z5">
+      <c r="AC26" s="120">
+        <v>2500</v>
+      </c>
+      <c r="AD26" s="121">
+        <f t="shared" si="6"/>
+        <v>2800</v>
+      </c>
+      <c r="AE26" s="55">
+        <f t="shared" si="7"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AF26" s="55">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="AG26" s="55">
+        <f t="shared" si="9"/>
+        <v>0.64</v>
+      </c>
+      <c r="AH26" s="55">
+        <f t="shared" si="10"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="AI26" s="55">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AJ26" s="55">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36">
+      <c r="A27">
+        <v>201604</v>
+      </c>
+      <c r="B27">
+        <v>2300</v>
+      </c>
+      <c r="C27" s="122">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="D27">
+        <v>1400</v>
+      </c>
+      <c r="E27" s="122">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="F27" s="122">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="G27">
+        <v>1100</v>
+      </c>
+      <c r="H27">
+        <v>1000</v>
+      </c>
+      <c r="I27">
+        <v>1000</v>
+      </c>
+      <c r="J27">
+        <v>900</v>
+      </c>
+      <c r="K27">
+        <v>900</v>
+      </c>
+      <c r="L27">
+        <v>900</v>
+      </c>
+      <c r="M27">
+        <v>800</v>
+      </c>
+      <c r="N27">
+        <v>800</v>
+      </c>
+      <c r="O27">
+        <v>700</v>
+      </c>
+      <c r="P27">
+        <v>700</v>
+      </c>
+      <c r="Q27" s="122">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="R27" s="122">
+        <f t="shared" si="5"/>
+        <v>1600</v>
+      </c>
+      <c r="S27">
+        <v>700</v>
+      </c>
+      <c r="T27">
+        <v>700</v>
+      </c>
+      <c r="U27">
+        <v>600</v>
+      </c>
+      <c r="V27">
+        <v>600</v>
+      </c>
+      <c r="W27">
+        <v>600</v>
+      </c>
+      <c r="X27">
+        <v>500</v>
+      </c>
+      <c r="Y27">
+        <v>500</v>
+      </c>
+      <c r="Z27">
+        <v>400</v>
+      </c>
+      <c r="AA27">
+        <v>300</v>
+      </c>
+      <c r="AB27">
+        <v>100</v>
+      </c>
+      <c r="AC27">
+        <f>B27</f>
+        <v>2300</v>
+      </c>
+      <c r="AD27" s="121">
+        <f t="shared" si="6"/>
+        <v>2600</v>
+      </c>
+      <c r="AE27" s="55">
+        <f t="shared" si="7"/>
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="AF27" s="55">
+        <f t="shared" si="8"/>
+        <v>0.47826086956521741</v>
+      </c>
+      <c r="AG27" s="55">
+        <f t="shared" si="9"/>
+        <v>0.60869565217391308</v>
+      </c>
+      <c r="AH27" s="55">
+        <f t="shared" si="10"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="AI27" s="55">
+        <f t="shared" si="11"/>
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="AJ27" s="55">
+        <f t="shared" si="0"/>
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36">
+      <c r="A28">
+        <v>201605</v>
+      </c>
+      <c r="B28">
+        <v>2200</v>
+      </c>
+      <c r="C28" s="122">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="D28">
+        <v>1400</v>
+      </c>
+      <c r="E28" s="122">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="F28" s="122">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="G28">
+        <v>1000</v>
+      </c>
+      <c r="H28">
+        <v>1000</v>
+      </c>
+      <c r="I28">
+        <v>1000</v>
+      </c>
+      <c r="J28">
+        <v>1000</v>
+      </c>
+      <c r="K28">
+        <v>1000</v>
+      </c>
+      <c r="L28">
+        <v>900</v>
+      </c>
+      <c r="M28">
+        <v>900</v>
+      </c>
+      <c r="N28">
+        <v>800</v>
+      </c>
+      <c r="O28">
+        <v>700</v>
+      </c>
+      <c r="P28">
+        <v>700</v>
+      </c>
+      <c r="Q28" s="122">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="R28" s="122">
+        <f t="shared" si="5"/>
+        <v>1500</v>
+      </c>
+      <c r="S28">
+        <v>700</v>
+      </c>
+      <c r="T28">
+        <v>600</v>
+      </c>
+      <c r="U28">
+        <v>600</v>
+      </c>
+      <c r="V28">
+        <v>600</v>
+      </c>
+      <c r="W28">
+        <v>500</v>
+      </c>
+      <c r="X28">
+        <v>500</v>
+      </c>
+      <c r="Y28">
+        <v>300</v>
+      </c>
+      <c r="Z28">
+        <v>300</v>
+      </c>
+      <c r="AA28">
+        <v>200</v>
+      </c>
+      <c r="AB28">
         <v>0</v>
       </c>
-      <c r="AA5" s="39">
-        <v>1400</v>
-      </c>
-      <c r="AB5" s="44">
+      <c r="AC28">
+        <f t="shared" ref="AC28:AC30" si="12">B28</f>
+        <v>2200</v>
+      </c>
+      <c r="AD28" s="121">
+        <f t="shared" si="6"/>
+        <v>2500</v>
+      </c>
+      <c r="AE28" s="55">
+        <f t="shared" si="7"/>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="AF28" s="55">
+        <f t="shared" si="8"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="AG28" s="55">
+        <f t="shared" si="9"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="AH28" s="55">
+        <f t="shared" si="10"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="AI28" s="55">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AJ28" s="55">
+        <f t="shared" si="0"/>
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" s="125" customFormat="1">
+      <c r="A29" s="125">
+        <v>201606</v>
+      </c>
+      <c r="B29" s="125">
+        <v>1600</v>
+      </c>
+      <c r="C29" s="126">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="D29" s="125">
+        <v>900</v>
+      </c>
+      <c r="E29" s="126">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="F29" s="126">
         <f t="shared" si="3"/>
-        <v>1700</v>
-      </c>
-      <c r="AC5">
+        <v>1200</v>
+      </c>
+      <c r="G29" s="125">
+        <v>400</v>
+      </c>
+      <c r="H29" s="125">
+        <v>400</v>
+      </c>
+      <c r="I29" s="125">
+        <v>400</v>
+      </c>
+      <c r="J29" s="125">
+        <v>400</v>
+      </c>
+      <c r="K29" s="125">
+        <v>400</v>
+      </c>
+      <c r="L29" s="125">
+        <v>300</v>
+      </c>
+      <c r="M29" s="125">
+        <v>300</v>
+      </c>
+      <c r="N29" s="125">
+        <v>300</v>
+      </c>
+      <c r="O29" s="125">
+        <v>300</v>
+      </c>
+      <c r="P29" s="125">
+        <v>300</v>
+      </c>
+      <c r="Q29" s="126">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AD5">
+        <v>100</v>
+      </c>
+      <c r="R29" s="126">
         <f t="shared" si="5"/>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="AE5">
+        <v>1300</v>
+      </c>
+      <c r="S29" s="125">
+        <v>300</v>
+      </c>
+      <c r="T29" s="125">
+        <v>300</v>
+      </c>
+      <c r="U29" s="125">
+        <v>300</v>
+      </c>
+      <c r="V29" s="125">
+        <v>300</v>
+      </c>
+      <c r="W29" s="125">
+        <v>200</v>
+      </c>
+      <c r="X29" s="125">
+        <v>200</v>
+      </c>
+      <c r="Y29" s="125">
+        <v>200</v>
+      </c>
+      <c r="Z29" s="125">
+        <v>100</v>
+      </c>
+      <c r="AA29" s="125">
+        <v>100</v>
+      </c>
+      <c r="AB29" s="125">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="125">
+        <f t="shared" si="12"/>
+        <v>1600</v>
+      </c>
+      <c r="AD29" s="124">
         <f t="shared" si="6"/>
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="AF5">
+        <v>1900</v>
+      </c>
+      <c r="AE29" s="125">
         <f t="shared" si="7"/>
+        <v>0.1875</v>
+      </c>
+      <c r="AF29" s="125">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="AG29" s="125">
+        <f t="shared" si="9"/>
+        <v>0.5625</v>
+      </c>
+      <c r="AH29" s="125">
+        <f t="shared" si="10"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AI29" s="125">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="AG5">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="AH5">
-        <f>6000/D5</f>
+      <c r="AJ29" s="125">
+        <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
-      <c r="A6">
-        <v>201405</v>
-      </c>
-      <c r="B6">
-        <v>1800</v>
-      </c>
-      <c r="C6" s="122">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="D6">
-        <v>1200</v>
-      </c>
-      <c r="E6" s="122">
+    <row r="30" spans="1:36">
+      <c r="A30">
+        <v>201607</v>
+      </c>
+      <c r="B30">
+        <v>2400</v>
+      </c>
+      <c r="C30" s="122">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F6">
-        <v>600</v>
-      </c>
-      <c r="G6">
-        <v>500</v>
-      </c>
-      <c r="H6">
-        <v>400</v>
-      </c>
-      <c r="I6">
-        <v>300</v>
-      </c>
-      <c r="J6">
-        <v>300</v>
-      </c>
-      <c r="K6">
-        <v>300</v>
-      </c>
-      <c r="L6">
-        <v>300</v>
-      </c>
-      <c r="M6">
-        <v>300</v>
-      </c>
-      <c r="N6">
-        <v>300</v>
-      </c>
-      <c r="O6">
-        <v>200</v>
-      </c>
-      <c r="P6" s="122">
+      <c r="D30">
+        <v>1800</v>
+      </c>
+      <c r="E30" s="122">
         <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="Q6">
-        <v>200</v>
-      </c>
-      <c r="R6">
-        <v>200</v>
-      </c>
-      <c r="S6">
-        <v>100</v>
-      </c>
-      <c r="T6">
-        <v>100</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="39">
-        <v>1800</v>
-      </c>
-      <c r="AB6" s="44">
-        <f t="shared" si="3"/>
-        <v>2100</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="4"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AE6">
-        <f t="shared" si="6"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="AG6">
-        <f t="shared" si="8"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AH6">
-        <f>6000/D6</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="A7">
-        <v>201406</v>
-      </c>
-      <c r="B7">
-        <v>1200</v>
-      </c>
-      <c r="C7" s="122">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="D7">
-        <v>600</v>
-      </c>
-      <c r="E7" s="122">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="F7">
-        <v>300</v>
-      </c>
-      <c r="G7">
-        <v>300</v>
-      </c>
-      <c r="H7">
-        <v>300</v>
-      </c>
-      <c r="I7">
-        <v>300</v>
-      </c>
-      <c r="J7">
-        <v>300</v>
-      </c>
-      <c r="K7">
-        <v>300</v>
-      </c>
-      <c r="L7">
-        <v>300</v>
-      </c>
-      <c r="M7">
-        <v>300</v>
-      </c>
-      <c r="N7">
-        <v>300</v>
-      </c>
-      <c r="O7">
-        <v>300</v>
-      </c>
-      <c r="P7" s="122">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="Q7">
-        <v>200</v>
-      </c>
-      <c r="R7">
-        <v>200</v>
-      </c>
-      <c r="S7">
-        <v>100</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="39">
-        <v>1200</v>
-      </c>
-      <c r="AB7" s="44">
-        <f t="shared" si="3"/>
-        <v>1500</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="4"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="AE7">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="8"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="AH7">
-        <f>6000/D7</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="A8">
-        <v>201407</v>
-      </c>
-      <c r="B8">
-        <v>2000</v>
-      </c>
-      <c r="C8" s="122">
-        <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="D8">
-        <v>1300</v>
-      </c>
-      <c r="E8" s="122">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="F8">
-        <v>400</v>
-      </c>
-      <c r="G8">
-        <v>400</v>
-      </c>
-      <c r="H8">
-        <v>400</v>
-      </c>
-      <c r="I8">
-        <v>400</v>
-      </c>
-      <c r="J8">
-        <v>300</v>
-      </c>
-      <c r="K8">
-        <v>300</v>
-      </c>
-      <c r="L8">
-        <v>300</v>
-      </c>
-      <c r="M8">
-        <v>300</v>
-      </c>
-      <c r="N8">
-        <v>300</v>
-      </c>
-      <c r="O8">
-        <v>200</v>
-      </c>
-      <c r="P8" s="122">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="Q8">
-        <v>200</v>
-      </c>
-      <c r="R8">
-        <v>200</v>
-      </c>
-      <c r="S8">
-        <v>200</v>
-      </c>
-      <c r="T8">
-        <v>200</v>
-      </c>
-      <c r="U8">
-        <v>200</v>
-      </c>
-      <c r="V8">
-        <v>100</v>
-      </c>
-      <c r="W8">
-        <v>100</v>
-      </c>
-      <c r="X8">
-        <v>100</v>
-      </c>
-      <c r="Y8">
-        <v>100</v>
-      </c>
-      <c r="Z8">
-        <v>100</v>
-      </c>
-      <c r="AA8" s="39">
-        <v>2000</v>
-      </c>
-      <c r="AB8" s="44">
-        <f t="shared" si="3"/>
-        <v>2300</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="AE8">
-        <f t="shared" si="6"/>
-        <v>0.65</v>
-      </c>
-      <c r="AF8">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="AG8">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="AH8">
-        <f>6000/D8</f>
-        <v>4.615384615384615</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="A9">
-        <v>201408</v>
-      </c>
-      <c r="B9">
-        <v>1000</v>
-      </c>
-      <c r="C9" s="122">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="D9">
-        <v>700</v>
-      </c>
-      <c r="E9" s="122">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="F9">
-        <v>400</v>
-      </c>
-      <c r="G9">
-        <v>400</v>
-      </c>
-      <c r="H9">
-        <v>400</v>
-      </c>
-      <c r="I9">
-        <v>300</v>
-      </c>
-      <c r="J9">
-        <v>300</v>
-      </c>
-      <c r="K9">
-        <v>200</v>
-      </c>
-      <c r="L9">
-        <v>200</v>
-      </c>
-      <c r="M9">
-        <v>100</v>
-      </c>
-      <c r="N9">
-        <v>100</v>
-      </c>
-      <c r="O9">
-        <v>100</v>
-      </c>
-      <c r="P9" s="122">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="Q9">
-        <v>100</v>
-      </c>
-      <c r="R9">
-        <v>100</v>
-      </c>
-      <c r="S9">
-        <v>100</v>
-      </c>
-      <c r="T9">
-        <v>100</v>
-      </c>
-      <c r="U9">
-        <v>100</v>
-      </c>
-      <c r="V9">
-        <v>100</v>
-      </c>
-      <c r="W9">
-        <v>100</v>
-      </c>
-      <c r="X9">
-        <v>100</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="39">
-        <v>1000</v>
-      </c>
-      <c r="AB9" s="44">
+      <c r="F30" s="122">
         <f t="shared" si="3"/>
         <v>1300</v>
       </c>
-      <c r="AC9">
-        <f t="shared" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="5"/>
-        <v>0.4</v>
-      </c>
-      <c r="AE9">
-        <f t="shared" si="6"/>
-        <v>0.7</v>
-      </c>
-      <c r="AF9">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="AG9">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="AH9">
-        <f>6000/D9</f>
-        <v>8.5714285714285712</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="A10">
-        <v>201409</v>
-      </c>
-      <c r="B10">
-        <v>1200</v>
-      </c>
-      <c r="C10" s="122">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="D10">
-        <v>900</v>
-      </c>
-      <c r="E10" s="122">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="F10">
-        <v>500</v>
-      </c>
-      <c r="G10">
-        <v>400</v>
-      </c>
-      <c r="H10">
-        <v>400</v>
-      </c>
-      <c r="I10">
-        <v>400</v>
-      </c>
-      <c r="J10">
-        <v>300</v>
-      </c>
-      <c r="K10">
-        <v>300</v>
-      </c>
-      <c r="L10">
-        <v>300</v>
-      </c>
-      <c r="M10">
-        <v>300</v>
-      </c>
-      <c r="N10">
-        <v>300</v>
-      </c>
-      <c r="O10">
-        <v>300</v>
-      </c>
-      <c r="P10" s="122">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="Q10">
-        <v>300</v>
-      </c>
-      <c r="R10">
-        <v>300</v>
-      </c>
-      <c r="S10">
-        <v>300</v>
-      </c>
-      <c r="T10">
-        <v>300</v>
-      </c>
-      <c r="U10">
-        <v>200</v>
-      </c>
-      <c r="V10">
-        <v>100</v>
-      </c>
-      <c r="W10">
-        <v>100</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="39">
-        <v>1200</v>
-      </c>
-      <c r="AB10" s="44">
-        <f t="shared" si="3"/>
-        <v>1500</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="5"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" si="6"/>
-        <v>0.75</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="7"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="AH10">
-        <f>6000/D10</f>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
-      <c r="A11">
-        <v>201410</v>
-      </c>
-      <c r="B11">
-        <v>1400</v>
-      </c>
-      <c r="C11" s="122">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="D11">
-        <v>1100</v>
-      </c>
-      <c r="E11" s="122">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="F11">
-        <v>500</v>
-      </c>
-      <c r="G11">
-        <v>500</v>
-      </c>
-      <c r="H11">
-        <v>500</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11">
-        <v>500</v>
-      </c>
-      <c r="K11">
-        <v>400</v>
-      </c>
-      <c r="L11">
-        <v>400</v>
-      </c>
-      <c r="M11">
-        <v>400</v>
-      </c>
-      <c r="N11">
-        <v>300</v>
-      </c>
-      <c r="O11">
-        <v>200</v>
-      </c>
-      <c r="P11" s="122">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="Q11">
-        <v>200</v>
-      </c>
-      <c r="R11">
-        <v>200</v>
-      </c>
-      <c r="S11">
-        <v>200</v>
-      </c>
-      <c r="T11">
-        <v>200</v>
-      </c>
-      <c r="U11">
-        <v>200</v>
-      </c>
-      <c r="V11">
-        <v>200</v>
-      </c>
-      <c r="W11">
-        <v>100</v>
-      </c>
-      <c r="X11">
-        <v>100</v>
-      </c>
-      <c r="Y11">
-        <v>100</v>
-      </c>
-      <c r="Z11">
-        <v>100</v>
-      </c>
-      <c r="AA11" s="39">
-        <v>1400</v>
-      </c>
-      <c r="AB11" s="44">
-        <f t="shared" si="3"/>
-        <v>1700</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" si="5"/>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="AE11">
-        <f t="shared" si="6"/>
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="AF11">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="AG11">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="AH11">
-        <f>6000/D11</f>
-        <v>5.4545454545454541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
-      <c r="A12">
-        <v>201411</v>
-      </c>
-      <c r="B12">
-        <v>900</v>
-      </c>
-      <c r="C12" s="122">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="D12">
-        <v>600</v>
-      </c>
-      <c r="E12" s="122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>600</v>
-      </c>
-      <c r="G12">
-        <v>600</v>
-      </c>
-      <c r="H12">
-        <v>600</v>
-      </c>
-      <c r="I12">
-        <v>600</v>
-      </c>
-      <c r="J12">
-        <v>600</v>
-      </c>
-      <c r="K12">
-        <v>600</v>
-      </c>
-      <c r="L12">
-        <v>400</v>
-      </c>
-      <c r="M12">
-        <v>300</v>
-      </c>
-      <c r="N12">
-        <v>300</v>
-      </c>
-      <c r="O12">
-        <v>300</v>
-      </c>
-      <c r="P12" s="122">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="Q12">
-        <v>300</v>
-      </c>
-      <c r="R12">
-        <v>300</v>
-      </c>
-      <c r="S12">
-        <v>200</v>
-      </c>
-      <c r="T12">
-        <v>200</v>
-      </c>
-      <c r="U12">
-        <v>100</v>
-      </c>
-      <c r="V12">
-        <v>100</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="39">
-        <v>900</v>
-      </c>
-      <c r="AB12" s="44">
-        <f t="shared" si="3"/>
-        <v>1200</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="5"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="6"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="7"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" si="8"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AH12">
-        <f>6000/D12</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
-      <c r="A13">
-        <v>201412</v>
-      </c>
-      <c r="B13">
-        <v>1000</v>
-      </c>
-      <c r="C13" s="122">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="D13">
-        <v>700</v>
-      </c>
-      <c r="E13" s="122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>700</v>
-      </c>
-      <c r="G13">
-        <v>700</v>
-      </c>
-      <c r="H13">
-        <v>700</v>
-      </c>
-      <c r="I13">
-        <v>600</v>
-      </c>
-      <c r="J13">
-        <v>500</v>
-      </c>
-      <c r="K13">
-        <v>500</v>
-      </c>
-      <c r="L13">
-        <v>400</v>
-      </c>
-      <c r="M13">
-        <v>400</v>
-      </c>
-      <c r="N13">
-        <v>400</v>
-      </c>
-      <c r="O13">
-        <v>400</v>
-      </c>
-      <c r="P13" s="122">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="Q13">
-        <v>400</v>
-      </c>
-      <c r="R13">
-        <v>400</v>
-      </c>
-      <c r="S13">
-        <v>300</v>
-      </c>
-      <c r="T13">
-        <v>200</v>
-      </c>
-      <c r="U13">
-        <v>100</v>
-      </c>
-      <c r="V13">
-        <v>100</v>
-      </c>
-      <c r="W13">
-        <v>100</v>
-      </c>
-      <c r="X13">
-        <v>100</v>
-      </c>
-      <c r="Y13">
-        <v>100</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="39">
-        <v>1000</v>
-      </c>
-      <c r="AB13" s="44">
-        <f t="shared" si="3"/>
-        <v>1300</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="4"/>
-        <v>0.4</v>
-      </c>
-      <c r="AD13">
-        <f t="shared" si="5"/>
-        <v>0.7</v>
-      </c>
-      <c r="AE13">
-        <f t="shared" si="6"/>
-        <v>0.7</v>
-      </c>
-      <c r="AF13">
-        <f t="shared" si="7"/>
-        <v>2.5</v>
-      </c>
-      <c r="AG13">
-        <f t="shared" si="8"/>
-        <v>2.8571428571428572</v>
-      </c>
-      <c r="AH13">
-        <f>6000/D13</f>
-        <v>8.5714285714285712</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
-      <c r="A14">
-        <v>201502</v>
-      </c>
-      <c r="B14">
-        <v>2800</v>
-      </c>
-      <c r="C14" s="122">
-        <f t="shared" si="0"/>
-        <v>2300</v>
-      </c>
-      <c r="D14">
-        <v>500</v>
-      </c>
-      <c r="E14" s="122">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F14">
-        <v>300</v>
-      </c>
-      <c r="G14">
-        <v>300</v>
-      </c>
-      <c r="H14">
-        <v>300</v>
-      </c>
-      <c r="I14">
-        <v>300</v>
-      </c>
-      <c r="J14">
-        <v>300</v>
-      </c>
-      <c r="K14">
-        <v>300</v>
-      </c>
-      <c r="L14">
-        <v>200</v>
-      </c>
-      <c r="M14">
-        <v>200</v>
-      </c>
-      <c r="N14">
-        <v>200</v>
-      </c>
-      <c r="O14">
-        <v>200</v>
-      </c>
-      <c r="P14" s="122">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="Q14">
-        <v>200</v>
-      </c>
-      <c r="R14">
-        <v>200</v>
-      </c>
-      <c r="S14">
-        <v>200</v>
-      </c>
-      <c r="T14">
-        <v>200</v>
-      </c>
-      <c r="U14">
-        <v>100</v>
-      </c>
-      <c r="V14">
-        <v>100</v>
-      </c>
-      <c r="W14">
-        <v>100</v>
-      </c>
-      <c r="X14">
-        <v>100</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="39">
-        <v>2800</v>
-      </c>
-      <c r="AB14" s="44">
-        <f t="shared" si="3"/>
-        <v>3100</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="4"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" si="5"/>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="AE14">
-        <f t="shared" si="6"/>
-        <v>0.17857142857142858</v>
-      </c>
-      <c r="AF14">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="AG14">
-        <f t="shared" si="8"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="AH14">
-        <f>6000/D14</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
-      <c r="A15">
-        <v>201504</v>
-      </c>
-      <c r="B15">
-        <v>5400</v>
-      </c>
-      <c r="C15" s="122">
-        <f t="shared" si="0"/>
-        <v>4700</v>
-      </c>
-      <c r="D15">
-        <v>700</v>
-      </c>
-      <c r="E15" s="122">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="F15">
-        <v>300</v>
-      </c>
-      <c r="G15">
-        <v>300</v>
-      </c>
-      <c r="H15">
-        <v>300</v>
-      </c>
-      <c r="I15">
-        <v>300</v>
-      </c>
-      <c r="J15">
-        <v>300</v>
-      </c>
-      <c r="K15">
-        <v>300</v>
-      </c>
-      <c r="L15">
-        <v>300</v>
-      </c>
-      <c r="M15">
-        <v>300</v>
-      </c>
-      <c r="N15">
-        <v>300</v>
-      </c>
-      <c r="O15">
-        <v>200</v>
-      </c>
-      <c r="P15" s="122">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="Q15">
-        <v>200</v>
-      </c>
-      <c r="R15">
-        <v>200</v>
-      </c>
-      <c r="S15">
-        <v>200</v>
-      </c>
-      <c r="T15">
-        <v>100</v>
-      </c>
-      <c r="U15">
-        <v>100</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="39">
-        <v>5400</v>
-      </c>
-      <c r="AB15" s="44">
-        <f t="shared" si="3"/>
-        <v>5700</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="4"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="5"/>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="6"/>
-        <v>0.12962962962962962</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="AG15">
-        <f t="shared" si="8"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="AH15">
-        <f>6000/D15</f>
-        <v>8.5714285714285712</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
-      <c r="A16">
-        <v>201505</v>
-      </c>
-      <c r="B16">
-        <v>3800</v>
-      </c>
-      <c r="C16" s="122">
-        <f t="shared" si="0"/>
-        <v>3100</v>
-      </c>
-      <c r="D16">
-        <v>700</v>
-      </c>
-      <c r="E16" s="122">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="F16">
-        <v>300</v>
-      </c>
-      <c r="G16">
-        <v>300</v>
-      </c>
-      <c r="H16">
-        <v>300</v>
-      </c>
-      <c r="I16">
-        <v>200</v>
-      </c>
-      <c r="J16">
-        <v>200</v>
-      </c>
-      <c r="K16">
-        <v>200</v>
-      </c>
-      <c r="L16">
-        <v>200</v>
-      </c>
-      <c r="M16">
-        <v>200</v>
-      </c>
-      <c r="N16">
-        <v>200</v>
-      </c>
-      <c r="O16">
-        <v>200</v>
-      </c>
-      <c r="P16" s="122">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="Q16">
-        <v>200</v>
-      </c>
-      <c r="R16">
-        <v>100</v>
-      </c>
-      <c r="S16">
-        <v>100</v>
-      </c>
-      <c r="T16">
-        <v>100</v>
-      </c>
-      <c r="U16">
-        <v>100</v>
-      </c>
-      <c r="V16">
-        <v>100</v>
-      </c>
-      <c r="W16">
-        <v>100</v>
-      </c>
-      <c r="X16">
-        <v>100</v>
-      </c>
-      <c r="Y16">
-        <v>100</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="39">
-        <v>3800</v>
-      </c>
-      <c r="AB16" s="44">
-        <f t="shared" si="3"/>
-        <v>4100</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="4"/>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" si="5"/>
-        <v>7.8947368421052627E-2</v>
-      </c>
-      <c r="AE16">
-        <f t="shared" si="6"/>
-        <v>0.18421052631578946</v>
-      </c>
-      <c r="AF16">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="AG16">
-        <f t="shared" si="8"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="AH16">
-        <f>6000/D16</f>
-        <v>8.5714285714285712</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" s="46" customFormat="1">
-      <c r="A17" s="46">
-        <v>201506</v>
-      </c>
-      <c r="B17" s="46">
-        <v>4800</v>
-      </c>
-      <c r="C17" s="122">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="D17" s="46">
-        <v>2300</v>
-      </c>
-      <c r="E17" s="122">
-        <f t="shared" si="1"/>
-        <v>1400</v>
-      </c>
-      <c r="F17" s="46">
-        <v>900</v>
-      </c>
-      <c r="G17" s="46">
-        <v>900</v>
-      </c>
-      <c r="H17" s="46">
-        <v>800</v>
-      </c>
-      <c r="I17" s="46">
-        <v>800</v>
-      </c>
-      <c r="J17" s="46">
-        <v>800</v>
-      </c>
-      <c r="K17" s="46">
-        <v>700</v>
-      </c>
-      <c r="L17" s="46">
-        <v>600</v>
-      </c>
-      <c r="M17" s="46">
-        <v>600</v>
-      </c>
-      <c r="N17" s="46">
-        <v>500</v>
-      </c>
-      <c r="O17" s="46">
-        <v>500</v>
-      </c>
-      <c r="P17" s="122">
-        <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="Q17" s="46">
-        <v>500</v>
-      </c>
-      <c r="R17" s="46">
-        <v>400</v>
-      </c>
-      <c r="S17" s="46">
-        <v>400</v>
-      </c>
-      <c r="T17" s="46">
-        <v>300</v>
-      </c>
-      <c r="U17" s="46">
-        <v>300</v>
-      </c>
-      <c r="V17" s="46">
-        <v>300</v>
-      </c>
-      <c r="W17" s="46">
-        <v>200</v>
-      </c>
-      <c r="X17" s="46">
-        <v>100</v>
-      </c>
-      <c r="Y17" s="46">
-        <v>100</v>
-      </c>
-      <c r="Z17" s="46">
-        <v>100</v>
-      </c>
-      <c r="AA17" s="47">
-        <v>4800</v>
-      </c>
-      <c r="AB17" s="48">
-        <f t="shared" si="3"/>
-        <v>5100</v>
-      </c>
-      <c r="AC17" s="46">
-        <f t="shared" si="4"/>
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="AD17" s="46">
-        <f t="shared" si="5"/>
-        <v>0.1875</v>
-      </c>
-      <c r="AE17" s="46">
-        <f t="shared" si="6"/>
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="AF17" s="46">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AG17" s="46">
-        <f t="shared" si="8"/>
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="AH17" s="46">
-        <f>6000/D17</f>
-        <v>2.6086956521739131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
-      <c r="A18">
-        <v>201507</v>
-      </c>
-      <c r="B18">
-        <v>3200</v>
-      </c>
-      <c r="C18" s="122">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="D18">
-        <v>1700</v>
-      </c>
-      <c r="E18" s="122">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="F18">
-        <v>800</v>
-      </c>
-      <c r="G18">
-        <v>800</v>
-      </c>
-      <c r="H18">
-        <v>700</v>
-      </c>
-      <c r="I18">
-        <v>700</v>
-      </c>
-      <c r="J18">
-        <v>600</v>
-      </c>
-      <c r="K18">
-        <v>600</v>
-      </c>
-      <c r="L18">
-        <v>600</v>
-      </c>
-      <c r="M18">
-        <v>500</v>
-      </c>
-      <c r="N18">
-        <v>500</v>
-      </c>
-      <c r="O18">
-        <v>500</v>
-      </c>
-      <c r="P18" s="122">
-        <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="Q18">
-        <v>400</v>
-      </c>
-      <c r="R18">
-        <v>300</v>
-      </c>
-      <c r="S18">
-        <v>300</v>
-      </c>
-      <c r="T18">
-        <v>300</v>
-      </c>
-      <c r="U18">
-        <v>200</v>
-      </c>
-      <c r="V18">
-        <v>100</v>
-      </c>
-      <c r="W18">
-        <v>100</v>
-      </c>
-      <c r="X18">
-        <v>100</v>
-      </c>
-      <c r="Y18">
-        <v>100</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="39">
-        <v>3200</v>
-      </c>
-      <c r="AB18" s="44">
-        <f t="shared" si="3"/>
-        <v>3500</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="AE18">
-        <f t="shared" si="6"/>
-        <v>0.53125</v>
-      </c>
-      <c r="AF18">
-        <f t="shared" si="7"/>
-        <v>2.5</v>
-      </c>
-      <c r="AG18">
-        <f t="shared" si="8"/>
-        <v>2.5</v>
-      </c>
-      <c r="AH18">
-        <f>6000/D18</f>
-        <v>3.5294117647058822</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
-      <c r="A19">
-        <v>201508</v>
-      </c>
-      <c r="B19">
-        <v>2700</v>
-      </c>
-      <c r="C19" s="122">
-        <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="D19">
-        <v>1500</v>
-      </c>
-      <c r="E19" s="122">
-        <f t="shared" si="1"/>
-        <v>700</v>
-      </c>
-      <c r="F19">
-        <v>800</v>
-      </c>
-      <c r="G19">
-        <v>800</v>
-      </c>
-      <c r="H19">
-        <v>800</v>
-      </c>
-      <c r="I19">
-        <v>700</v>
-      </c>
-      <c r="J19">
-        <v>700</v>
-      </c>
-      <c r="K19">
-        <v>700</v>
-      </c>
-      <c r="L19">
-        <v>600</v>
-      </c>
-      <c r="M19">
-        <v>600</v>
-      </c>
-      <c r="N19">
-        <v>600</v>
-      </c>
-      <c r="O19">
-        <v>600</v>
-      </c>
-      <c r="P19" s="122">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="Q19">
-        <v>500</v>
-      </c>
-      <c r="R19">
-        <v>500</v>
-      </c>
-      <c r="S19">
-        <v>400</v>
-      </c>
-      <c r="T19">
-        <v>400</v>
-      </c>
-      <c r="U19">
-        <v>300</v>
-      </c>
-      <c r="V19">
-        <v>200</v>
-      </c>
-      <c r="W19">
-        <v>100</v>
-      </c>
-      <c r="X19">
-        <v>100</v>
-      </c>
-      <c r="Y19">
-        <v>100</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="39">
-        <v>2700</v>
-      </c>
-      <c r="AB19" s="44">
-        <f t="shared" si="3"/>
-        <v>3000</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="4"/>
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="AD19">
-        <f t="shared" si="5"/>
-        <v>0.29629629629629628</v>
-      </c>
-      <c r="AE19">
-        <f t="shared" si="6"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="AF19">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AG19">
-        <f t="shared" si="8"/>
-        <v>2.5</v>
-      </c>
-      <c r="AH19">
-        <f>6000/D19</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34">
-      <c r="A20">
-        <v>201509</v>
-      </c>
-      <c r="B20">
-        <v>2200</v>
-      </c>
-      <c r="C20" s="122">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="D20">
-        <v>1300</v>
-      </c>
-      <c r="E20" s="122">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="F20">
-        <v>700</v>
-      </c>
-      <c r="G20">
-        <v>700</v>
-      </c>
-      <c r="H20">
-        <v>700</v>
-      </c>
-      <c r="I20">
-        <v>700</v>
-      </c>
-      <c r="J20">
-        <v>600</v>
-      </c>
-      <c r="K20">
-        <v>600</v>
-      </c>
-      <c r="L20">
-        <v>600</v>
-      </c>
-      <c r="M20">
-        <v>600</v>
-      </c>
-      <c r="N20">
-        <v>500</v>
-      </c>
-      <c r="O20">
-        <v>500</v>
-      </c>
-      <c r="P20" s="122">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="Q20">
-        <v>400</v>
-      </c>
-      <c r="R20">
-        <v>400</v>
-      </c>
-      <c r="S20">
-        <v>400</v>
-      </c>
-      <c r="T20">
-        <v>300</v>
-      </c>
-      <c r="U20">
-        <v>300</v>
-      </c>
-      <c r="V20">
-        <v>300</v>
-      </c>
-      <c r="W20">
-        <v>200</v>
-      </c>
-      <c r="X20">
-        <v>100</v>
-      </c>
-      <c r="Y20">
-        <v>100</v>
-      </c>
-      <c r="Z20">
-        <v>100</v>
-      </c>
-      <c r="AA20" s="39">
-        <v>2200</v>
-      </c>
-      <c r="AB20" s="44">
-        <f t="shared" si="3"/>
-        <v>2500</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="4"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="AD20">
-        <f t="shared" si="5"/>
-        <v>0.31818181818181818</v>
-      </c>
-      <c r="AE20">
-        <f t="shared" si="6"/>
-        <v>0.59090909090909094</v>
-      </c>
-      <c r="AF20">
-        <f t="shared" si="7"/>
-        <v>2.5</v>
-      </c>
-      <c r="AG20">
-        <f t="shared" si="8"/>
-        <v>2.8571428571428572</v>
-      </c>
-      <c r="AH20">
-        <f>6000/D20</f>
-        <v>4.615384615384615</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34">
-      <c r="A21">
-        <v>201510</v>
-      </c>
-      <c r="B21">
-        <v>2700</v>
-      </c>
-      <c r="C21" s="122">
-        <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="D21">
-        <v>1500</v>
-      </c>
-      <c r="E21" s="122">
-        <f t="shared" si="1"/>
-        <v>700</v>
-      </c>
-      <c r="F21">
-        <v>800</v>
-      </c>
-      <c r="G21">
-        <v>800</v>
-      </c>
-      <c r="H21">
-        <v>800</v>
-      </c>
-      <c r="I21">
-        <v>700</v>
-      </c>
-      <c r="J21">
-        <v>700</v>
-      </c>
-      <c r="K21">
-        <v>700</v>
-      </c>
-      <c r="L21">
-        <v>600</v>
-      </c>
-      <c r="M21">
-        <v>600</v>
-      </c>
-      <c r="N21">
-        <v>500</v>
-      </c>
-      <c r="O21">
-        <v>500</v>
-      </c>
-      <c r="P21" s="122">
-        <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="Q21">
-        <v>400</v>
-      </c>
-      <c r="R21">
-        <v>400</v>
-      </c>
-      <c r="S21">
-        <v>300</v>
-      </c>
-      <c r="T21">
-        <v>300</v>
-      </c>
-      <c r="U21">
-        <v>200</v>
-      </c>
-      <c r="V21">
-        <v>100</v>
-      </c>
-      <c r="W21">
-        <v>100</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="39">
-        <v>2700</v>
-      </c>
-      <c r="AB21" s="44">
-        <f t="shared" si="3"/>
-        <v>3000</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="4"/>
-        <v>0.14814814814814814</v>
-      </c>
-      <c r="AD21">
-        <f t="shared" si="5"/>
-        <v>0.29629629629629628</v>
-      </c>
-      <c r="AE21">
-        <f t="shared" si="6"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="AF21">
-        <f t="shared" si="7"/>
-        <v>2.5</v>
-      </c>
-      <c r="AG21">
-        <f t="shared" si="8"/>
-        <v>2.5</v>
-      </c>
-      <c r="AH21">
-        <f>6000/D21</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" s="41" customFormat="1">
-      <c r="A22" s="41">
-        <v>201511</v>
-      </c>
-      <c r="B22" s="41">
-        <v>2000</v>
-      </c>
-      <c r="C22" s="122">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="D22" s="41">
-        <v>1100</v>
-      </c>
-      <c r="E22" s="122">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="F22" s="41">
-        <v>600</v>
-      </c>
-      <c r="G22" s="41">
-        <v>600</v>
-      </c>
-      <c r="H22" s="41">
-        <v>600</v>
-      </c>
-      <c r="I22" s="41">
-        <v>500</v>
-      </c>
-      <c r="J22" s="41">
-        <v>500</v>
-      </c>
-      <c r="K22" s="41">
-        <v>500</v>
-      </c>
-      <c r="L22" s="41">
-        <v>500</v>
-      </c>
-      <c r="M22" s="41">
-        <v>500</v>
-      </c>
-      <c r="N22" s="41">
-        <v>500</v>
-      </c>
-      <c r="O22" s="41">
-        <v>500</v>
-      </c>
-      <c r="P22" s="122">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="Q22" s="41">
-        <v>500</v>
-      </c>
-      <c r="R22" s="41">
-        <v>400</v>
-      </c>
-      <c r="S22" s="41">
-        <v>400</v>
-      </c>
-      <c r="T22" s="41">
-        <v>300</v>
-      </c>
-      <c r="U22" s="41">
-        <v>300</v>
-      </c>
-      <c r="V22" s="41">
-        <v>300</v>
-      </c>
-      <c r="W22" s="41">
-        <v>200</v>
-      </c>
-      <c r="X22" s="41">
-        <v>100</v>
-      </c>
-      <c r="Y22" s="41">
-        <v>100</v>
-      </c>
-      <c r="Z22" s="41">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="42">
-        <v>2000</v>
-      </c>
-      <c r="AB22" s="45">
-        <f t="shared" si="3"/>
-        <v>2300</v>
-      </c>
-      <c r="AC22" s="41">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="AD22" s="41">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="AE22" s="41">
-        <f t="shared" si="6"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AF22" s="41">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AG22" s="41">
-        <f t="shared" si="8"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AH22" s="41">
-        <f>6000/D22</f>
-        <v>5.4545454545454541</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34">
-      <c r="A23">
-        <v>201512</v>
-      </c>
-      <c r="B23">
-        <v>1900</v>
-      </c>
-      <c r="C23" s="122">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="D23">
-        <v>1000</v>
-      </c>
-      <c r="E23" s="122">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="F23">
-        <v>700</v>
-      </c>
-      <c r="G23">
-        <v>700</v>
-      </c>
-      <c r="H23">
-        <v>700</v>
-      </c>
-      <c r="I23">
-        <v>600</v>
-      </c>
-      <c r="J23">
-        <v>600</v>
-      </c>
-      <c r="K23">
-        <v>600</v>
-      </c>
-      <c r="L23">
-        <v>500</v>
-      </c>
-      <c r="M23">
-        <v>500</v>
-      </c>
-      <c r="N23">
-        <v>500</v>
-      </c>
-      <c r="O23">
-        <v>400</v>
-      </c>
-      <c r="P23" s="122">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="Q23">
-        <v>400</v>
-      </c>
-      <c r="R23">
-        <v>400</v>
-      </c>
-      <c r="S23">
-        <v>400</v>
-      </c>
-      <c r="T23">
-        <v>400</v>
-      </c>
-      <c r="U23">
-        <v>300</v>
-      </c>
-      <c r="V23">
-        <v>300</v>
-      </c>
-      <c r="W23">
-        <v>300</v>
-      </c>
-      <c r="X23">
-        <v>200</v>
-      </c>
-      <c r="Y23">
-        <v>100</v>
-      </c>
-      <c r="Z23">
-        <v>100</v>
-      </c>
-      <c r="AA23" s="39">
-        <v>1900</v>
-      </c>
-      <c r="AB23" s="44">
-        <f t="shared" si="3"/>
-        <v>2200</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="4"/>
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="AD23">
-        <f t="shared" si="5"/>
-        <v>0.36842105263157893</v>
-      </c>
-      <c r="AE23">
-        <f t="shared" si="6"/>
-        <v>0.52631578947368418</v>
-      </c>
-      <c r="AF23">
-        <f t="shared" si="7"/>
-        <v>2.5</v>
-      </c>
-      <c r="AG23">
-        <f t="shared" si="8"/>
-        <v>2.8571428571428572</v>
-      </c>
-      <c r="AH23">
-        <f>6000/D23</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34">
-      <c r="A24">
-        <v>201601</v>
-      </c>
-      <c r="B24">
-        <v>1600</v>
-      </c>
-      <c r="C24" s="122">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="D24">
-        <v>700</v>
-      </c>
-      <c r="E24" s="122">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="F24">
-        <v>400</v>
-      </c>
-      <c r="G24">
-        <v>400</v>
-      </c>
-      <c r="H24">
-        <v>400</v>
-      </c>
-      <c r="I24">
-        <v>400</v>
-      </c>
-      <c r="J24">
-        <v>300</v>
-      </c>
-      <c r="K24">
-        <v>300</v>
-      </c>
-      <c r="L24">
-        <v>300</v>
-      </c>
-      <c r="M24">
-        <v>200</v>
-      </c>
-      <c r="N24">
-        <v>200</v>
-      </c>
-      <c r="O24">
-        <v>200</v>
-      </c>
-      <c r="P24" s="122">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="Q24">
-        <v>100</v>
-      </c>
-      <c r="R24">
-        <v>100</v>
-      </c>
-      <c r="S24">
-        <v>100</v>
-      </c>
-      <c r="T24">
-        <v>100</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="39">
-        <v>1600</v>
-      </c>
-      <c r="AB24" s="44">
-        <f t="shared" si="3"/>
-        <v>1900</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="4"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="AD24">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="AE24">
-        <f t="shared" si="6"/>
-        <v>0.4375</v>
-      </c>
-      <c r="AF24">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="AG24">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="AH24">
-        <f>6000/D24</f>
-        <v>8.5714285714285712</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34">
-      <c r="A25">
-        <v>201602</v>
-      </c>
-      <c r="B25">
-        <v>2600</v>
-      </c>
-      <c r="C25" s="122">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="D25">
-        <v>1700</v>
-      </c>
-      <c r="E25" s="122">
-        <f t="shared" si="1"/>
-        <v>700</v>
-      </c>
-      <c r="F25">
-        <v>1000</v>
-      </c>
-      <c r="G25">
-        <v>1000</v>
-      </c>
-      <c r="H25">
-        <v>900</v>
-      </c>
-      <c r="I25">
-        <v>900</v>
-      </c>
-      <c r="J25">
-        <v>800</v>
-      </c>
-      <c r="K25">
-        <v>800</v>
-      </c>
-      <c r="L25">
-        <v>700</v>
-      </c>
-      <c r="M25">
-        <v>600</v>
-      </c>
-      <c r="N25">
-        <v>600</v>
-      </c>
-      <c r="O25">
-        <v>500</v>
-      </c>
-      <c r="P25" s="122">
-        <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="Q25">
-        <v>500</v>
-      </c>
-      <c r="R25">
-        <v>400</v>
-      </c>
-      <c r="S25">
-        <v>300</v>
-      </c>
-      <c r="T25">
-        <v>200</v>
-      </c>
-      <c r="U25">
-        <v>200</v>
-      </c>
-      <c r="V25">
-        <v>200</v>
-      </c>
-      <c r="W25">
-        <v>100</v>
-      </c>
-      <c r="X25">
-        <v>100</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="39">
-        <v>2600</v>
-      </c>
-      <c r="AB25" s="44">
-        <f t="shared" si="3"/>
-        <v>2900</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="4"/>
-        <v>0.19230769230769232</v>
-      </c>
-      <c r="AD25">
-        <f t="shared" si="5"/>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="AE25">
-        <f t="shared" si="6"/>
-        <v>0.65384615384615385</v>
-      </c>
-      <c r="AF25">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AG25">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AH25">
-        <f>6000/D25</f>
-        <v>3.5294117647058822</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" s="55" customFormat="1">
-      <c r="A26" s="55">
-        <v>201603</v>
-      </c>
-      <c r="B26" s="55">
-        <v>2500</v>
-      </c>
-      <c r="C26" s="122">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="D26" s="55">
-        <v>1600</v>
-      </c>
-      <c r="E26" s="122">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="F26" s="55">
-        <v>1000</v>
-      </c>
-      <c r="G26" s="55">
-        <v>1000</v>
-      </c>
-      <c r="H26" s="55">
-        <v>1000</v>
-      </c>
-      <c r="I26" s="55">
-        <v>1000</v>
-      </c>
-      <c r="J26" s="55">
-        <v>900</v>
-      </c>
-      <c r="K26" s="55">
-        <v>900</v>
-      </c>
-      <c r="L26" s="55">
-        <v>900</v>
-      </c>
-      <c r="M26" s="55">
-        <v>800</v>
-      </c>
-      <c r="N26" s="55">
-        <v>800</v>
-      </c>
-      <c r="O26" s="55">
-        <v>700</v>
-      </c>
-      <c r="P26" s="122">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="Q26" s="55">
-        <v>700</v>
-      </c>
-      <c r="R26" s="55">
-        <v>600</v>
-      </c>
-      <c r="S26" s="55">
-        <v>500</v>
-      </c>
-      <c r="T26" s="55">
-        <v>400</v>
-      </c>
-      <c r="U26" s="55">
-        <v>300</v>
-      </c>
-      <c r="V26" s="55">
-        <v>200</v>
-      </c>
-      <c r="W26" s="55">
-        <v>200</v>
-      </c>
-      <c r="X26" s="55">
-        <v>200</v>
-      </c>
-      <c r="Y26" s="55">
-        <v>100</v>
-      </c>
-      <c r="Z26" s="55">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="120">
-        <v>2500</v>
-      </c>
-      <c r="AB26" s="121">
-        <f t="shared" si="3"/>
-        <v>2800</v>
-      </c>
-      <c r="AC26" s="55">
-        <f t="shared" si="4"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AD26" s="55">
-        <f t="shared" si="5"/>
-        <v>0.4</v>
-      </c>
-      <c r="AE26" s="55">
-        <f t="shared" si="6"/>
-        <v>0.64</v>
-      </c>
-      <c r="AF26" s="55">
-        <f t="shared" si="7"/>
-        <v>1.4285714285714286</v>
-      </c>
-      <c r="AG26" s="55">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AH26" s="55">
-        <f>6000/D26</f>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34">
-      <c r="A27">
-        <v>201604</v>
-      </c>
-      <c r="B27">
-        <v>2300</v>
-      </c>
-      <c r="C27" s="122">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="D27">
-        <v>1400</v>
-      </c>
-      <c r="E27" s="122">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="F27">
-        <v>1100</v>
-      </c>
-      <c r="G27">
-        <v>1000</v>
-      </c>
-      <c r="H27">
-        <v>1000</v>
-      </c>
-      <c r="I27">
-        <v>900</v>
-      </c>
-      <c r="J27">
-        <v>900</v>
-      </c>
-      <c r="K27">
-        <v>900</v>
-      </c>
-      <c r="L27">
-        <v>800</v>
-      </c>
-      <c r="M27">
-        <v>800</v>
-      </c>
-      <c r="N27">
-        <v>700</v>
-      </c>
-      <c r="O27">
-        <v>700</v>
-      </c>
-      <c r="P27" s="122">
-        <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="Q27">
-        <v>700</v>
-      </c>
-      <c r="R27">
-        <v>700</v>
-      </c>
-      <c r="S27">
-        <v>600</v>
-      </c>
-      <c r="T27">
-        <v>600</v>
-      </c>
-      <c r="U27">
-        <v>600</v>
-      </c>
-      <c r="V27">
-        <v>500</v>
-      </c>
-      <c r="W27">
-        <v>500</v>
-      </c>
-      <c r="X27">
-        <v>400</v>
-      </c>
-      <c r="Y27">
-        <v>300</v>
-      </c>
-      <c r="Z27">
-        <v>100</v>
-      </c>
-      <c r="AA27">
-        <f>B27</f>
-        <v>2300</v>
-      </c>
-      <c r="AB27" s="121">
-        <f t="shared" si="3"/>
-        <v>2600</v>
-      </c>
-      <c r="AC27" s="55">
-        <f t="shared" si="4"/>
-        <v>0.30434782608695654</v>
-      </c>
-      <c r="AD27" s="55">
-        <f t="shared" si="5"/>
-        <v>0.47826086956521741</v>
-      </c>
-      <c r="AE27" s="55">
-        <f t="shared" si="6"/>
-        <v>0.60869565217391308</v>
-      </c>
-      <c r="AF27" s="55">
-        <f t="shared" si="7"/>
-        <v>1.4285714285714286</v>
-      </c>
-      <c r="AG27" s="55">
-        <f t="shared" si="8"/>
-        <v>1.8181818181818181</v>
-      </c>
-      <c r="AH27" s="55">
-        <f>6000/D27</f>
-        <v>4.2857142857142856</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34">
-      <c r="A28">
-        <v>201605</v>
-      </c>
-      <c r="B28">
-        <v>2200</v>
-      </c>
-      <c r="C28" s="122">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="D28">
-        <v>1400</v>
-      </c>
-      <c r="E28" s="122">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="F28">
-        <v>1000</v>
-      </c>
-      <c r="G28">
-        <v>1000</v>
-      </c>
-      <c r="H28">
-        <v>1000</v>
-      </c>
-      <c r="I28">
-        <v>1000</v>
-      </c>
-      <c r="J28">
-        <v>1000</v>
-      </c>
-      <c r="K28">
-        <v>900</v>
-      </c>
-      <c r="L28">
-        <v>900</v>
-      </c>
-      <c r="M28">
-        <v>800</v>
-      </c>
-      <c r="N28">
-        <v>700</v>
-      </c>
-      <c r="O28">
-        <v>700</v>
-      </c>
-      <c r="P28" s="122">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="Q28">
-        <v>700</v>
-      </c>
-      <c r="R28">
-        <v>600</v>
-      </c>
-      <c r="S28">
-        <v>600</v>
-      </c>
-      <c r="T28">
-        <v>600</v>
-      </c>
-      <c r="U28">
-        <v>500</v>
-      </c>
-      <c r="V28">
-        <v>500</v>
-      </c>
-      <c r="W28">
-        <v>300</v>
-      </c>
-      <c r="X28">
-        <v>300</v>
-      </c>
-      <c r="Y28">
-        <v>200</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" ref="AA28:AA30" si="9">B28</f>
-        <v>2200</v>
-      </c>
-      <c r="AB28" s="121">
-        <f t="shared" si="3"/>
-        <v>2500</v>
-      </c>
-      <c r="AC28" s="55">
-        <f t="shared" si="4"/>
-        <v>0.31818181818181818</v>
-      </c>
-      <c r="AD28" s="55">
-        <f t="shared" si="5"/>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="AE28" s="55">
-        <f t="shared" si="6"/>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="AF28" s="55">
-        <f t="shared" si="7"/>
-        <v>1.4285714285714286</v>
-      </c>
-      <c r="AG28" s="55">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AH28" s="55">
-        <f>6000/D28</f>
-        <v>4.2857142857142856</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34">
-      <c r="A29">
-        <v>201606</v>
-      </c>
-      <c r="B29">
-        <v>1600</v>
-      </c>
-      <c r="C29" s="122">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="D29">
-        <v>900</v>
-      </c>
-      <c r="E29" s="122">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="F29">
-        <v>400</v>
-      </c>
-      <c r="G29">
-        <v>400</v>
-      </c>
-      <c r="H29">
-        <v>400</v>
-      </c>
-      <c r="I29">
-        <v>400</v>
-      </c>
-      <c r="J29">
-        <v>400</v>
-      </c>
-      <c r="K29">
-        <v>300</v>
-      </c>
-      <c r="L29">
-        <v>300</v>
-      </c>
-      <c r="M29">
-        <v>300</v>
-      </c>
-      <c r="N29">
-        <v>300</v>
-      </c>
-      <c r="O29">
-        <v>300</v>
-      </c>
-      <c r="P29" s="122">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="Q29">
-        <v>300</v>
-      </c>
-      <c r="R29">
-        <v>300</v>
-      </c>
-      <c r="S29">
-        <v>300</v>
-      </c>
-      <c r="T29">
-        <v>300</v>
-      </c>
-      <c r="U29">
-        <v>200</v>
-      </c>
-      <c r="V29">
-        <v>200</v>
-      </c>
-      <c r="W29">
-        <v>200</v>
-      </c>
-      <c r="X29">
-        <v>100</v>
-      </c>
-      <c r="Y29">
-        <v>100</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <f t="shared" si="9"/>
-        <v>1600</v>
-      </c>
-      <c r="AB29" s="121">
-        <f t="shared" si="3"/>
-        <v>1900</v>
-      </c>
-      <c r="AC29" s="55">
-        <f t="shared" si="4"/>
-        <v>0.1875</v>
-      </c>
-      <c r="AD29" s="55">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="AE29" s="55">
-        <f t="shared" si="6"/>
-        <v>0.5625</v>
-      </c>
-      <c r="AF29" s="55">
-        <f t="shared" si="7"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AG29" s="55">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="AH29" s="55">
-        <f>6000/D29</f>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34">
-      <c r="A30">
-        <v>201607</v>
-      </c>
-      <c r="B30">
-        <v>2400</v>
-      </c>
-      <c r="C30" s="122">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="D30">
-        <v>1800</v>
-      </c>
-      <c r="E30" s="122">
-        <f t="shared" si="1"/>
-        <v>700</v>
-      </c>
-      <c r="F30">
-        <v>1100</v>
-      </c>
       <c r="G30">
         <v>1100</v>
       </c>
@@ -79156,10 +79531,10 @@
         <v>1100</v>
       </c>
       <c r="I30">
+        <v>1100</v>
+      </c>
+      <c r="J30">
         <v>1000</v>
-      </c>
-      <c r="J30">
-        <v>900</v>
       </c>
       <c r="K30">
         <v>900</v>
@@ -79168,84 +79543,597 @@
         <v>900</v>
       </c>
       <c r="M30">
+        <v>900</v>
+      </c>
+      <c r="N30">
         <v>800</v>
-      </c>
-      <c r="N30">
-        <v>700</v>
       </c>
       <c r="O30">
         <v>700</v>
       </c>
-      <c r="P30" s="122">
-        <f t="shared" si="2"/>
+      <c r="P30">
+        <v>700</v>
+      </c>
+      <c r="Q30" s="122">
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="Q30">
-        <v>600</v>
-      </c>
-      <c r="R30">
-        <v>600</v>
+      <c r="R30" s="122">
+        <f t="shared" si="5"/>
+        <v>1800</v>
       </c>
       <c r="S30">
         <v>600</v>
       </c>
       <c r="T30">
+        <v>600</v>
+      </c>
+      <c r="U30">
+        <v>600</v>
+      </c>
+      <c r="V30">
         <v>500</v>
-      </c>
-      <c r="U30">
-        <v>300</v>
-      </c>
-      <c r="V30">
-        <v>300</v>
       </c>
       <c r="W30">
         <v>300</v>
       </c>
       <c r="X30">
+        <v>300</v>
+      </c>
+      <c r="Y30">
+        <v>300</v>
+      </c>
+      <c r="Z30">
         <v>200</v>
       </c>
-      <c r="Y30">
+      <c r="AA30">
         <v>100</v>
       </c>
-      <c r="Z30">
+      <c r="AB30">
         <v>0</v>
       </c>
-      <c r="AA30">
+      <c r="AC30">
+        <f t="shared" si="12"/>
+        <v>2400</v>
+      </c>
+      <c r="AD30" s="121">
+        <f t="shared" si="6"/>
+        <v>2700</v>
+      </c>
+      <c r="AE30" s="55">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="AF30" s="55">
+        <f t="shared" si="8"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AG30" s="55">
         <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="AH30" s="55">
+        <f t="shared" si="10"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AI30" s="55">
+        <f t="shared" si="11"/>
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="AJ30" s="55">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36">
+      <c r="A35" t="s">
+        <v>739</v>
+      </c>
+      <c r="B35">
+        <f>AVERAGE(B26:B30)</f>
+        <v>2200</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:AJ35" si="13">AVERAGE(C26:C30)</f>
+        <v>780</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="13"/>
+        <v>1420</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="13"/>
+        <v>500</v>
+      </c>
+      <c r="F35" s="123">
+        <f t="shared" si="13"/>
+        <v>1280</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="13"/>
+        <v>920</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="13"/>
+        <v>900</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="13"/>
+        <v>900</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="13"/>
+        <v>860</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="13"/>
+        <v>820</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="13"/>
+        <v>780</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="13"/>
+        <v>760</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="13"/>
+        <v>700</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="13"/>
+        <v>640</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="13"/>
+        <v>620</v>
+      </c>
+      <c r="Q35" s="123">
+        <f t="shared" si="13"/>
+        <v>320</v>
+      </c>
+      <c r="R35" s="123">
+        <f t="shared" si="13"/>
+        <v>1600</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="13"/>
+        <v>600</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="13"/>
+        <v>560</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="13"/>
+        <v>520</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="13"/>
+        <v>480</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="13"/>
+        <v>380</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="13"/>
+        <v>340</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="13"/>
+        <v>240</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="13"/>
+        <v>160</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="13"/>
+        <v>2200</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="13"/>
+        <v>2500</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="13"/>
+        <v>0.26800592885375496</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="13"/>
+        <v>0.40822793148880104</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="13"/>
+        <v>0.63951185770750985</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="13"/>
+        <v>1.857142857142857</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="13"/>
+        <v>2.5272727272727273</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="13"/>
+        <v>4.4642857142857135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36">
+      <c r="A37" t="s">
+        <v>740</v>
+      </c>
+      <c r="B37">
+        <f>AVERAGE(B26,B27,B28,B30)</f>
+        <v>2350</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:AJ37" si="14">AVERAGE(C26,C27,C28,C30)</f>
+        <v>800</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="14"/>
+        <v>1550</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="F37" s="123">
+        <f t="shared" si="14"/>
+        <v>1300</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="14"/>
+        <v>1050</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="14"/>
+        <v>1025</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="14"/>
+        <v>1025</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="14"/>
+        <v>975</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="14"/>
+        <v>925</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="14"/>
+        <v>900</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="14"/>
+        <v>875</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="14"/>
+        <v>800</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="14"/>
+        <v>725</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="14"/>
+        <v>700</v>
+      </c>
+      <c r="Q37" s="123">
+        <f t="shared" si="14"/>
+        <v>375</v>
+      </c>
+      <c r="R37" s="123">
+        <f t="shared" si="14"/>
+        <v>1675</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="14"/>
+        <v>675</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="14"/>
+        <v>625</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="14"/>
+        <v>575</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="14"/>
+        <v>525</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="14"/>
+        <v>425</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="14"/>
+        <v>375</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="14"/>
+        <v>325</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="14"/>
+        <v>275</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="14"/>
+        <v>175</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="14"/>
+        <v>2350</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="14"/>
+        <v>2650</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="14"/>
+        <v>0.28813241106719367</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="14"/>
+        <v>0.44778491436100132</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="14"/>
+        <v>0.65876482213438736</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="14"/>
+        <v>1.4880952380952381</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="14"/>
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="14"/>
+        <v>3.9136904761904758</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <v>6</v>
+      </c>
+      <c r="N38">
+        <v>7</v>
+      </c>
+      <c r="O38">
+        <v>8</v>
+      </c>
+      <c r="P38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" s="123" customFormat="1">
+      <c r="A39" s="123" t="s">
+        <v>746</v>
+      </c>
+      <c r="D39" s="123">
+        <v>1600</v>
+      </c>
+      <c r="G39" s="123">
+        <v>1100</v>
+      </c>
+      <c r="H39" s="123">
+        <v>1100</v>
+      </c>
+      <c r="I39" s="123">
+        <v>1100</v>
+      </c>
+      <c r="J39" s="123">
+        <v>1000</v>
+      </c>
+      <c r="K39" s="123">
+        <v>1000</v>
+      </c>
+      <c r="L39" s="123">
+        <v>1000</v>
+      </c>
+      <c r="M39" s="123">
+        <v>900</v>
+      </c>
+      <c r="N39" s="123">
+        <v>900</v>
+      </c>
+      <c r="O39" s="123">
+        <v>800</v>
+      </c>
+      <c r="P39" s="123">
+        <v>800</v>
+      </c>
+      <c r="S39" s="123">
+        <v>600</v>
+      </c>
+      <c r="T39" s="123">
+        <v>600</v>
+      </c>
+      <c r="U39" s="123">
+        <v>600</v>
+      </c>
+      <c r="V39" s="123">
+        <v>500</v>
+      </c>
+      <c r="W39" s="123">
+        <v>500</v>
+      </c>
+      <c r="X39" s="123">
+        <v>400</v>
+      </c>
+      <c r="Y39" s="123">
+        <v>300</v>
+      </c>
+      <c r="Z39" s="123">
+        <v>300</v>
+      </c>
+      <c r="AA39" s="123">
+        <v>300</v>
+      </c>
+      <c r="AB39" s="123">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" s="123" customFormat="1">
+      <c r="A41" s="123" t="s">
+        <v>745</v>
+      </c>
+      <c r="B41" s="123">
+        <v>1700</v>
+      </c>
+      <c r="C41" s="123" t="s">
+        <v>743</v>
+      </c>
+      <c r="D41" s="123">
+        <v>2600</v>
+      </c>
+      <c r="F41" s="123">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36">
+      <c r="AB42" s="123" t="s">
+        <v>744</v>
+      </c>
+      <c r="AC42" s="123">
+        <v>2300</v>
+      </c>
+      <c r="AD42" s="123">
         <v>2400</v>
       </c>
-      <c r="AB30" s="121">
-        <f t="shared" si="3"/>
+      <c r="AE42" s="123">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36">
+      <c r="D48" s="123">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="129">
+        <v>1700</v>
+      </c>
+      <c r="F48" s="127">
+        <v>1800</v>
+      </c>
+      <c r="G48" s="128">
+        <v>1900</v>
+      </c>
+      <c r="H48" s="123">
+        <v>2000</v>
+      </c>
+      <c r="I48" s="129">
+        <v>2100</v>
+      </c>
+      <c r="J48" s="127">
+        <v>2200</v>
+      </c>
+      <c r="K48" s="128">
+        <v>2300</v>
+      </c>
+      <c r="L48" s="123">
+        <v>2400</v>
+      </c>
+      <c r="M48" s="129">
+        <v>2500</v>
+      </c>
+      <c r="N48" s="127">
+        <v>2600</v>
+      </c>
+      <c r="O48" s="128">
         <v>2700</v>
       </c>
-      <c r="AC30" s="55">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="AD30" s="55">
-        <f t="shared" si="5"/>
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="AE30" s="55">
-        <f t="shared" si="6"/>
-        <v>0.75</v>
-      </c>
-      <c r="AF30" s="55">
-        <f t="shared" si="7"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AG30" s="55">
-        <f t="shared" si="8"/>
-        <v>1.8181818181818181</v>
-      </c>
-      <c r="AH30" s="55">
-        <f>6000/D30</f>
-        <v>3.3333333333333335</v>
+      <c r="P48" s="123">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7">
+      <c r="D50" s="123">
+        <v>1600</v>
+      </c>
+      <c r="E50" s="129">
+        <v>1700</v>
+      </c>
+      <c r="F50" s="127">
+        <v>1800</v>
+      </c>
+      <c r="G50" s="128">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7">
+      <c r="D51" s="123">
+        <v>2000</v>
+      </c>
+      <c r="E51" s="129">
+        <v>2100</v>
+      </c>
+      <c r="F51" s="127">
+        <v>2200</v>
+      </c>
+      <c r="G51" s="128">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7">
+      <c r="D52" s="123">
+        <v>2400</v>
+      </c>
+      <c r="E52" s="129">
+        <v>2500</v>
+      </c>
+      <c r="F52" s="127">
+        <v>2600</v>
+      </c>
+      <c r="G52" s="128">
+        <v>2700</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AJ1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -79707,4 +80595,513 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="14" max="14" width="9" style="132"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="132">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="123">
+        <v>1600</v>
+      </c>
+      <c r="C2" s="129">
+        <v>1700</v>
+      </c>
+      <c r="D2" s="127">
+        <v>1800</v>
+      </c>
+      <c r="E2" s="128">
+        <v>1900</v>
+      </c>
+      <c r="F2" s="123">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="129">
+        <v>2100</v>
+      </c>
+      <c r="H2" s="127">
+        <v>2200</v>
+      </c>
+      <c r="I2" s="128">
+        <v>2300</v>
+      </c>
+      <c r="J2" s="123">
+        <v>2400</v>
+      </c>
+      <c r="K2" s="129">
+        <v>2500</v>
+      </c>
+      <c r="L2" s="127">
+        <v>2600</v>
+      </c>
+      <c r="M2" s="128">
+        <v>2700</v>
+      </c>
+      <c r="N2" s="133">
+        <v>2800</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="123">
+        <v>1700</v>
+      </c>
+      <c r="C3" s="129">
+        <v>1800</v>
+      </c>
+      <c r="D3" s="127">
+        <v>1900</v>
+      </c>
+      <c r="E3" s="128">
+        <v>2000</v>
+      </c>
+      <c r="F3" s="123">
+        <v>2100</v>
+      </c>
+      <c r="G3" s="129">
+        <v>2200</v>
+      </c>
+      <c r="H3" s="127">
+        <v>2300</v>
+      </c>
+      <c r="I3" s="128">
+        <v>2400</v>
+      </c>
+      <c r="J3" s="123">
+        <v>2500</v>
+      </c>
+      <c r="K3" s="129">
+        <v>2600</v>
+      </c>
+      <c r="L3" s="127">
+        <v>2700</v>
+      </c>
+      <c r="M3" s="128">
+        <v>2800</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="123">
+        <v>1800</v>
+      </c>
+      <c r="C4" s="129">
+        <v>1900</v>
+      </c>
+      <c r="D4" s="127">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="128">
+        <v>2100</v>
+      </c>
+      <c r="F4" s="123">
+        <v>2200</v>
+      </c>
+      <c r="G4" s="129">
+        <v>2300</v>
+      </c>
+      <c r="H4" s="127">
+        <v>2400</v>
+      </c>
+      <c r="I4" s="128">
+        <v>2500</v>
+      </c>
+      <c r="J4" s="123">
+        <v>2600</v>
+      </c>
+      <c r="K4" s="129">
+        <v>2700</v>
+      </c>
+      <c r="L4" s="127">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="123">
+        <v>1900</v>
+      </c>
+      <c r="C5" s="129">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="127">
+        <v>2100</v>
+      </c>
+      <c r="E5" s="128">
+        <v>2200</v>
+      </c>
+      <c r="F5" s="123">
+        <v>2300</v>
+      </c>
+      <c r="G5" s="129">
+        <v>2400</v>
+      </c>
+      <c r="H5" s="127">
+        <v>2500</v>
+      </c>
+      <c r="I5" s="128">
+        <v>2600</v>
+      </c>
+      <c r="J5" s="123">
+        <v>2700</v>
+      </c>
+      <c r="K5" s="129">
+        <v>2800</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="123">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="129">
+        <v>2100</v>
+      </c>
+      <c r="D6" s="127">
+        <v>2200</v>
+      </c>
+      <c r="E6" s="128">
+        <v>2300</v>
+      </c>
+      <c r="F6" s="123">
+        <v>2400</v>
+      </c>
+      <c r="G6" s="129">
+        <v>2500</v>
+      </c>
+      <c r="H6" s="127">
+        <v>2600</v>
+      </c>
+      <c r="I6" s="128">
+        <v>2700</v>
+      </c>
+      <c r="J6" s="123">
+        <v>2800</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="123">
+        <v>2100</v>
+      </c>
+      <c r="C7" s="129">
+        <v>2200</v>
+      </c>
+      <c r="D7" s="127">
+        <v>2300</v>
+      </c>
+      <c r="E7" s="128">
+        <v>2400</v>
+      </c>
+      <c r="F7" s="123">
+        <v>2500</v>
+      </c>
+      <c r="G7" s="129">
+        <v>2600</v>
+      </c>
+      <c r="H7" s="127">
+        <v>2700</v>
+      </c>
+      <c r="I7" s="128">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="123">
+        <v>2200</v>
+      </c>
+      <c r="C8" s="129">
+        <v>2300</v>
+      </c>
+      <c r="D8" s="127">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="128">
+        <v>2500</v>
+      </c>
+      <c r="F8" s="123">
+        <v>2600</v>
+      </c>
+      <c r="G8" s="129">
+        <v>2700</v>
+      </c>
+      <c r="H8" s="127">
+        <v>2800</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="123">
+        <v>2300</v>
+      </c>
+      <c r="C9" s="129">
+        <v>2400</v>
+      </c>
+      <c r="D9" s="127">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="128">
+        <v>2600</v>
+      </c>
+      <c r="F9" s="123">
+        <v>2700</v>
+      </c>
+      <c r="G9" s="129">
+        <v>2800</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="123">
+        <v>2400</v>
+      </c>
+      <c r="C10" s="129">
+        <v>2500</v>
+      </c>
+      <c r="D10" s="127">
+        <v>2600</v>
+      </c>
+      <c r="E10" s="128">
+        <v>2700</v>
+      </c>
+      <c r="F10" s="123">
+        <v>2800</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="123">
+        <v>2500</v>
+      </c>
+      <c r="C11" s="129">
+        <v>2600</v>
+      </c>
+      <c r="D11" s="127">
+        <v>2700</v>
+      </c>
+      <c r="E11" s="128">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="123">
+        <v>2600</v>
+      </c>
+      <c r="C12" s="129">
+        <v>2700</v>
+      </c>
+      <c r="D12" s="127">
+        <v>2800</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="123">
+        <v>2700</v>
+      </c>
+      <c r="C13" s="129">
+        <v>2800</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="130" customFormat="1">
+      <c r="A14" s="130">
+        <v>13</v>
+      </c>
+      <c r="B14" s="131">
+        <v>2800</v>
+      </c>
+      <c r="N14" s="134"/>
+    </row>
+    <row r="31" spans="17:29">
+      <c r="Q31" s="123">
+        <v>1600</v>
+      </c>
+      <c r="R31" s="129">
+        <v>1700</v>
+      </c>
+      <c r="S31" s="127">
+        <v>1800</v>
+      </c>
+      <c r="T31" s="128">
+        <v>1900</v>
+      </c>
+      <c r="U31" s="123">
+        <v>2000</v>
+      </c>
+      <c r="V31" s="129">
+        <v>2100</v>
+      </c>
+      <c r="W31" s="127">
+        <v>2200</v>
+      </c>
+      <c r="X31" s="128">
+        <v>2300</v>
+      </c>
+      <c r="Y31" s="123">
+        <v>2400</v>
+      </c>
+      <c r="Z31" s="129">
+        <v>2500</v>
+      </c>
+      <c r="AA31" s="127">
+        <v>2600</v>
+      </c>
+      <c r="AB31" s="128">
+        <v>2700</v>
+      </c>
+      <c r="AC31" s="123">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="33" spans="17:20">
+      <c r="Q33" s="123">
+        <v>1600</v>
+      </c>
+      <c r="R33" s="129">
+        <v>1700</v>
+      </c>
+      <c r="S33" s="127">
+        <v>1800</v>
+      </c>
+      <c r="T33" s="128">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="34" spans="17:20">
+      <c r="Q34" s="123">
+        <v>2000</v>
+      </c>
+      <c r="R34" s="129">
+        <v>2100</v>
+      </c>
+      <c r="S34" s="127">
+        <v>2200</v>
+      </c>
+      <c r="T34" s="128">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="35" spans="17:20">
+      <c r="Q35" s="123">
+        <v>2400</v>
+      </c>
+      <c r="R35" s="129">
+        <v>2500</v>
+      </c>
+      <c r="S35" s="127">
+        <v>2600</v>
+      </c>
+      <c r="T35" s="128">
+        <v>2700</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/jpp60.xlsx
+++ b/jpp60.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="480" windowWidth="19155" windowHeight="7260" activeTab="2"/>
+    <workbookView xWindow="840" yWindow="480" windowWidth="19155" windowHeight="7260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="hq" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">hq!$A$1:$E$4160</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">priceChgAna!$A$1:$AJ$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">priceChgAna!$A$1:$AL$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4991" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4993" uniqueCount="751">
   <si>
     <t>lprice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2361,6 +2361,14 @@
     <t>11:30:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>bs90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2741,7 +2749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3146,9 +3154,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -86406,8 +86411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -87733,7 +87738,7 @@
         <v>0.47293981481481479</v>
       </c>
       <c r="J27" s="103">
-        <v>0.52079861111111114</v>
+        <v>0.47913194444444446</v>
       </c>
       <c r="K27" s="104" t="s">
         <v>144</v>
@@ -87967,7 +87972,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="14.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="97">
         <v>201609</v>
       </c>
@@ -88000,7 +88005,7 @@
       <c r="J32" s="112">
         <v>0.47912037037037036</v>
       </c>
-      <c r="K32" s="140">
+      <c r="K32" s="137">
         <v>0.47915509259259265</v>
       </c>
       <c r="L32" s="139">
@@ -88158,21 +88163,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ54"/>
+  <dimension ref="A1:AL54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="19" max="19" width="8.875" customWidth="1"/>
-    <col min="29" max="30" width="12" customWidth="1"/>
+    <col min="21" max="21" width="8.875" customWidth="1"/>
+    <col min="31" max="32" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:38">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -88180,135 +88185,135 @@
         <v>153</v>
       </c>
       <c r="C1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E1" t="s">
         <v>152</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>737</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>741</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>93</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>94</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>95</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>96</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>97</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>98</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>99</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>100</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>101</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>102</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>738</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>742</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>103</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>104</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>105</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>106</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>107</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>108</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>109</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>110</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>111</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>112</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>123</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>124</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>113</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>114</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>116</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>117</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>128</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:38">
       <c r="A2">
         <v>201401</v>
       </c>
       <c r="B2">
         <v>900</v>
       </c>
-      <c r="C2" s="121">
-        <f>B2-D2</f>
+      <c r="E2" s="121">
+        <f t="shared" ref="E2:E31" si="0">B2-F2</f>
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>900</v>
       </c>
-      <c r="E2" s="121">
-        <f>D2-G2</f>
+      <c r="G2" s="121">
+        <f>F2-I2</f>
         <v>300</v>
       </c>
-      <c r="F2" s="121">
-        <f>C2+E2</f>
+      <c r="H2" s="121">
+        <f>E2+G2</f>
         <v>300</v>
-      </c>
-      <c r="G2">
-        <v>600</v>
-      </c>
-      <c r="H2">
-        <v>600</v>
       </c>
       <c r="I2">
         <v>600</v>
@@ -88326,27 +88331,27 @@
         <v>600</v>
       </c>
       <c r="N2">
+        <v>600</v>
+      </c>
+      <c r="O2">
+        <v>600</v>
+      </c>
+      <c r="P2">
         <v>500</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>400</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>300</v>
       </c>
-      <c r="Q2" s="121">
-        <f>G2-S2</f>
+      <c r="S2" s="121">
+        <f>I2-U2</f>
         <v>300</v>
       </c>
-      <c r="R2" s="121">
-        <f>F2+Q2</f>
+      <c r="T2" s="121">
+        <f>H2+S2</f>
         <v>600</v>
-      </c>
-      <c r="S2">
-        <v>300</v>
-      </c>
-      <c r="T2">
-        <v>300</v>
       </c>
       <c r="U2">
         <v>300</v>
@@ -88364,72 +88369,72 @@
         <v>300</v>
       </c>
       <c r="Z2">
+        <v>300</v>
+      </c>
+      <c r="AA2">
+        <v>300</v>
+      </c>
+      <c r="AB2">
         <v>100</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>0</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>0</v>
       </c>
-      <c r="AC2" s="39">
+      <c r="AE2" s="39">
         <v>900</v>
       </c>
-      <c r="AD2" s="44">
-        <f>AC2+300</f>
+      <c r="AF2" s="44">
+        <f>AE2+300</f>
         <v>1200</v>
       </c>
-      <c r="AE2">
-        <f>S2/AC2</f>
+      <c r="AG2">
+        <f>U2/AE2</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AF2">
-        <f>G2/AC2</f>
+      <c r="AH2">
+        <f>I2/AE2</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AG2">
-        <f>D2/AC2</f>
+      <c r="AI2">
+        <f>F2/AE2</f>
         <v>1</v>
       </c>
-      <c r="AH2">
-        <f>1000/S2</f>
+      <c r="AJ2">
+        <f>1000/U2</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AI2">
-        <f>2000/G2</f>
+      <c r="AK2">
+        <f>2000/I2</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AJ2">
-        <f t="shared" ref="AJ2:AJ30" si="0">6000/D2</f>
+      <c r="AL2">
+        <f t="shared" ref="AL2:AL30" si="1">6000/F2</f>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:38">
       <c r="A3">
         <v>201402</v>
       </c>
       <c r="B3">
         <v>600</v>
       </c>
-      <c r="C3" s="121">
-        <f t="shared" ref="C3:C30" si="1">B3-D3</f>
+      <c r="E3" s="121">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>600</v>
       </c>
-      <c r="E3" s="121">
-        <f t="shared" ref="E3:E30" si="2">D3-G3</f>
+      <c r="G3" s="121">
+        <f t="shared" ref="G3:G30" si="2">F3-I3</f>
         <v>300</v>
       </c>
-      <c r="F3" s="121">
-        <f t="shared" ref="F3:F30" si="3">C3+E3</f>
-        <v>300</v>
-      </c>
-      <c r="G3">
-        <v>300</v>
-      </c>
-      <c r="H3">
+      <c r="H3" s="121">
+        <f t="shared" ref="H3:H30" si="3">E3+G3</f>
         <v>300</v>
       </c>
       <c r="I3">
@@ -88456,31 +88461,31 @@
       <c r="P3">
         <v>300</v>
       </c>
-      <c r="Q3" s="121">
-        <f t="shared" ref="Q3:Q30" si="4">G3-S3</f>
+      <c r="Q3">
+        <v>300</v>
+      </c>
+      <c r="R3">
+        <v>300</v>
+      </c>
+      <c r="S3" s="121">
+        <f t="shared" ref="S3:S30" si="4">I3-U3</f>
         <v>0</v>
       </c>
-      <c r="R3" s="121">
-        <f t="shared" ref="R3:R30" si="5">F3+Q3</f>
-        <v>300</v>
-      </c>
-      <c r="S3">
-        <v>300</v>
-      </c>
-      <c r="T3">
+      <c r="T3" s="121">
+        <f t="shared" ref="T3:T30" si="5">H3+S3</f>
         <v>300</v>
       </c>
       <c r="U3">
         <v>300</v>
       </c>
       <c r="V3">
+        <v>300</v>
+      </c>
+      <c r="W3">
+        <v>300</v>
+      </c>
+      <c r="X3">
         <v>100</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -88494,66 +88499,66 @@
       <c r="AB3">
         <v>0</v>
       </c>
-      <c r="AC3" s="39">
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="39">
         <v>600</v>
       </c>
-      <c r="AD3" s="44">
-        <f t="shared" ref="AD3:AD30" si="6">AC3+300</f>
+      <c r="AF3" s="44">
+        <f t="shared" ref="AF3:AF30" si="6">AE3+300</f>
         <v>900</v>
       </c>
-      <c r="AE3">
-        <f t="shared" ref="AE3:AE30" si="7">S3/AC3</f>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG30" si="7">U3/AE3</f>
         <v>0.5</v>
       </c>
-      <c r="AF3">
-        <f t="shared" ref="AF3:AF30" si="8">G3/AC3</f>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH30" si="8">I3/AE3</f>
         <v>0.5</v>
       </c>
-      <c r="AG3">
-        <f t="shared" ref="AG3:AG30" si="9">D3/AC3</f>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI30" si="9">F3/AE3</f>
         <v>1</v>
       </c>
-      <c r="AH3">
-        <f t="shared" ref="AH3:AH30" si="10">1000/S3</f>
+      <c r="AJ3">
+        <f t="shared" ref="AJ3:AJ30" si="10">1000/U3</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AI3">
-        <f t="shared" ref="AI3:AI30" si="11">2000/G3</f>
+      <c r="AK3">
+        <f t="shared" ref="AK3:AK30" si="11">2000/I3</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="AJ3">
-        <f t="shared" si="0"/>
+      <c r="AL3">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:38">
       <c r="A4">
         <v>201403</v>
       </c>
       <c r="B4">
         <v>1200</v>
       </c>
-      <c r="C4" s="121">
-        <f t="shared" si="1"/>
+      <c r="E4" s="121">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>900</v>
       </c>
-      <c r="E4" s="121">
+      <c r="G4" s="121">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="F4" s="121">
+      <c r="H4" s="121">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="G4">
-        <v>300</v>
-      </c>
-      <c r="H4">
-        <v>300</v>
-      </c>
       <c r="I4">
         <v>300</v>
       </c>
@@ -88573,33 +88578,33 @@
         <v>300</v>
       </c>
       <c r="O4">
+        <v>300</v>
+      </c>
+      <c r="P4">
+        <v>300</v>
+      </c>
+      <c r="Q4">
         <v>200</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>200</v>
       </c>
-      <c r="Q4" s="121">
+      <c r="S4" s="121">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="R4" s="121">
+      <c r="T4" s="121">
         <f t="shared" si="5"/>
         <v>1100</v>
       </c>
-      <c r="S4">
-        <v>100</v>
-      </c>
-      <c r="T4">
-        <v>100</v>
-      </c>
       <c r="U4">
         <v>100</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -88616,66 +88621,66 @@
       <c r="AB4">
         <v>0</v>
       </c>
-      <c r="AC4" s="39">
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="39">
         <v>1200</v>
       </c>
-      <c r="AD4" s="44">
+      <c r="AF4" s="44">
         <f t="shared" si="6"/>
         <v>1500</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <f t="shared" si="7"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <f t="shared" si="11"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="AJ4">
-        <f t="shared" si="0"/>
+      <c r="AL4">
+        <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:38">
       <c r="A5">
         <v>201404</v>
       </c>
       <c r="B5">
         <v>1400</v>
       </c>
-      <c r="C5" s="121">
-        <f t="shared" si="1"/>
+      <c r="E5" s="121">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>900</v>
       </c>
-      <c r="E5" s="121">
+      <c r="G5" s="121">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="F5" s="121">
+      <c r="H5" s="121">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="G5">
-        <v>500</v>
-      </c>
-      <c r="H5">
-        <v>500</v>
-      </c>
       <c r="I5">
         <v>500</v>
       </c>
@@ -88683,16 +88688,16 @@
         <v>500</v>
       </c>
       <c r="K5">
+        <v>500</v>
+      </c>
+      <c r="L5">
+        <v>500</v>
+      </c>
+      <c r="M5">
         <v>300</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>300</v>
-      </c>
-      <c r="M5">
-        <v>200</v>
-      </c>
-      <c r="N5">
-        <v>200</v>
       </c>
       <c r="O5">
         <v>200</v>
@@ -88700,20 +88705,20 @@
       <c r="P5">
         <v>200</v>
       </c>
-      <c r="Q5" s="121">
+      <c r="Q5">
+        <v>200</v>
+      </c>
+      <c r="R5">
+        <v>200</v>
+      </c>
+      <c r="S5" s="121">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="R5" s="121">
+      <c r="T5" s="121">
         <f t="shared" si="5"/>
         <v>1200</v>
       </c>
-      <c r="S5">
-        <v>200</v>
-      </c>
-      <c r="T5">
-        <v>200</v>
-      </c>
       <c r="U5">
         <v>200</v>
       </c>
@@ -88727,10 +88732,10 @@
         <v>200</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -88738,74 +88743,74 @@
       <c r="AB5">
         <v>0</v>
       </c>
-      <c r="AC5" s="39">
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="39">
         <v>1400</v>
       </c>
-      <c r="AD5" s="44">
+      <c r="AF5" s="44">
         <f t="shared" si="6"/>
         <v>1700</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <f t="shared" si="7"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <f t="shared" si="8"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <f t="shared" si="9"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="AJ5">
-        <f t="shared" si="0"/>
+      <c r="AL5">
+        <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:38">
       <c r="A6">
         <v>201405</v>
       </c>
       <c r="B6">
         <v>1800</v>
       </c>
-      <c r="C6" s="121">
-        <f t="shared" si="1"/>
+      <c r="E6" s="121">
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>1200</v>
       </c>
-      <c r="E6" s="121">
+      <c r="G6" s="121">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="F6" s="121">
+      <c r="H6" s="121">
         <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>600</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>500</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>400</v>
-      </c>
-      <c r="J6">
-        <v>300</v>
-      </c>
-      <c r="K6">
-        <v>300</v>
       </c>
       <c r="L6">
         <v>300</v>
@@ -88820,33 +88825,33 @@
         <v>300</v>
       </c>
       <c r="P6">
+        <v>300</v>
+      </c>
+      <c r="Q6">
+        <v>300</v>
+      </c>
+      <c r="R6">
         <v>200</v>
       </c>
-      <c r="Q6" s="121">
+      <c r="S6" s="121">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="R6" s="121">
+      <c r="T6" s="121">
         <f t="shared" si="5"/>
         <v>1600</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>200</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>200</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>100</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>100</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -88860,66 +88865,66 @@
       <c r="AB6">
         <v>0</v>
       </c>
-      <c r="AC6" s="39">
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="39">
         <v>1800</v>
       </c>
-      <c r="AD6" s="44">
+      <c r="AF6" s="44">
         <f t="shared" si="6"/>
         <v>2100</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <f t="shared" si="7"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <f t="shared" si="11"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AJ6">
-        <f t="shared" si="0"/>
+      <c r="AL6">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:38">
       <c r="A7">
         <v>201406</v>
       </c>
       <c r="B7">
         <v>1200</v>
       </c>
-      <c r="C7" s="121">
-        <f t="shared" si="1"/>
+      <c r="E7" s="121">
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>600</v>
       </c>
-      <c r="E7" s="121">
+      <c r="G7" s="121">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F7" s="121">
+      <c r="H7" s="121">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="G7">
-        <v>300</v>
-      </c>
-      <c r="H7">
-        <v>300</v>
-      </c>
       <c r="I7">
         <v>300</v>
       </c>
@@ -88944,28 +88949,28 @@
       <c r="P7">
         <v>300</v>
       </c>
-      <c r="Q7" s="121">
+      <c r="Q7">
+        <v>300</v>
+      </c>
+      <c r="R7">
+        <v>300</v>
+      </c>
+      <c r="S7" s="121">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="R7" s="121">
+      <c r="T7" s="121">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>200</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>200</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>100</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -88982,66 +88987,66 @@
       <c r="AB7">
         <v>0</v>
       </c>
-      <c r="AC7" s="39">
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="39">
         <v>1200</v>
       </c>
-      <c r="AD7" s="44">
+      <c r="AF7" s="44">
         <f t="shared" si="6"/>
         <v>1500</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <f t="shared" si="11"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="AJ7">
-        <f t="shared" si="0"/>
+      <c r="AL7">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:38">
       <c r="A8">
         <v>201407</v>
       </c>
       <c r="B8">
         <v>2000</v>
       </c>
-      <c r="C8" s="121">
-        <f t="shared" si="1"/>
+      <c r="E8" s="121">
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>1300</v>
       </c>
-      <c r="E8" s="121">
+      <c r="G8" s="121">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="F8" s="121">
+      <c r="H8" s="121">
         <f t="shared" si="3"/>
         <v>1600</v>
       </c>
-      <c r="G8">
-        <v>400</v>
-      </c>
-      <c r="H8">
-        <v>400</v>
-      </c>
       <c r="I8">
         <v>400</v>
       </c>
@@ -89049,10 +89054,10 @@
         <v>400</v>
       </c>
       <c r="K8">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L8">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M8">
         <v>300</v>
@@ -89064,22 +89069,22 @@
         <v>300</v>
       </c>
       <c r="P8">
+        <v>300</v>
+      </c>
+      <c r="Q8">
+        <v>300</v>
+      </c>
+      <c r="R8">
         <v>200</v>
       </c>
-      <c r="Q8" s="121">
+      <c r="S8" s="121">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="R8" s="121">
+      <c r="T8" s="121">
         <f t="shared" si="5"/>
         <v>1800</v>
       </c>
-      <c r="S8">
-        <v>200</v>
-      </c>
-      <c r="T8">
-        <v>200</v>
-      </c>
       <c r="U8">
         <v>200</v>
       </c>
@@ -89090,10 +89095,10 @@
         <v>200</v>
       </c>
       <c r="X8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z8">
         <v>100</v>
@@ -89104,104 +89109,104 @@
       <c r="AB8">
         <v>100</v>
       </c>
-      <c r="AC8" s="39">
+      <c r="AC8">
+        <v>100</v>
+      </c>
+      <c r="AD8">
+        <v>100</v>
+      </c>
+      <c r="AE8" s="39">
         <v>2000</v>
       </c>
-      <c r="AD8" s="44">
+      <c r="AF8" s="44">
         <f t="shared" si="6"/>
         <v>2300</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <f t="shared" si="9"/>
         <v>0.65</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="AJ8">
-        <f t="shared" si="0"/>
+      <c r="AL8">
+        <f t="shared" si="1"/>
         <v>4.615384615384615</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:38">
       <c r="A9">
         <v>201408</v>
       </c>
       <c r="B9">
         <v>1000</v>
       </c>
-      <c r="C9" s="121">
-        <f t="shared" si="1"/>
+      <c r="E9" s="121">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>700</v>
       </c>
-      <c r="E9" s="121">
+      <c r="G9" s="121">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F9" s="121">
+      <c r="H9" s="121">
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="G9">
-        <v>400</v>
-      </c>
-      <c r="H9">
-        <v>400</v>
-      </c>
       <c r="I9">
         <v>400</v>
       </c>
       <c r="J9">
+        <v>400</v>
+      </c>
+      <c r="K9">
+        <v>400</v>
+      </c>
+      <c r="L9">
         <v>300</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>300</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>200</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>200</v>
-      </c>
-      <c r="N9">
-        <v>100</v>
-      </c>
-      <c r="O9">
-        <v>100</v>
       </c>
       <c r="P9">
         <v>100</v>
       </c>
-      <c r="Q9" s="121">
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9">
+        <v>100</v>
+      </c>
+      <c r="S9" s="121">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="R9" s="121">
+      <c r="T9" s="121">
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="S9">
-        <v>100</v>
-      </c>
-      <c r="T9">
-        <v>100</v>
-      </c>
       <c r="U9">
         <v>100</v>
       </c>
@@ -89221,82 +89226,82 @@
         <v>100</v>
       </c>
       <c r="AA9">
+        <v>100</v>
+      </c>
+      <c r="AB9">
+        <v>100</v>
+      </c>
+      <c r="AC9">
         <v>0</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>0</v>
       </c>
-      <c r="AC9" s="39">
+      <c r="AE9" s="39">
         <v>1000</v>
       </c>
-      <c r="AD9" s="44">
+      <c r="AF9" s="44">
         <f t="shared" si="6"/>
         <v>1300</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="AJ9">
-        <f t="shared" si="0"/>
+      <c r="AL9">
+        <f t="shared" si="1"/>
         <v>8.5714285714285712</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:38">
       <c r="A10">
         <v>201409</v>
       </c>
       <c r="B10">
         <v>1200</v>
       </c>
-      <c r="C10" s="121">
-        <f t="shared" si="1"/>
+      <c r="E10" s="121">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>900</v>
       </c>
-      <c r="E10" s="121">
+      <c r="G10" s="121">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="F10" s="121">
+      <c r="H10" s="121">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>500</v>
-      </c>
-      <c r="H10">
-        <v>400</v>
-      </c>
-      <c r="I10">
-        <v>400</v>
       </c>
       <c r="J10">
         <v>400</v>
       </c>
       <c r="K10">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L10">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M10">
         <v>300</v>
@@ -89310,20 +89315,20 @@
       <c r="P10">
         <v>300</v>
       </c>
-      <c r="Q10" s="121">
+      <c r="Q10">
+        <v>300</v>
+      </c>
+      <c r="R10">
+        <v>300</v>
+      </c>
+      <c r="S10" s="121">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="R10" s="121">
+      <c r="T10" s="121">
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="S10">
-        <v>300</v>
-      </c>
-      <c r="T10">
-        <v>300</v>
-      </c>
       <c r="U10">
         <v>300</v>
       </c>
@@ -89331,83 +89336,83 @@
         <v>300</v>
       </c>
       <c r="W10">
+        <v>300</v>
+      </c>
+      <c r="X10">
+        <v>300</v>
+      </c>
+      <c r="Y10">
         <v>200</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>100</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>100</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
-      <c r="AC10" s="39">
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="39">
         <v>1200</v>
       </c>
-      <c r="AD10" s="44">
+      <c r="AF10" s="44">
         <f t="shared" si="6"/>
         <v>1500</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <f t="shared" si="8"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
-      <c r="AH10">
+      <c r="AJ10">
         <f t="shared" si="10"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="AJ10">
-        <f t="shared" si="0"/>
+      <c r="AL10">
+        <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:38">
       <c r="A11">
         <v>201410</v>
       </c>
       <c r="B11">
         <v>1400</v>
       </c>
-      <c r="C11" s="121">
-        <f t="shared" si="1"/>
+      <c r="E11" s="121">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>1100</v>
       </c>
-      <c r="E11" s="121">
+      <c r="G11" s="121">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="F11" s="121">
+      <c r="H11" s="121">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="G11">
-        <v>500</v>
-      </c>
-      <c r="H11">
-        <v>500</v>
-      </c>
       <c r="I11">
         <v>500</v>
       </c>
@@ -89418,34 +89423,34 @@
         <v>500</v>
       </c>
       <c r="L11">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M11">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N11">
         <v>400</v>
       </c>
       <c r="O11">
+        <v>400</v>
+      </c>
+      <c r="P11">
+        <v>400</v>
+      </c>
+      <c r="Q11">
         <v>300</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>200</v>
       </c>
-      <c r="Q11" s="121">
+      <c r="S11" s="121">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="R11" s="121">
+      <c r="T11" s="121">
         <f t="shared" si="5"/>
         <v>1200</v>
       </c>
-      <c r="S11">
-        <v>200</v>
-      </c>
-      <c r="T11">
-        <v>200</v>
-      </c>
       <c r="U11">
         <v>200</v>
       </c>
@@ -89459,10 +89464,10 @@
         <v>200</v>
       </c>
       <c r="Y11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA11">
         <v>100</v>
@@ -89470,66 +89475,66 @@
       <c r="AB11">
         <v>100</v>
       </c>
-      <c r="AC11" s="39">
+      <c r="AC11">
+        <v>100</v>
+      </c>
+      <c r="AD11">
+        <v>100</v>
+      </c>
+      <c r="AE11" s="39">
         <v>1400</v>
       </c>
-      <c r="AD11" s="44">
+      <c r="AF11" s="44">
         <f t="shared" si="6"/>
         <v>1700</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <f t="shared" si="7"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <f t="shared" si="8"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <f t="shared" si="9"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="AJ11">
-        <f t="shared" si="0"/>
+      <c r="AL11">
+        <f t="shared" si="1"/>
         <v>5.4545454545454541</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:38">
       <c r="A12">
         <v>201411</v>
       </c>
       <c r="B12">
         <v>900</v>
       </c>
-      <c r="C12" s="121">
-        <f t="shared" si="1"/>
+      <c r="E12" s="121">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>600</v>
       </c>
-      <c r="E12" s="121">
+      <c r="G12" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F12" s="121">
+      <c r="H12" s="121">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="G12">
-        <v>600</v>
-      </c>
-      <c r="H12">
-        <v>600</v>
-      </c>
       <c r="I12">
         <v>600</v>
       </c>
@@ -89543,48 +89548,48 @@
         <v>600</v>
       </c>
       <c r="M12">
+        <v>600</v>
+      </c>
+      <c r="N12">
+        <v>600</v>
+      </c>
+      <c r="O12">
         <v>400</v>
-      </c>
-      <c r="N12">
-        <v>300</v>
-      </c>
-      <c r="O12">
-        <v>300</v>
       </c>
       <c r="P12">
         <v>300</v>
       </c>
-      <c r="Q12" s="121">
+      <c r="Q12">
+        <v>300</v>
+      </c>
+      <c r="R12">
+        <v>300</v>
+      </c>
+      <c r="S12" s="121">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="R12" s="121">
+      <c r="T12" s="121">
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>300</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>300</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>200</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>200</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>100</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>100</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -89592,83 +89597,83 @@
       <c r="AB12">
         <v>0</v>
       </c>
-      <c r="AC12" s="39">
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="39">
         <v>900</v>
       </c>
-      <c r="AD12" s="44">
+      <c r="AF12" s="44">
         <f t="shared" si="6"/>
         <v>1200</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AF12">
+      <c r="AH12">
         <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AG12">
+      <c r="AI12">
         <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AH12">
+      <c r="AJ12">
         <f t="shared" si="10"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <f t="shared" si="11"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AJ12">
-        <f t="shared" si="0"/>
+      <c r="AL12">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:38">
       <c r="A13">
         <v>201412</v>
       </c>
       <c r="B13">
         <v>1000</v>
       </c>
-      <c r="C13" s="121">
-        <f t="shared" si="1"/>
+      <c r="E13" s="121">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>700</v>
       </c>
-      <c r="E13" s="121">
+      <c r="G13" s="121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F13" s="121">
+      <c r="H13" s="121">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="G13">
-        <v>700</v>
-      </c>
-      <c r="H13">
-        <v>700</v>
-      </c>
       <c r="I13">
         <v>700</v>
       </c>
       <c r="J13">
+        <v>700</v>
+      </c>
+      <c r="K13">
+        <v>700</v>
+      </c>
+      <c r="L13">
         <v>600</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>500</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>500</v>
-      </c>
-      <c r="M13">
-        <v>400</v>
-      </c>
-      <c r="N13">
-        <v>400</v>
       </c>
       <c r="O13">
         <v>400</v>
@@ -89676,31 +89681,31 @@
       <c r="P13">
         <v>400</v>
       </c>
-      <c r="Q13" s="121">
+      <c r="Q13">
+        <v>400</v>
+      </c>
+      <c r="R13">
+        <v>400</v>
+      </c>
+      <c r="S13" s="121">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="R13" s="121">
+      <c r="T13" s="121">
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>400</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>400</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>300</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>200</v>
-      </c>
-      <c r="W13">
-        <v>100</v>
-      </c>
-      <c r="X13">
-        <v>100</v>
       </c>
       <c r="Y13">
         <v>100</v>
@@ -89712,68 +89717,68 @@
         <v>100</v>
       </c>
       <c r="AB13">
+        <v>100</v>
+      </c>
+      <c r="AC13">
+        <v>100</v>
+      </c>
+      <c r="AD13">
         <v>0</v>
       </c>
-      <c r="AC13" s="39">
+      <c r="AE13" s="39">
         <v>1000</v>
       </c>
-      <c r="AD13" s="44">
+      <c r="AF13" s="44">
         <f t="shared" si="6"/>
         <v>1300</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-      <c r="AF13">
+      <c r="AH13">
         <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
-      <c r="AG13">
+      <c r="AI13">
         <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
-      <c r="AH13">
+      <c r="AJ13">
         <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
-      <c r="AI13">
+      <c r="AK13">
         <f t="shared" si="11"/>
         <v>2.8571428571428572</v>
       </c>
-      <c r="AJ13">
-        <f t="shared" si="0"/>
+      <c r="AL13">
+        <f t="shared" si="1"/>
         <v>8.5714285714285712</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:38">
       <c r="A14">
         <v>201502</v>
       </c>
       <c r="B14">
         <v>2800</v>
       </c>
-      <c r="C14" s="121">
-        <f t="shared" si="1"/>
+      <c r="E14" s="121">
+        <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>500</v>
       </c>
-      <c r="E14" s="121">
+      <c r="G14" s="121">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F14" s="121">
+      <c r="H14" s="121">
         <f t="shared" si="3"/>
         <v>2500</v>
       </c>
-      <c r="G14">
-        <v>300</v>
-      </c>
-      <c r="H14">
-        <v>300</v>
-      </c>
       <c r="I14">
         <v>300</v>
       </c>
@@ -89787,10 +89792,10 @@
         <v>300</v>
       </c>
       <c r="M14">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N14">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O14">
         <v>200</v>
@@ -89798,20 +89803,20 @@
       <c r="P14">
         <v>200</v>
       </c>
-      <c r="Q14" s="121">
+      <c r="Q14">
+        <v>200</v>
+      </c>
+      <c r="R14">
+        <v>200</v>
+      </c>
+      <c r="S14" s="121">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="R14" s="121">
+      <c r="T14" s="121">
         <f t="shared" si="5"/>
         <v>2600</v>
       </c>
-      <c r="S14">
-        <v>200</v>
-      </c>
-      <c r="T14">
-        <v>200</v>
-      </c>
       <c r="U14">
         <v>200</v>
       </c>
@@ -89819,10 +89824,10 @@
         <v>200</v>
       </c>
       <c r="W14">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X14">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y14">
         <v>100</v>
@@ -89831,71 +89836,71 @@
         <v>100</v>
       </c>
       <c r="AA14">
+        <v>100</v>
+      </c>
+      <c r="AB14">
+        <v>100</v>
+      </c>
+      <c r="AC14">
         <v>0</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <v>0</v>
       </c>
-      <c r="AC14" s="39">
+      <c r="AE14" s="39">
         <v>2800</v>
       </c>
-      <c r="AD14" s="44">
+      <c r="AF14" s="44">
         <f t="shared" si="6"/>
         <v>3100</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <f t="shared" si="7"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="AF14">
+      <c r="AH14">
         <f t="shared" si="8"/>
         <v>0.10714285714285714</v>
       </c>
-      <c r="AG14">
+      <c r="AI14">
         <f t="shared" si="9"/>
         <v>0.17857142857142858</v>
       </c>
-      <c r="AH14">
+      <c r="AJ14">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="AI14">
+      <c r="AK14">
         <f t="shared" si="11"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="AJ14">
-        <f t="shared" si="0"/>
+      <c r="AL14">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:38">
       <c r="A15">
         <v>201504</v>
       </c>
       <c r="B15">
         <v>5400</v>
       </c>
-      <c r="C15" s="121">
-        <f t="shared" si="1"/>
+      <c r="E15" s="121">
+        <f t="shared" si="0"/>
         <v>4700</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>700</v>
       </c>
-      <c r="E15" s="121">
+      <c r="G15" s="121">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="F15" s="121">
+      <c r="H15" s="121">
         <f t="shared" si="3"/>
         <v>5100</v>
       </c>
-      <c r="G15">
-        <v>300</v>
-      </c>
-      <c r="H15">
-        <v>300</v>
-      </c>
       <c r="I15">
         <v>300</v>
       </c>
@@ -89918,36 +89923,36 @@
         <v>300</v>
       </c>
       <c r="P15">
+        <v>300</v>
+      </c>
+      <c r="Q15">
+        <v>300</v>
+      </c>
+      <c r="R15">
         <v>200</v>
       </c>
-      <c r="Q15" s="121">
+      <c r="S15" s="121">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="R15" s="121">
+      <c r="T15" s="121">
         <f t="shared" si="5"/>
         <v>5200</v>
       </c>
-      <c r="S15">
-        <v>200</v>
-      </c>
-      <c r="T15">
-        <v>200</v>
-      </c>
       <c r="U15">
         <v>200</v>
       </c>
       <c r="V15">
+        <v>200</v>
+      </c>
+      <c r="W15">
+        <v>200</v>
+      </c>
+      <c r="X15">
         <v>100</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>100</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -89958,74 +89963,74 @@
       <c r="AB15">
         <v>0</v>
       </c>
-      <c r="AC15" s="39">
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="39">
         <v>5400</v>
       </c>
-      <c r="AD15" s="44">
+      <c r="AF15" s="44">
         <f t="shared" si="6"/>
         <v>5700</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
         <f t="shared" si="7"/>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="AF15">
+      <c r="AH15">
         <f t="shared" si="8"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="AG15">
+      <c r="AI15">
         <f t="shared" si="9"/>
         <v>0.12962962962962962</v>
       </c>
-      <c r="AH15">
+      <c r="AJ15">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="AI15">
+      <c r="AK15">
         <f t="shared" si="11"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="AJ15">
-        <f t="shared" si="0"/>
+      <c r="AL15">
+        <f t="shared" si="1"/>
         <v>8.5714285714285712</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:38">
       <c r="A16">
         <v>201505</v>
       </c>
       <c r="B16">
         <v>3800</v>
       </c>
-      <c r="C16" s="121">
-        <f t="shared" si="1"/>
+      <c r="E16" s="121">
+        <f t="shared" si="0"/>
         <v>3100</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>700</v>
       </c>
-      <c r="E16" s="121">
+      <c r="G16" s="121">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="F16" s="121">
+      <c r="H16" s="121">
         <f t="shared" si="3"/>
         <v>3500</v>
       </c>
-      <c r="G16">
-        <v>300</v>
-      </c>
-      <c r="H16">
-        <v>300</v>
-      </c>
       <c r="I16">
         <v>300</v>
       </c>
       <c r="J16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L16">
         <v>200</v>
@@ -90042,22 +90047,22 @@
       <c r="P16">
         <v>200</v>
       </c>
-      <c r="Q16" s="121">
+      <c r="Q16">
+        <v>200</v>
+      </c>
+      <c r="R16">
+        <v>200</v>
+      </c>
+      <c r="S16" s="121">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="R16" s="121">
+      <c r="T16" s="121">
         <f t="shared" si="5"/>
         <v>3600</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>200</v>
-      </c>
-      <c r="T16">
-        <v>100</v>
-      </c>
-      <c r="U16">
-        <v>100</v>
       </c>
       <c r="V16">
         <v>100</v>
@@ -90078,242 +90083,242 @@
         <v>100</v>
       </c>
       <c r="AB16">
+        <v>100</v>
+      </c>
+      <c r="AC16">
+        <v>100</v>
+      </c>
+      <c r="AD16">
         <v>0</v>
       </c>
-      <c r="AC16" s="39">
+      <c r="AE16" s="39">
         <v>3800</v>
       </c>
-      <c r="AD16" s="44">
+      <c r="AF16" s="44">
         <f t="shared" si="6"/>
         <v>4100</v>
       </c>
-      <c r="AE16">
+      <c r="AG16">
         <f t="shared" si="7"/>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="AF16">
+      <c r="AH16">
         <f t="shared" si="8"/>
         <v>7.8947368421052627E-2</v>
       </c>
-      <c r="AG16">
+      <c r="AI16">
         <f t="shared" si="9"/>
         <v>0.18421052631578946</v>
       </c>
-      <c r="AH16">
+      <c r="AJ16">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="AI16">
+      <c r="AK16">
         <f t="shared" si="11"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="AJ16">
-        <f t="shared" si="0"/>
+      <c r="AL16">
+        <f t="shared" si="1"/>
         <v>8.5714285714285712</v>
       </c>
     </row>
-    <row r="17" spans="1:36" s="46" customFormat="1">
+    <row r="17" spans="1:38" s="46" customFormat="1">
       <c r="A17" s="46">
         <v>201506</v>
       </c>
       <c r="B17" s="46">
         <v>4800</v>
       </c>
-      <c r="C17" s="121">
-        <f t="shared" si="1"/>
+      <c r="E17" s="121">
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="D17" s="46">
+      <c r="F17" s="46">
         <v>2300</v>
       </c>
-      <c r="E17" s="121">
+      <c r="G17" s="121">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="F17" s="121">
+      <c r="H17" s="121">
         <f t="shared" si="3"/>
         <v>3900</v>
       </c>
-      <c r="G17" s="46">
+      <c r="I17" s="46">
         <v>900</v>
       </c>
-      <c r="H17" s="46">
+      <c r="J17" s="46">
         <v>900</v>
-      </c>
-      <c r="I17" s="46">
-        <v>800</v>
-      </c>
-      <c r="J17" s="46">
-        <v>800</v>
       </c>
       <c r="K17" s="46">
         <v>800</v>
       </c>
       <c r="L17" s="46">
+        <v>800</v>
+      </c>
+      <c r="M17" s="46">
+        <v>800</v>
+      </c>
+      <c r="N17" s="46">
         <v>700</v>
       </c>
-      <c r="M17" s="46">
+      <c r="O17" s="46">
         <v>600</v>
       </c>
-      <c r="N17" s="46">
+      <c r="P17" s="46">
         <v>600</v>
       </c>
-      <c r="O17" s="46">
+      <c r="Q17" s="46">
         <v>500</v>
       </c>
-      <c r="P17" s="46">
+      <c r="R17" s="46">
         <v>500</v>
       </c>
-      <c r="Q17" s="121">
+      <c r="S17" s="121">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="R17" s="121">
+      <c r="T17" s="121">
         <f t="shared" si="5"/>
         <v>4300</v>
       </c>
-      <c r="S17" s="46">
+      <c r="U17" s="46">
         <v>500</v>
       </c>
-      <c r="T17" s="46">
+      <c r="V17" s="46">
         <v>400</v>
       </c>
-      <c r="U17" s="46">
+      <c r="W17" s="46">
         <v>400</v>
-      </c>
-      <c r="V17" s="46">
-        <v>300</v>
-      </c>
-      <c r="W17" s="46">
-        <v>300</v>
       </c>
       <c r="X17" s="46">
         <v>300</v>
       </c>
       <c r="Y17" s="46">
+        <v>300</v>
+      </c>
+      <c r="Z17" s="46">
+        <v>300</v>
+      </c>
+      <c r="AA17" s="46">
         <v>200</v>
-      </c>
-      <c r="Z17" s="46">
-        <v>100</v>
-      </c>
-      <c r="AA17" s="46">
-        <v>100</v>
       </c>
       <c r="AB17" s="46">
         <v>100</v>
       </c>
-      <c r="AC17" s="47">
+      <c r="AC17" s="46">
+        <v>100</v>
+      </c>
+      <c r="AD17" s="46">
+        <v>100</v>
+      </c>
+      <c r="AE17" s="47">
         <v>4800</v>
       </c>
-      <c r="AD17" s="48">
+      <c r="AF17" s="48">
         <f t="shared" si="6"/>
         <v>5100</v>
       </c>
-      <c r="AE17" s="46">
+      <c r="AG17" s="46">
         <f t="shared" si="7"/>
         <v>0.10416666666666667</v>
       </c>
-      <c r="AF17" s="46">
+      <c r="AH17" s="46">
         <f t="shared" si="8"/>
         <v>0.1875</v>
       </c>
-      <c r="AG17" s="46">
+      <c r="AI17" s="46">
         <f t="shared" si="9"/>
         <v>0.47916666666666669</v>
       </c>
-      <c r="AH17" s="46">
+      <c r="AJ17" s="46">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="AI17" s="46">
+      <c r="AK17" s="46">
         <f t="shared" si="11"/>
         <v>2.2222222222222223</v>
       </c>
-      <c r="AJ17" s="46">
-        <f t="shared" si="0"/>
+      <c r="AL17" s="46">
+        <f t="shared" si="1"/>
         <v>2.6086956521739131</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:38">
       <c r="A18">
         <v>201507</v>
       </c>
       <c r="B18">
         <v>3200</v>
       </c>
-      <c r="C18" s="121">
-        <f t="shared" si="1"/>
+      <c r="E18" s="121">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>1700</v>
       </c>
-      <c r="E18" s="121">
+      <c r="G18" s="121">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="F18" s="121">
+      <c r="H18" s="121">
         <f t="shared" si="3"/>
         <v>2400</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>800</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>800</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>700</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>700</v>
-      </c>
-      <c r="K18">
-        <v>600</v>
-      </c>
-      <c r="L18">
-        <v>600</v>
       </c>
       <c r="M18">
         <v>600</v>
       </c>
       <c r="N18">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O18">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P18">
         <v>500</v>
       </c>
-      <c r="Q18" s="121">
+      <c r="Q18">
+        <v>500</v>
+      </c>
+      <c r="R18">
+        <v>500</v>
+      </c>
+      <c r="S18" s="121">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="R18" s="121">
+      <c r="T18" s="121">
         <f t="shared" si="5"/>
         <v>2800</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>400</v>
-      </c>
-      <c r="T18">
-        <v>300</v>
-      </c>
-      <c r="U18">
-        <v>300</v>
       </c>
       <c r="V18">
         <v>300</v>
       </c>
       <c r="W18">
+        <v>300</v>
+      </c>
+      <c r="X18">
+        <v>300</v>
+      </c>
+      <c r="Y18">
         <v>200</v>
-      </c>
-      <c r="X18">
-        <v>100</v>
-      </c>
-      <c r="Y18">
-        <v>100</v>
       </c>
       <c r="Z18">
         <v>100</v>
@@ -90322,85 +90327,85 @@
         <v>100</v>
       </c>
       <c r="AB18">
+        <v>100</v>
+      </c>
+      <c r="AC18">
+        <v>100</v>
+      </c>
+      <c r="AD18">
         <v>0</v>
       </c>
-      <c r="AC18" s="39">
+      <c r="AE18" s="39">
         <v>3200</v>
       </c>
-      <c r="AD18" s="44">
+      <c r="AF18" s="44">
         <f t="shared" si="6"/>
         <v>3500</v>
       </c>
-      <c r="AE18">
+      <c r="AG18">
         <f t="shared" si="7"/>
         <v>0.125</v>
       </c>
-      <c r="AF18">
+      <c r="AH18">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-      <c r="AG18">
+      <c r="AI18">
         <f t="shared" si="9"/>
         <v>0.53125</v>
       </c>
-      <c r="AH18">
+      <c r="AJ18">
         <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
-      <c r="AI18">
+      <c r="AK18">
         <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
-      <c r="AJ18">
-        <f t="shared" si="0"/>
+      <c r="AL18">
+        <f t="shared" si="1"/>
         <v>3.5294117647058822</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>201508</v>
       </c>
       <c r="B19">
         <v>2700</v>
       </c>
-      <c r="C19" s="121">
-        <f t="shared" si="1"/>
+      <c r="E19" s="121">
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>1500</v>
       </c>
-      <c r="E19" s="121">
+      <c r="G19" s="121">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="F19" s="121">
+      <c r="H19" s="121">
         <f t="shared" si="3"/>
         <v>1900</v>
       </c>
-      <c r="G19">
-        <v>800</v>
-      </c>
-      <c r="H19">
-        <v>800</v>
-      </c>
       <c r="I19">
         <v>800</v>
       </c>
       <c r="J19">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K19">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L19">
         <v>700</v>
       </c>
       <c r="M19">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N19">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O19">
         <v>600</v>
@@ -90408,104 +90413,104 @@
       <c r="P19">
         <v>600</v>
       </c>
-      <c r="Q19" s="121">
+      <c r="Q19">
+        <v>600</v>
+      </c>
+      <c r="R19">
+        <v>600</v>
+      </c>
+      <c r="S19" s="121">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="R19" s="121">
+      <c r="T19" s="121">
         <f t="shared" si="5"/>
         <v>2200</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>500</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>500</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>400</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>400</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>300</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>200</v>
-      </c>
-      <c r="Y19">
-        <v>100</v>
-      </c>
-      <c r="Z19">
-        <v>100</v>
       </c>
       <c r="AA19">
         <v>100</v>
       </c>
       <c r="AB19">
+        <v>100</v>
+      </c>
+      <c r="AC19">
+        <v>100</v>
+      </c>
+      <c r="AD19">
         <v>0</v>
       </c>
-      <c r="AC19" s="39">
+      <c r="AE19" s="39">
         <v>2700</v>
       </c>
-      <c r="AD19" s="44">
+      <c r="AF19" s="44">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="AE19">
+      <c r="AG19">
         <f t="shared" si="7"/>
         <v>0.18518518518518517</v>
       </c>
-      <c r="AF19">
+      <c r="AH19">
         <f t="shared" si="8"/>
         <v>0.29629629629629628</v>
       </c>
-      <c r="AG19">
+      <c r="AI19">
         <f t="shared" si="9"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="AH19">
+      <c r="AJ19">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="AI19">
+      <c r="AK19">
         <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
-      <c r="AJ19">
-        <f t="shared" si="0"/>
+      <c r="AL19">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>201509</v>
       </c>
       <c r="B20">
         <v>2200</v>
       </c>
-      <c r="C20" s="121">
-        <f t="shared" si="1"/>
+      <c r="E20" s="121">
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>1300</v>
       </c>
-      <c r="E20" s="121">
+      <c r="G20" s="121">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="F20" s="121">
+      <c r="H20" s="121">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-      <c r="G20">
-        <v>700</v>
-      </c>
-      <c r="H20">
-        <v>700</v>
-      </c>
       <c r="I20">
         <v>700</v>
       </c>
@@ -90513,10 +90518,10 @@
         <v>700</v>
       </c>
       <c r="K20">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L20">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M20">
         <v>600</v>
@@ -90525,239 +90530,239 @@
         <v>600</v>
       </c>
       <c r="O20">
+        <v>600</v>
+      </c>
+      <c r="P20">
+        <v>600</v>
+      </c>
+      <c r="Q20">
         <v>500</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>500</v>
       </c>
-      <c r="Q20" s="121">
+      <c r="S20" s="121">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="R20" s="121">
+      <c r="T20" s="121">
         <f t="shared" si="5"/>
         <v>1800</v>
       </c>
-      <c r="S20">
-        <v>400</v>
-      </c>
-      <c r="T20">
-        <v>400</v>
-      </c>
       <c r="U20">
         <v>400</v>
       </c>
       <c r="V20">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W20">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X20">
         <v>300</v>
       </c>
       <c r="Y20">
+        <v>300</v>
+      </c>
+      <c r="Z20">
+        <v>300</v>
+      </c>
+      <c r="AA20">
         <v>200</v>
-      </c>
-      <c r="Z20">
-        <v>100</v>
-      </c>
-      <c r="AA20">
-        <v>100</v>
       </c>
       <c r="AB20">
         <v>100</v>
       </c>
-      <c r="AC20" s="39">
+      <c r="AC20">
+        <v>100</v>
+      </c>
+      <c r="AD20">
+        <v>100</v>
+      </c>
+      <c r="AE20" s="39">
         <v>2200</v>
       </c>
-      <c r="AD20" s="44">
+      <c r="AF20" s="44">
         <f t="shared" si="6"/>
         <v>2500</v>
       </c>
-      <c r="AE20">
+      <c r="AG20">
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="AF20">
+      <c r="AH20">
         <f t="shared" si="8"/>
         <v>0.31818181818181818</v>
       </c>
-      <c r="AG20">
+      <c r="AI20">
         <f t="shared" si="9"/>
         <v>0.59090909090909094</v>
       </c>
-      <c r="AH20">
+      <c r="AJ20">
         <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
-      <c r="AI20">
+      <c r="AK20">
         <f t="shared" si="11"/>
         <v>2.8571428571428572</v>
       </c>
-      <c r="AJ20">
-        <f t="shared" si="0"/>
+      <c r="AL20">
+        <f t="shared" si="1"/>
         <v>4.615384615384615</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>201510</v>
       </c>
       <c r="B21">
         <v>2700</v>
       </c>
-      <c r="C21" s="121">
-        <f t="shared" si="1"/>
+      <c r="E21" s="121">
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>1500</v>
       </c>
-      <c r="E21" s="121">
+      <c r="G21" s="121">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="F21" s="121">
+      <c r="H21" s="121">
         <f t="shared" si="3"/>
         <v>1900</v>
       </c>
-      <c r="G21">
-        <v>800</v>
-      </c>
-      <c r="H21">
-        <v>800</v>
-      </c>
       <c r="I21">
         <v>800</v>
       </c>
       <c r="J21">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K21">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L21">
         <v>700</v>
       </c>
       <c r="M21">
+        <v>700</v>
+      </c>
+      <c r="N21">
+        <v>700</v>
+      </c>
+      <c r="O21">
         <v>600</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>600</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>500</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>500</v>
       </c>
-      <c r="Q21" s="121">
+      <c r="S21" s="121">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="R21" s="121">
+      <c r="T21" s="121">
         <f t="shared" si="5"/>
         <v>2300</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>400</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>400</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>300</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>300</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <v>200</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <v>100</v>
       </c>
-      <c r="Y21">
+      <c r="AA21">
         <v>100</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
       </c>
       <c r="AB21">
         <v>0</v>
       </c>
-      <c r="AC21" s="39">
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="39">
         <v>2700</v>
       </c>
-      <c r="AD21" s="44">
+      <c r="AF21" s="44">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="AE21">
+      <c r="AG21">
         <f t="shared" si="7"/>
         <v>0.14814814814814814</v>
       </c>
-      <c r="AF21">
+      <c r="AH21">
         <f t="shared" si="8"/>
         <v>0.29629629629629628</v>
       </c>
-      <c r="AG21">
+      <c r="AI21">
         <f t="shared" si="9"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="AH21">
+      <c r="AJ21">
         <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
-      <c r="AI21">
+      <c r="AK21">
         <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
-      <c r="AJ21">
-        <f t="shared" si="0"/>
+      <c r="AL21">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:36" s="41" customFormat="1">
+    <row r="22" spans="1:38" s="41" customFormat="1">
       <c r="A22" s="41">
         <v>201511</v>
       </c>
       <c r="B22" s="41">
         <v>2000</v>
       </c>
-      <c r="C22" s="121">
-        <f t="shared" si="1"/>
+      <c r="E22" s="121">
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="D22" s="41">
+      <c r="F22" s="41">
         <v>1100</v>
       </c>
-      <c r="E22" s="121">
+      <c r="G22" s="121">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="F22" s="121">
+      <c r="H22" s="121">
         <f t="shared" si="3"/>
         <v>1400</v>
       </c>
-      <c r="G22" s="41">
-        <v>600</v>
-      </c>
-      <c r="H22" s="41">
-        <v>600</v>
-      </c>
       <c r="I22" s="41">
         <v>600</v>
       </c>
       <c r="J22" s="41">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K22" s="41">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L22" s="41">
         <v>500</v>
@@ -90774,142 +90779,142 @@
       <c r="P22" s="41">
         <v>500</v>
       </c>
-      <c r="Q22" s="121">
+      <c r="Q22" s="41">
+        <v>500</v>
+      </c>
+      <c r="R22" s="41">
+        <v>500</v>
+      </c>
+      <c r="S22" s="121">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="R22" s="121">
+      <c r="T22" s="121">
         <f t="shared" si="5"/>
         <v>1500</v>
       </c>
-      <c r="S22" s="41">
+      <c r="U22" s="41">
         <v>500</v>
       </c>
-      <c r="T22" s="41">
+      <c r="V22" s="41">
         <v>400</v>
       </c>
-      <c r="U22" s="41">
+      <c r="W22" s="41">
         <v>400</v>
-      </c>
-      <c r="V22" s="41">
-        <v>300</v>
-      </c>
-      <c r="W22" s="41">
-        <v>300</v>
       </c>
       <c r="X22" s="41">
         <v>300</v>
       </c>
       <c r="Y22" s="41">
+        <v>300</v>
+      </c>
+      <c r="Z22" s="41">
+        <v>300</v>
+      </c>
+      <c r="AA22" s="41">
         <v>200</v>
       </c>
-      <c r="Z22" s="41">
+      <c r="AB22" s="41">
         <v>100</v>
       </c>
-      <c r="AA22" s="41">
+      <c r="AC22" s="41">
         <v>100</v>
       </c>
-      <c r="AB22" s="41">
+      <c r="AD22" s="41">
         <v>0</v>
       </c>
-      <c r="AC22" s="42">
+      <c r="AE22" s="42">
         <v>2000</v>
       </c>
-      <c r="AD22" s="45">
+      <c r="AF22" s="45">
         <f t="shared" si="6"/>
         <v>2300</v>
       </c>
-      <c r="AE22" s="41">
+      <c r="AG22" s="41">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="AF22" s="41">
+      <c r="AH22" s="41">
         <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
-      <c r="AG22" s="41">
+      <c r="AI22" s="41">
         <f t="shared" si="9"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="AH22" s="41">
+      <c r="AJ22" s="41">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="AI22" s="41">
+      <c r="AK22" s="41">
         <f t="shared" si="11"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AJ22" s="41">
-        <f t="shared" si="0"/>
+      <c r="AL22" s="41">
+        <f t="shared" si="1"/>
         <v>5.4545454545454541</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:38">
       <c r="A23">
         <v>201512</v>
       </c>
       <c r="B23">
         <v>1900</v>
       </c>
-      <c r="C23" s="121">
-        <f t="shared" si="1"/>
+      <c r="E23" s="121">
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>1000</v>
       </c>
-      <c r="E23" s="121">
+      <c r="G23" s="121">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F23" s="121">
+      <c r="H23" s="121">
         <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="G23">
-        <v>700</v>
-      </c>
-      <c r="H23">
-        <v>700</v>
-      </c>
       <c r="I23">
         <v>700</v>
       </c>
       <c r="J23">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K23">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L23">
         <v>600</v>
       </c>
       <c r="M23">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N23">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O23">
         <v>500</v>
       </c>
       <c r="P23">
+        <v>500</v>
+      </c>
+      <c r="Q23">
+        <v>500</v>
+      </c>
+      <c r="R23">
         <v>400</v>
       </c>
-      <c r="Q23" s="121">
+      <c r="S23" s="121">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="R23" s="121">
+      <c r="T23" s="121">
         <f t="shared" si="5"/>
         <v>1500</v>
       </c>
-      <c r="S23">
-        <v>400</v>
-      </c>
-      <c r="T23">
-        <v>400</v>
-      </c>
       <c r="U23">
         <v>400</v>
       </c>
@@ -90917,83 +90922,83 @@
         <v>400</v>
       </c>
       <c r="W23">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X23">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y23">
         <v>300</v>
       </c>
       <c r="Z23">
+        <v>300</v>
+      </c>
+      <c r="AA23">
+        <v>300</v>
+      </c>
+      <c r="AB23">
         <v>200</v>
       </c>
-      <c r="AA23">
+      <c r="AC23">
         <v>100</v>
       </c>
-      <c r="AB23">
+      <c r="AD23">
         <v>100</v>
       </c>
-      <c r="AC23" s="39">
+      <c r="AE23" s="39">
         <v>1900</v>
       </c>
-      <c r="AD23" s="44">
+      <c r="AF23" s="44">
         <f t="shared" si="6"/>
         <v>2200</v>
       </c>
-      <c r="AE23">
+      <c r="AG23">
         <f t="shared" si="7"/>
         <v>0.21052631578947367</v>
       </c>
-      <c r="AF23">
+      <c r="AH23">
         <f t="shared" si="8"/>
         <v>0.36842105263157893</v>
       </c>
-      <c r="AG23">
+      <c r="AI23">
         <f t="shared" si="9"/>
         <v>0.52631578947368418</v>
       </c>
-      <c r="AH23">
+      <c r="AJ23">
         <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
-      <c r="AI23">
+      <c r="AK23">
         <f t="shared" si="11"/>
         <v>2.8571428571428572</v>
       </c>
-      <c r="AJ23">
-        <f t="shared" si="0"/>
+      <c r="AL23">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:38">
       <c r="A24">
         <v>201601</v>
       </c>
       <c r="B24">
         <v>1600</v>
       </c>
-      <c r="C24" s="121">
-        <f t="shared" si="1"/>
+      <c r="E24" s="121">
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>700</v>
       </c>
-      <c r="E24" s="121">
+      <c r="G24" s="121">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F24" s="121">
+      <c r="H24" s="121">
         <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="G24">
-        <v>400</v>
-      </c>
-      <c r="H24">
-        <v>400</v>
-      </c>
       <c r="I24">
         <v>400</v>
       </c>
@@ -91001,37 +91006,37 @@
         <v>400</v>
       </c>
       <c r="K24">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L24">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M24">
         <v>300</v>
       </c>
       <c r="N24">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O24">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P24">
         <v>200</v>
       </c>
-      <c r="Q24" s="121">
+      <c r="Q24">
+        <v>200</v>
+      </c>
+      <c r="R24">
+        <v>200</v>
+      </c>
+      <c r="S24" s="121">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="R24" s="121">
+      <c r="T24" s="121">
         <f t="shared" si="5"/>
         <v>1500</v>
       </c>
-      <c r="S24">
-        <v>100</v>
-      </c>
-      <c r="T24">
-        <v>100</v>
-      </c>
       <c r="U24">
         <v>100</v>
       </c>
@@ -91039,10 +91044,10 @@
         <v>100</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -91056,188 +91061,188 @@
       <c r="AB24">
         <v>0</v>
       </c>
-      <c r="AC24" s="39">
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="39">
         <v>1600</v>
       </c>
-      <c r="AD24" s="44">
+      <c r="AF24" s="44">
         <f t="shared" si="6"/>
         <v>1900</v>
       </c>
-      <c r="AE24">
+      <c r="AG24">
         <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
-      <c r="AF24">
+      <c r="AH24">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-      <c r="AG24">
+      <c r="AI24">
         <f t="shared" si="9"/>
         <v>0.4375</v>
       </c>
-      <c r="AH24">
+      <c r="AJ24">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="AI24">
+      <c r="AK24">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="AJ24">
-        <f t="shared" si="0"/>
+      <c r="AL24">
+        <f t="shared" si="1"/>
         <v>8.5714285714285712</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:38">
       <c r="A25">
         <v>201602</v>
       </c>
       <c r="B25">
         <v>2600</v>
       </c>
-      <c r="C25" s="121">
-        <f t="shared" si="1"/>
+      <c r="E25" s="121">
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>1700</v>
       </c>
-      <c r="E25" s="121">
+      <c r="G25" s="121">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="F25" s="121">
+      <c r="H25" s="121">
         <f t="shared" si="3"/>
         <v>1600</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>1000</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>1000</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>900</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>900</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>800</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>800</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>700</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>600</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>600</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>500</v>
       </c>
-      <c r="Q25" s="121">
+      <c r="S25" s="121">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="R25" s="121">
+      <c r="T25" s="121">
         <f t="shared" si="5"/>
         <v>2100</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>500</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>400</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <v>300</v>
-      </c>
-      <c r="V25">
-        <v>200</v>
-      </c>
-      <c r="W25">
-        <v>200</v>
       </c>
       <c r="X25">
         <v>200</v>
       </c>
       <c r="Y25">
+        <v>200</v>
+      </c>
+      <c r="Z25">
+        <v>200</v>
+      </c>
+      <c r="AA25">
         <v>100</v>
       </c>
-      <c r="Z25">
+      <c r="AB25">
         <v>100</v>
       </c>
-      <c r="AA25">
+      <c r="AC25">
         <v>0</v>
       </c>
-      <c r="AB25">
+      <c r="AD25">
         <v>0</v>
       </c>
-      <c r="AC25" s="39">
+      <c r="AE25" s="39">
         <v>2600</v>
       </c>
-      <c r="AD25" s="44">
+      <c r="AF25" s="44">
         <f t="shared" si="6"/>
         <v>2900</v>
       </c>
-      <c r="AE25">
+      <c r="AG25">
         <f t="shared" si="7"/>
         <v>0.19230769230769232</v>
       </c>
-      <c r="AF25">
+      <c r="AH25">
         <f t="shared" si="8"/>
         <v>0.38461538461538464</v>
       </c>
-      <c r="AG25">
+      <c r="AI25">
         <f t="shared" si="9"/>
         <v>0.65384615384615385</v>
       </c>
-      <c r="AH25">
+      <c r="AJ25">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="AI25">
+      <c r="AK25">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="AJ25">
-        <f t="shared" si="0"/>
+      <c r="AL25">
+        <f t="shared" si="1"/>
         <v>3.5294117647058822</v>
       </c>
     </row>
-    <row r="26" spans="1:36" s="55" customFormat="1">
+    <row r="26" spans="1:38" s="55" customFormat="1">
       <c r="A26" s="55">
         <v>201603</v>
       </c>
       <c r="B26" s="55">
         <v>2500</v>
       </c>
-      <c r="C26" s="121">
-        <f t="shared" si="1"/>
+      <c r="E26" s="121">
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="D26" s="55">
+      <c r="F26" s="55">
         <v>1600</v>
       </c>
-      <c r="E26" s="121">
+      <c r="G26" s="121">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="F26" s="121">
+      <c r="H26" s="121">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-      <c r="G26" s="55">
-        <v>1000</v>
-      </c>
-      <c r="H26" s="55">
-        <v>1000</v>
-      </c>
       <c r="I26" s="55">
         <v>1000</v>
       </c>
@@ -91245,244 +91250,244 @@
         <v>1000</v>
       </c>
       <c r="K26" s="55">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L26" s="55">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M26" s="55">
         <v>900</v>
       </c>
       <c r="N26" s="55">
+        <v>900</v>
+      </c>
+      <c r="O26" s="55">
+        <v>900</v>
+      </c>
+      <c r="P26" s="55">
         <v>800</v>
       </c>
-      <c r="O26" s="55">
+      <c r="Q26" s="55">
         <v>800</v>
       </c>
-      <c r="P26" s="55">
+      <c r="R26" s="55">
         <v>700</v>
       </c>
-      <c r="Q26" s="121">
+      <c r="S26" s="121">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="R26" s="121">
+      <c r="T26" s="121">
         <f t="shared" si="5"/>
         <v>1800</v>
       </c>
-      <c r="S26" s="55">
+      <c r="U26" s="55">
         <v>700</v>
       </c>
-      <c r="T26" s="55">
+      <c r="V26" s="55">
         <v>600</v>
       </c>
-      <c r="U26" s="55">
+      <c r="W26" s="55">
         <v>500</v>
       </c>
-      <c r="V26" s="55">
+      <c r="X26" s="55">
         <v>400</v>
       </c>
-      <c r="W26" s="55">
+      <c r="Y26" s="55">
         <v>300</v>
-      </c>
-      <c r="X26" s="55">
-        <v>200</v>
-      </c>
-      <c r="Y26" s="55">
-        <v>200</v>
       </c>
       <c r="Z26" s="55">
         <v>200</v>
       </c>
       <c r="AA26" s="55">
+        <v>200</v>
+      </c>
+      <c r="AB26" s="55">
+        <v>200</v>
+      </c>
+      <c r="AC26" s="55">
         <v>100</v>
       </c>
-      <c r="AB26" s="55">
+      <c r="AD26" s="55">
         <v>0</v>
       </c>
-      <c r="AC26" s="119">
+      <c r="AE26" s="119">
         <v>2500</v>
       </c>
-      <c r="AD26" s="120">
+      <c r="AF26" s="120">
         <f t="shared" si="6"/>
         <v>2800</v>
       </c>
-      <c r="AE26" s="55">
+      <c r="AG26" s="55">
         <f t="shared" si="7"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="AF26" s="55">
+      <c r="AH26" s="55">
         <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
-      <c r="AG26" s="55">
+      <c r="AI26" s="55">
         <f t="shared" si="9"/>
         <v>0.64</v>
       </c>
-      <c r="AH26" s="55">
+      <c r="AJ26" s="55">
         <f t="shared" si="10"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="AI26" s="55">
+      <c r="AK26" s="55">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="AJ26" s="55">
-        <f t="shared" si="0"/>
+      <c r="AL26" s="55">
+        <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:38">
       <c r="A27">
         <v>201604</v>
       </c>
       <c r="B27">
         <v>2300</v>
       </c>
-      <c r="C27" s="121">
-        <f t="shared" si="1"/>
+      <c r="E27" s="121">
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>1400</v>
       </c>
-      <c r="E27" s="121">
+      <c r="G27" s="121">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F27" s="121">
+      <c r="H27" s="121">
         <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>1100</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>1000</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>1000</v>
-      </c>
-      <c r="J27">
-        <v>900</v>
-      </c>
-      <c r="K27">
-        <v>900</v>
       </c>
       <c r="L27">
         <v>900</v>
       </c>
       <c r="M27">
+        <v>900</v>
+      </c>
+      <c r="N27">
+        <v>900</v>
+      </c>
+      <c r="O27">
         <v>800</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>800</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>700</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>700</v>
       </c>
-      <c r="Q27" s="121">
+      <c r="S27" s="121">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="R27" s="121">
+      <c r="T27" s="121">
         <f t="shared" si="5"/>
         <v>1600</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>700</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>700</v>
-      </c>
-      <c r="U27">
-        <v>600</v>
-      </c>
-      <c r="V27">
-        <v>600</v>
       </c>
       <c r="W27">
         <v>600</v>
       </c>
       <c r="X27">
+        <v>600</v>
+      </c>
+      <c r="Y27">
+        <v>600</v>
+      </c>
+      <c r="Z27">
         <v>500</v>
       </c>
-      <c r="Y27">
+      <c r="AA27">
         <v>500</v>
       </c>
-      <c r="Z27">
+      <c r="AB27">
         <v>400</v>
       </c>
-      <c r="AA27">
+      <c r="AC27">
         <v>300</v>
       </c>
-      <c r="AB27">
+      <c r="AD27">
         <v>100</v>
       </c>
-      <c r="AC27">
-        <f>B27</f>
+      <c r="AE27">
+        <f t="shared" ref="AE27:AE32" si="12">B27</f>
         <v>2300</v>
       </c>
-      <c r="AD27" s="120">
+      <c r="AF27" s="120">
         <f t="shared" si="6"/>
         <v>2600</v>
       </c>
-      <c r="AE27" s="55">
+      <c r="AG27" s="55">
         <f t="shared" si="7"/>
         <v>0.30434782608695654</v>
       </c>
-      <c r="AF27" s="55">
+      <c r="AH27" s="55">
         <f t="shared" si="8"/>
         <v>0.47826086956521741</v>
       </c>
-      <c r="AG27" s="55">
+      <c r="AI27" s="55">
         <f t="shared" si="9"/>
         <v>0.60869565217391308</v>
       </c>
-      <c r="AH27" s="55">
+      <c r="AJ27" s="55">
         <f t="shared" si="10"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="AI27" s="55">
+      <c r="AK27" s="55">
         <f t="shared" si="11"/>
         <v>1.8181818181818181</v>
       </c>
-      <c r="AJ27" s="55">
-        <f t="shared" si="0"/>
+      <c r="AL27" s="55">
+        <f t="shared" si="1"/>
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:38">
       <c r="A28">
         <v>201605</v>
       </c>
       <c r="B28">
         <v>2200</v>
       </c>
-      <c r="C28" s="121">
-        <f t="shared" si="1"/>
+      <c r="E28" s="121">
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>1400</v>
       </c>
-      <c r="E28" s="121">
+      <c r="G28" s="121">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="F28" s="121">
+      <c r="H28" s="121">
         <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="G28">
-        <v>1000</v>
-      </c>
-      <c r="H28">
-        <v>1000</v>
-      </c>
       <c r="I28">
         <v>1000</v>
       </c>
@@ -91493,119 +91498,119 @@
         <v>1000</v>
       </c>
       <c r="L28">
+        <v>1000</v>
+      </c>
+      <c r="M28">
+        <v>1000</v>
+      </c>
+      <c r="N28">
         <v>900</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>900</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>800</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>700</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>700</v>
       </c>
-      <c r="Q28" s="121">
+      <c r="S28" s="121">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="R28" s="121">
+      <c r="T28" s="121">
         <f t="shared" si="5"/>
         <v>1500</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>700</v>
-      </c>
-      <c r="T28">
-        <v>600</v>
-      </c>
-      <c r="U28">
-        <v>600</v>
       </c>
       <c r="V28">
         <v>600</v>
       </c>
       <c r="W28">
+        <v>600</v>
+      </c>
+      <c r="X28">
+        <v>600</v>
+      </c>
+      <c r="Y28">
         <v>500</v>
       </c>
-      <c r="X28">
+      <c r="Z28">
         <v>500</v>
       </c>
-      <c r="Y28">
+      <c r="AA28">
         <v>300</v>
       </c>
-      <c r="Z28">
+      <c r="AB28">
         <v>300</v>
       </c>
-      <c r="AA28">
+      <c r="AC28">
         <v>200</v>
       </c>
-      <c r="AB28">
+      <c r="AD28">
         <v>0</v>
       </c>
-      <c r="AC28">
-        <f t="shared" ref="AC28:AC30" si="12">B28</f>
+      <c r="AE28">
+        <f t="shared" si="12"/>
         <v>2200</v>
       </c>
-      <c r="AD28" s="120">
+      <c r="AF28" s="120">
         <f t="shared" si="6"/>
         <v>2500</v>
       </c>
-      <c r="AE28" s="55">
+      <c r="AG28" s="55">
         <f t="shared" si="7"/>
         <v>0.31818181818181818</v>
       </c>
-      <c r="AF28" s="55">
+      <c r="AH28" s="55">
         <f t="shared" si="8"/>
         <v>0.45454545454545453</v>
       </c>
-      <c r="AG28" s="55">
+      <c r="AI28" s="55">
         <f t="shared" si="9"/>
         <v>0.63636363636363635</v>
       </c>
-      <c r="AH28" s="55">
+      <c r="AJ28" s="55">
         <f t="shared" si="10"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="AI28" s="55">
+      <c r="AK28" s="55">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="AJ28" s="55">
-        <f t="shared" si="0"/>
+      <c r="AL28" s="55">
+        <f t="shared" si="1"/>
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="29" spans="1:36" s="124" customFormat="1">
+    <row r="29" spans="1:38" s="124" customFormat="1">
       <c r="A29" s="124">
         <v>201606</v>
       </c>
       <c r="B29" s="124">
         <v>1600</v>
       </c>
-      <c r="C29" s="125">
-        <f t="shared" si="1"/>
+      <c r="E29" s="125">
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="D29" s="124">
+      <c r="F29" s="124">
         <v>900</v>
       </c>
-      <c r="E29" s="125">
+      <c r="G29" s="125">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="F29" s="125">
+      <c r="H29" s="125">
         <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="G29" s="124">
-        <v>400</v>
-      </c>
-      <c r="H29" s="124">
-        <v>400</v>
-      </c>
       <c r="I29" s="124">
         <v>400</v>
       </c>
@@ -91616,10 +91621,10 @@
         <v>400</v>
       </c>
       <c r="L29" s="124">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M29" s="124">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N29" s="124">
         <v>300</v>
@@ -91630,20 +91635,20 @@
       <c r="P29" s="124">
         <v>300</v>
       </c>
-      <c r="Q29" s="125">
+      <c r="Q29" s="124">
+        <v>300</v>
+      </c>
+      <c r="R29" s="124">
+        <v>300</v>
+      </c>
+      <c r="S29" s="125">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="R29" s="125">
+      <c r="T29" s="125">
         <f t="shared" si="5"/>
         <v>1300</v>
       </c>
-      <c r="S29" s="124">
-        <v>300</v>
-      </c>
-      <c r="T29" s="124">
-        <v>300</v>
-      </c>
       <c r="U29" s="124">
         <v>300</v>
       </c>
@@ -91651,325 +91656,331 @@
         <v>300</v>
       </c>
       <c r="W29" s="124">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X29" s="124">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y29" s="124">
         <v>200</v>
       </c>
       <c r="Z29" s="124">
+        <v>200</v>
+      </c>
+      <c r="AA29" s="124">
+        <v>200</v>
+      </c>
+      <c r="AB29" s="124">
         <v>100</v>
       </c>
-      <c r="AA29" s="124">
+      <c r="AC29" s="124">
         <v>100</v>
       </c>
-      <c r="AB29" s="124">
+      <c r="AD29" s="124">
         <v>0</v>
       </c>
-      <c r="AC29" s="124">
+      <c r="AE29" s="124">
         <f t="shared" si="12"/>
         <v>1600</v>
       </c>
-      <c r="AD29" s="123">
+      <c r="AF29" s="123">
         <f t="shared" si="6"/>
         <v>1900</v>
       </c>
-      <c r="AE29" s="124">
+      <c r="AG29" s="124">
         <f t="shared" si="7"/>
         <v>0.1875</v>
       </c>
-      <c r="AF29" s="124">
+      <c r="AH29" s="124">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-      <c r="AG29" s="124">
+      <c r="AI29" s="124">
         <f t="shared" si="9"/>
         <v>0.5625</v>
       </c>
-      <c r="AH29" s="124">
+      <c r="AJ29" s="124">
         <f t="shared" si="10"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AI29" s="124">
+      <c r="AK29" s="124">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="AJ29" s="124">
-        <f t="shared" si="0"/>
+      <c r="AL29" s="124">
+        <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:38">
       <c r="A30">
         <v>201607</v>
       </c>
       <c r="B30">
         <v>2400</v>
       </c>
-      <c r="C30" s="121">
-        <f t="shared" si="1"/>
+      <c r="E30" s="121">
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>1800</v>
       </c>
-      <c r="E30" s="121">
+      <c r="G30" s="121">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="F30" s="121">
+      <c r="H30" s="121">
         <f t="shared" si="3"/>
         <v>1300</v>
       </c>
-      <c r="G30">
-        <v>1100</v>
-      </c>
-      <c r="H30">
-        <v>1100</v>
-      </c>
       <c r="I30">
         <v>1100</v>
       </c>
       <c r="J30">
+        <v>1100</v>
+      </c>
+      <c r="K30">
+        <v>1100</v>
+      </c>
+      <c r="L30">
         <v>1000</v>
-      </c>
-      <c r="K30">
-        <v>900</v>
-      </c>
-      <c r="L30">
-        <v>900</v>
       </c>
       <c r="M30">
         <v>900</v>
       </c>
       <c r="N30">
+        <v>900</v>
+      </c>
+      <c r="O30">
+        <v>900</v>
+      </c>
+      <c r="P30">
         <v>800</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>700</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>700</v>
       </c>
-      <c r="Q30" s="121">
+      <c r="S30" s="121">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="R30" s="121">
+      <c r="T30" s="121">
         <f t="shared" si="5"/>
         <v>1800</v>
       </c>
-      <c r="S30">
-        <v>600</v>
-      </c>
-      <c r="T30">
-        <v>600</v>
-      </c>
       <c r="U30">
         <v>600</v>
       </c>
       <c r="V30">
+        <v>600</v>
+      </c>
+      <c r="W30">
+        <v>600</v>
+      </c>
+      <c r="X30">
         <v>500</v>
-      </c>
-      <c r="W30">
-        <v>300</v>
-      </c>
-      <c r="X30">
-        <v>300</v>
       </c>
       <c r="Y30">
         <v>300</v>
       </c>
       <c r="Z30">
+        <v>300</v>
+      </c>
+      <c r="AA30">
+        <v>300</v>
+      </c>
+      <c r="AB30">
         <v>200</v>
       </c>
-      <c r="AA30">
+      <c r="AC30">
         <v>100</v>
       </c>
-      <c r="AB30">
+      <c r="AD30">
         <v>0</v>
       </c>
-      <c r="AC30">
+      <c r="AE30">
         <f t="shared" si="12"/>
         <v>2400</v>
       </c>
-      <c r="AD30" s="120">
+      <c r="AF30" s="120">
         <f t="shared" si="6"/>
         <v>2700</v>
       </c>
-      <c r="AE30" s="55">
+      <c r="AG30" s="55">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="AF30" s="55">
+      <c r="AH30" s="55">
         <f t="shared" si="8"/>
         <v>0.45833333333333331</v>
       </c>
-      <c r="AG30" s="55">
+      <c r="AI30" s="55">
         <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
-      <c r="AH30" s="55">
+      <c r="AJ30" s="55">
         <f t="shared" si="10"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="AI30" s="55">
+      <c r="AK30" s="55">
         <f t="shared" si="11"/>
         <v>1.8181818181818181</v>
       </c>
-      <c r="AJ30" s="55">
-        <f t="shared" si="0"/>
+      <c r="AL30" s="55">
+        <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:38">
       <c r="A31">
         <v>201608</v>
       </c>
       <c r="B31">
         <v>2100</v>
       </c>
-      <c r="C31" s="121">
-        <f t="shared" ref="C31" si="13">B31-D31</f>
+      <c r="E31" s="121">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>1800</v>
       </c>
-      <c r="E31" s="121">
-        <f t="shared" ref="E31" si="14">D31-G31</f>
+      <c r="G31" s="121">
+        <f t="shared" ref="G31" si="13">F31-I31</f>
         <v>700</v>
       </c>
-      <c r="F31" s="121">
-        <f t="shared" ref="F31" si="15">C31+E31</f>
+      <c r="H31" s="121">
+        <f t="shared" ref="H31" si="14">E31+G31</f>
         <v>1000</v>
-      </c>
-      <c r="G31">
-        <v>1100</v>
-      </c>
-      <c r="H31">
-        <v>1100</v>
       </c>
       <c r="I31">
         <v>1100</v>
       </c>
       <c r="J31">
+        <v>1100</v>
+      </c>
+      <c r="K31">
+        <v>1100</v>
+      </c>
+      <c r="L31">
         <v>1000</v>
-      </c>
-      <c r="K31">
-        <v>900</v>
-      </c>
-      <c r="L31">
-        <v>900</v>
       </c>
       <c r="M31">
         <v>900</v>
       </c>
       <c r="N31">
+        <v>900</v>
+      </c>
+      <c r="O31">
+        <v>900</v>
+      </c>
+      <c r="P31">
         <v>800</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>700</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <v>700</v>
       </c>
-      <c r="Q31" s="121">
-        <f t="shared" ref="Q31" si="16">G31-S31</f>
+      <c r="S31" s="121">
+        <f t="shared" ref="S31" si="15">I31-U31</f>
         <v>500</v>
       </c>
-      <c r="R31" s="121">
-        <f t="shared" ref="R31" si="17">F31+Q31</f>
+      <c r="T31" s="121">
+        <f t="shared" ref="T31" si="16">H31+S31</f>
         <v>1500</v>
-      </c>
-      <c r="S31">
-        <v>600</v>
-      </c>
-      <c r="T31">
-        <v>600</v>
       </c>
       <c r="U31">
         <v>600</v>
       </c>
       <c r="V31">
+        <v>600</v>
+      </c>
+      <c r="W31">
+        <v>600</v>
+      </c>
+      <c r="X31">
         <v>500</v>
-      </c>
-      <c r="W31">
-        <v>300</v>
-      </c>
-      <c r="X31">
-        <v>300</v>
       </c>
       <c r="Y31">
         <v>300</v>
       </c>
       <c r="Z31">
+        <v>300</v>
+      </c>
+      <c r="AA31">
+        <v>300</v>
+      </c>
+      <c r="AB31">
         <v>200</v>
       </c>
-      <c r="AA31">
+      <c r="AC31">
         <v>100</v>
       </c>
-      <c r="AB31">
+      <c r="AD31">
         <v>0</v>
       </c>
-      <c r="AC31">
-        <f t="shared" ref="AC31:AC32" si="18">B31</f>
+      <c r="AE31">
+        <f t="shared" si="12"/>
         <v>2100</v>
       </c>
-      <c r="AD31" s="120">
-        <f t="shared" ref="AD31:AD32" si="19">AC31+300</f>
+      <c r="AF31" s="120">
+        <f t="shared" ref="AF31:AF32" si="17">AE31+300</f>
         <v>2400</v>
       </c>
-      <c r="AE31" s="55">
-        <f t="shared" ref="AE31" si="20">S31/AC31</f>
+      <c r="AG31" s="55">
+        <f t="shared" ref="AG31" si="18">U31/AE31</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="AF31" s="55">
-        <f t="shared" ref="AF31" si="21">G31/AC31</f>
+      <c r="AH31" s="55">
+        <f t="shared" ref="AH31" si="19">I31/AE31</f>
         <v>0.52380952380952384</v>
       </c>
-      <c r="AG31" s="55">
-        <f t="shared" ref="AG31" si="22">D31/AC31</f>
+      <c r="AI31" s="55">
+        <f t="shared" ref="AI31" si="20">F31/AE31</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="AH31" s="55">
-        <f t="shared" ref="AH31" si="23">1000/S31</f>
+      <c r="AJ31" s="55">
+        <f t="shared" ref="AJ31" si="21">1000/U31</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="AI31" s="55">
-        <f t="shared" ref="AI31" si="24">2000/G31</f>
+      <c r="AK31" s="55">
+        <f t="shared" ref="AK31" si="22">2000/I31</f>
         <v>1.8181818181818181</v>
       </c>
-      <c r="AJ31" s="55">
-        <f t="shared" ref="AJ31" si="25">6000/D31</f>
+      <c r="AL31" s="55">
+        <f t="shared" ref="AL31" si="23">6000/F31</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:38">
       <c r="A32">
         <v>201609</v>
       </c>
       <c r="B32">
         <v>1700</v>
       </c>
-      <c r="AC32">
-        <f t="shared" si="18"/>
+      <c r="AE32">
+        <f t="shared" si="12"/>
         <v>1700</v>
       </c>
-      <c r="AD32" s="141">
-        <f t="shared" si="19"/>
+      <c r="AF32" s="140">
+        <f t="shared" si="17"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
-      <c r="AD33" s="141"/>
-    </row>
-    <row r="34" spans="1:36">
-      <c r="AD34" s="141"/>
-    </row>
-    <row r="37" spans="1:36">
+    <row r="33" spans="1:38">
+      <c r="AF33" s="140"/>
+    </row>
+    <row r="34" spans="1:38">
+      <c r="AF34" s="140"/>
+    </row>
+    <row r="37" spans="1:38">
       <c r="A37" t="s">
         <v>739</v>
       </c>
@@ -91977,144 +91988,144 @@
         <f>AVERAGE(B26:B30)</f>
         <v>2200</v>
       </c>
-      <c r="C37">
-        <f t="shared" ref="C37:AJ37" si="26">AVERAGE(C26:C30)</f>
+      <c r="E37">
+        <f t="shared" ref="E37:AL37" si="24">AVERAGE(E26:E30)</f>
         <v>780</v>
       </c>
-      <c r="D37">
-        <f t="shared" si="26"/>
+      <c r="F37">
+        <f t="shared" si="24"/>
         <v>1420</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="26"/>
+      <c r="G37">
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
-      <c r="F37" s="122">
-        <f t="shared" si="26"/>
+      <c r="H37" s="122">
+        <f t="shared" si="24"/>
         <v>1280</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="26"/>
+      <c r="I37">
+        <f t="shared" si="24"/>
         <v>920</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="26"/>
+      <c r="J37">
+        <f t="shared" si="24"/>
         <v>900</v>
       </c>
-      <c r="I37">
-        <f t="shared" si="26"/>
+      <c r="K37">
+        <f t="shared" si="24"/>
         <v>900</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="26"/>
+      <c r="L37">
+        <f t="shared" si="24"/>
         <v>860</v>
       </c>
-      <c r="K37">
-        <f t="shared" si="26"/>
+      <c r="M37">
+        <f t="shared" si="24"/>
         <v>820</v>
       </c>
-      <c r="L37">
-        <f t="shared" si="26"/>
+      <c r="N37">
+        <f t="shared" si="24"/>
         <v>780</v>
       </c>
-      <c r="M37">
-        <f t="shared" si="26"/>
+      <c r="O37">
+        <f t="shared" si="24"/>
         <v>760</v>
       </c>
-      <c r="N37">
-        <f t="shared" si="26"/>
+      <c r="P37">
+        <f t="shared" si="24"/>
         <v>700</v>
       </c>
-      <c r="O37">
-        <f t="shared" si="26"/>
+      <c r="Q37">
+        <f t="shared" si="24"/>
         <v>640</v>
       </c>
-      <c r="P37">
-        <f t="shared" si="26"/>
+      <c r="R37">
+        <f t="shared" si="24"/>
         <v>620</v>
       </c>
-      <c r="Q37" s="122">
-        <f t="shared" si="26"/>
+      <c r="S37" s="122">
+        <f t="shared" si="24"/>
         <v>320</v>
       </c>
-      <c r="R37" s="122">
-        <f t="shared" si="26"/>
+      <c r="T37" s="122">
+        <f t="shared" si="24"/>
         <v>1600</v>
       </c>
-      <c r="S37">
-        <f t="shared" si="26"/>
+      <c r="U37">
+        <f t="shared" si="24"/>
         <v>600</v>
       </c>
-      <c r="T37">
-        <f t="shared" si="26"/>
+      <c r="V37">
+        <f t="shared" si="24"/>
         <v>560</v>
       </c>
-      <c r="U37">
-        <f t="shared" si="26"/>
+      <c r="W37">
+        <f t="shared" si="24"/>
         <v>520</v>
       </c>
-      <c r="V37">
-        <f t="shared" si="26"/>
+      <c r="X37">
+        <f t="shared" si="24"/>
         <v>480</v>
       </c>
-      <c r="W37">
-        <f t="shared" si="26"/>
+      <c r="Y37">
+        <f t="shared" si="24"/>
         <v>380</v>
       </c>
-      <c r="X37">
-        <f t="shared" si="26"/>
+      <c r="Z37">
+        <f t="shared" si="24"/>
         <v>340</v>
       </c>
-      <c r="Y37">
-        <f t="shared" si="26"/>
+      <c r="AA37">
+        <f t="shared" si="24"/>
         <v>300</v>
       </c>
-      <c r="Z37">
-        <f t="shared" si="26"/>
+      <c r="AB37">
+        <f t="shared" si="24"/>
         <v>240</v>
       </c>
-      <c r="AA37">
-        <f t="shared" si="26"/>
+      <c r="AC37">
+        <f t="shared" si="24"/>
         <v>160</v>
       </c>
-      <c r="AB37">
-        <f t="shared" si="26"/>
+      <c r="AD37">
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
-      <c r="AC37">
-        <f t="shared" si="26"/>
+      <c r="AE37">
+        <f t="shared" si="24"/>
         <v>2200</v>
       </c>
-      <c r="AD37">
-        <f t="shared" si="26"/>
+      <c r="AF37">
+        <f t="shared" si="24"/>
         <v>2500</v>
       </c>
-      <c r="AE37">
-        <f t="shared" si="26"/>
+      <c r="AG37">
+        <f t="shared" si="24"/>
         <v>0.26800592885375496</v>
       </c>
-      <c r="AF37">
-        <f t="shared" si="26"/>
+      <c r="AH37">
+        <f t="shared" si="24"/>
         <v>0.40822793148880104</v>
       </c>
-      <c r="AG37">
-        <f t="shared" si="26"/>
+      <c r="AI37">
+        <f t="shared" si="24"/>
         <v>0.63951185770750985</v>
       </c>
-      <c r="AH37">
-        <f t="shared" si="26"/>
+      <c r="AJ37">
+        <f t="shared" si="24"/>
         <v>1.857142857142857</v>
       </c>
-      <c r="AI37">
-        <f t="shared" si="26"/>
+      <c r="AK37">
+        <f t="shared" si="24"/>
         <v>2.5272727272727273</v>
       </c>
-      <c r="AJ37">
-        <f t="shared" si="26"/>
+      <c r="AL37">
+        <f t="shared" si="24"/>
         <v>4.4642857142857135</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:38">
       <c r="A39" t="s">
         <v>740</v>
       </c>
@@ -92122,235 +92133,229 @@
         <f>AVERAGE(B26,B27,B28,B30)</f>
         <v>2350</v>
       </c>
-      <c r="C39">
-        <f t="shared" ref="C39:AJ39" si="27">AVERAGE(C26,C27,C28,C30)</f>
+      <c r="E39">
+        <f t="shared" ref="E39:AL39" si="25">AVERAGE(E26,E27,E28,E30)</f>
         <v>800</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="27"/>
+      <c r="F39">
+        <f t="shared" si="25"/>
         <v>1550</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="27"/>
+      <c r="G39">
+        <f t="shared" si="25"/>
         <v>500</v>
       </c>
-      <c r="F39" s="122">
-        <f t="shared" si="27"/>
+      <c r="H39" s="122">
+        <f t="shared" si="25"/>
         <v>1300</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="27"/>
+      <c r="I39">
+        <f t="shared" si="25"/>
         <v>1050</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="27"/>
+      <c r="J39">
+        <f t="shared" si="25"/>
         <v>1025</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="27"/>
+      <c r="K39">
+        <f t="shared" si="25"/>
         <v>1025</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="27"/>
+      <c r="L39">
+        <f t="shared" si="25"/>
         <v>975</v>
       </c>
-      <c r="K39">
-        <f t="shared" si="27"/>
+      <c r="M39">
+        <f t="shared" si="25"/>
         <v>925</v>
       </c>
-      <c r="L39">
-        <f t="shared" si="27"/>
+      <c r="N39">
+        <f t="shared" si="25"/>
         <v>900</v>
       </c>
-      <c r="M39">
-        <f t="shared" si="27"/>
+      <c r="O39">
+        <f t="shared" si="25"/>
         <v>875</v>
       </c>
-      <c r="N39">
-        <f t="shared" si="27"/>
+      <c r="P39">
+        <f t="shared" si="25"/>
         <v>800</v>
       </c>
-      <c r="O39">
-        <f t="shared" si="27"/>
+      <c r="Q39">
+        <f t="shared" si="25"/>
         <v>725</v>
       </c>
-      <c r="P39">
-        <f t="shared" si="27"/>
+      <c r="R39">
+        <f t="shared" si="25"/>
         <v>700</v>
       </c>
-      <c r="Q39" s="122">
-        <f t="shared" si="27"/>
+      <c r="S39" s="122">
+        <f t="shared" si="25"/>
         <v>375</v>
       </c>
-      <c r="R39" s="122">
-        <f t="shared" si="27"/>
+      <c r="T39" s="122">
+        <f t="shared" si="25"/>
         <v>1675</v>
       </c>
-      <c r="S39">
-        <f t="shared" si="27"/>
+      <c r="U39">
+        <f t="shared" si="25"/>
         <v>675</v>
       </c>
-      <c r="T39">
-        <f t="shared" si="27"/>
+      <c r="V39">
+        <f t="shared" si="25"/>
         <v>625</v>
       </c>
-      <c r="U39">
-        <f t="shared" si="27"/>
+      <c r="W39">
+        <f t="shared" si="25"/>
         <v>575</v>
       </c>
-      <c r="V39">
-        <f t="shared" si="27"/>
+      <c r="X39">
+        <f t="shared" si="25"/>
         <v>525</v>
       </c>
-      <c r="W39">
-        <f t="shared" si="27"/>
+      <c r="Y39">
+        <f t="shared" si="25"/>
         <v>425</v>
       </c>
-      <c r="X39">
-        <f t="shared" si="27"/>
+      <c r="Z39">
+        <f t="shared" si="25"/>
         <v>375</v>
       </c>
-      <c r="Y39">
-        <f t="shared" si="27"/>
+      <c r="AA39">
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
-      <c r="Z39">
-        <f t="shared" si="27"/>
+      <c r="AB39">
+        <f t="shared" si="25"/>
         <v>275</v>
       </c>
-      <c r="AA39">
-        <f t="shared" si="27"/>
+      <c r="AC39">
+        <f t="shared" si="25"/>
         <v>175</v>
       </c>
-      <c r="AB39">
-        <f t="shared" si="27"/>
+      <c r="AD39">
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="AC39">
-        <f t="shared" si="27"/>
+      <c r="AE39">
+        <f t="shared" si="25"/>
         <v>2350</v>
       </c>
-      <c r="AD39">
-        <f t="shared" si="27"/>
+      <c r="AF39">
+        <f t="shared" si="25"/>
         <v>2650</v>
       </c>
-      <c r="AE39">
-        <f t="shared" si="27"/>
+      <c r="AG39">
+        <f t="shared" si="25"/>
         <v>0.28813241106719367</v>
       </c>
-      <c r="AF39">
-        <f t="shared" si="27"/>
+      <c r="AH39">
+        <f t="shared" si="25"/>
         <v>0.44778491436100132</v>
       </c>
-      <c r="AG39">
-        <f t="shared" si="27"/>
+      <c r="AI39">
+        <f t="shared" si="25"/>
         <v>0.65876482213438736</v>
       </c>
-      <c r="AH39">
-        <f t="shared" si="27"/>
+      <c r="AJ39">
+        <f t="shared" si="25"/>
         <v>1.4880952380952381</v>
       </c>
-      <c r="AI39">
-        <f t="shared" si="27"/>
+      <c r="AK39">
+        <f t="shared" si="25"/>
         <v>1.9090909090909092</v>
       </c>
-      <c r="AJ39">
-        <f t="shared" si="27"/>
+      <c r="AL39">
+        <f t="shared" si="25"/>
         <v>3.9136904761904758</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
-      <c r="G40">
+    <row r="40" spans="1:38">
+      <c r="I40">
         <v>0</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>1</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>2</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>3</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>4</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <v>5</v>
       </c>
-      <c r="M40">
+      <c r="O40">
         <v>6</v>
       </c>
-      <c r="N40">
+      <c r="P40">
         <v>7</v>
       </c>
-      <c r="O40">
+      <c r="Q40">
         <v>8</v>
       </c>
-      <c r="P40">
+      <c r="R40">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:36" s="122" customFormat="1">
+    <row r="41" spans="1:38" s="122" customFormat="1">
       <c r="A41" s="122" t="s">
         <v>746</v>
       </c>
-      <c r="D41" s="122">
+      <c r="F41" s="122">
         <v>1600</v>
-      </c>
-      <c r="G41" s="122">
-        <v>1100</v>
-      </c>
-      <c r="H41" s="122">
-        <v>1100</v>
       </c>
       <c r="I41" s="122">
         <v>1100</v>
       </c>
       <c r="J41" s="122">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K41" s="122">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L41" s="122">
         <v>1000</v>
       </c>
       <c r="M41" s="122">
+        <v>1000</v>
+      </c>
+      <c r="N41" s="122">
+        <v>1000</v>
+      </c>
+      <c r="O41" s="122">
         <v>900</v>
       </c>
-      <c r="N41" s="122">
+      <c r="P41" s="122">
         <v>900</v>
       </c>
-      <c r="O41" s="122">
+      <c r="Q41" s="122">
         <v>800</v>
       </c>
-      <c r="P41" s="122">
+      <c r="R41" s="122">
         <v>800</v>
-      </c>
-      <c r="S41" s="122">
-        <v>600</v>
-      </c>
-      <c r="T41" s="122">
-        <v>600</v>
       </c>
       <c r="U41" s="122">
         <v>600</v>
       </c>
       <c r="V41" s="122">
+        <v>600</v>
+      </c>
+      <c r="W41" s="122">
+        <v>600</v>
+      </c>
+      <c r="X41" s="122">
         <v>500</v>
       </c>
-      <c r="W41" s="122">
+      <c r="Y41" s="122">
         <v>500</v>
       </c>
-      <c r="X41" s="122">
+      <c r="Z41" s="122">
         <v>400</v>
-      </c>
-      <c r="Y41" s="122">
-        <v>300</v>
-      </c>
-      <c r="Z41" s="122">
-        <v>300</v>
       </c>
       <c r="AA41" s="122">
         <v>300</v>
@@ -92358,123 +92363,129 @@
       <c r="AB41" s="122">
         <v>300</v>
       </c>
-    </row>
-    <row r="43" spans="1:36" s="122" customFormat="1">
+      <c r="AC41" s="122">
+        <v>300</v>
+      </c>
+      <c r="AD41" s="122">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" s="122" customFormat="1">
       <c r="A43" s="122" t="s">
         <v>745</v>
       </c>
       <c r="B43" s="122">
         <v>1700</v>
       </c>
-      <c r="C43" s="122" t="s">
+      <c r="E43" s="122" t="s">
         <v>743</v>
       </c>
-      <c r="D43" s="122">
+      <c r="F43" s="122">
         <v>2600</v>
       </c>
-      <c r="F43" s="122">
+      <c r="H43" s="122">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
-      <c r="AB44" s="122" t="s">
+    <row r="44" spans="1:38">
+      <c r="AD44" s="122" t="s">
         <v>744</v>
       </c>
-      <c r="AC44" s="122">
+      <c r="AE44" s="122">
         <v>2300</v>
       </c>
-      <c r="AD44" s="122">
+      <c r="AF44" s="122">
         <v>2400</v>
       </c>
-      <c r="AE44" s="122">
+      <c r="AG44" s="122">
         <v>2500</v>
       </c>
     </row>
-    <row r="50" spans="4:16">
-      <c r="D50" s="122">
+    <row r="50" spans="6:18">
+      <c r="F50" s="122">
         <v>1600</v>
       </c>
-      <c r="E50" s="128">
+      <c r="G50" s="128">
         <v>1700</v>
       </c>
-      <c r="F50" s="126">
+      <c r="H50" s="126">
         <v>1800</v>
       </c>
-      <c r="G50" s="127">
+      <c r="I50" s="127">
         <v>1900</v>
       </c>
-      <c r="H50" s="122">
+      <c r="J50" s="122">
         <v>2000</v>
       </c>
-      <c r="I50" s="128">
+      <c r="K50" s="128">
         <v>2100</v>
       </c>
-      <c r="J50" s="126">
+      <c r="L50" s="126">
         <v>2200</v>
       </c>
-      <c r="K50" s="127">
+      <c r="M50" s="127">
         <v>2300</v>
       </c>
-      <c r="L50" s="122">
+      <c r="N50" s="122">
         <v>2400</v>
       </c>
-      <c r="M50" s="128">
+      <c r="O50" s="128">
         <v>2500</v>
       </c>
-      <c r="N50" s="126">
+      <c r="P50" s="126">
         <v>2600</v>
       </c>
-      <c r="O50" s="127">
+      <c r="Q50" s="127">
         <v>2700</v>
       </c>
-      <c r="P50" s="122">
+      <c r="R50" s="122">
         <v>2800</v>
       </c>
     </row>
-    <row r="52" spans="4:16">
-      <c r="D52" s="122">
+    <row r="52" spans="6:18">
+      <c r="F52" s="122">
         <v>1600</v>
       </c>
-      <c r="E52" s="128">
+      <c r="G52" s="128">
         <v>1700</v>
       </c>
-      <c r="F52" s="126">
+      <c r="H52" s="126">
         <v>1800</v>
       </c>
-      <c r="G52" s="127">
+      <c r="I52" s="127">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="4:16">
-      <c r="D53" s="122">
+    <row r="53" spans="6:18">
+      <c r="F53" s="122">
         <v>2000</v>
       </c>
-      <c r="E53" s="128">
+      <c r="G53" s="128">
         <v>2100</v>
       </c>
-      <c r="F53" s="126">
+      <c r="H53" s="126">
         <v>2200</v>
       </c>
-      <c r="G53" s="127">
+      <c r="I53" s="127">
         <v>2300</v>
       </c>
     </row>
-    <row r="54" spans="4:16">
-      <c r="D54" s="122">
+    <row r="54" spans="6:18">
+      <c r="F54" s="122">
         <v>2400</v>
       </c>
-      <c r="E54" s="128">
+      <c r="G54" s="128">
         <v>2500</v>
       </c>
-      <c r="F54" s="126">
+      <c r="H54" s="126">
         <v>2600</v>
       </c>
-      <c r="G54" s="127">
+      <c r="I54" s="127">
         <v>2700</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ1"/>
+  <autoFilter ref="A1:AL1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
